--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6351E-7BC8-4E76-82C1-66219E54B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D407C64-F58E-4D72-B6C8-D72A7F75FC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1155" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1080" yWindow="885" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -392,16 +392,6 @@
   </si>
   <si>
     <t>Cookie_Study</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーのさくさく感を上げる</t>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1259,10 +1249,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クッキー・パワー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Heart_of_Icecream</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1332,28 +1318,73 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クッキー・ファイヤー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Cookie_SecondBake</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クッキーをさらに焼くことで、サクサク感を増す。</t>
-    <rPh sb="8" eb="9">
-      <t>ヤ</t>
+    <t>ダブル・ファイア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーを二度焼きして、サクサク感を増す。</t>
+    <rPh sb="5" eb="8">
+      <t>ニドヤ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
     </rPh>
     <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーをさらに焼くことで、サクサク感を増す。
+やりすぎると失敗する。</t>
+    <rPh sb="30" eb="32">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MPリジェネレート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子を作った際に、MPを少し回復する</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MP_Regenaration</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーのお勉強</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーのさくさく感を底上げする</t>
+    <rPh sb="9" eb="10">
       <t>カン</t>
     </rPh>
-    <rPh sb="20" eb="21">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーをさらに焼くことで、サクサク感を増す。</t>
+    <rPh sb="11" eb="13">
+      <t>ソコア</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1740,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1766,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1799,7 +1830,7 @@
         <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1811,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>58</v>
@@ -1819,7 +1850,7 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A37" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A38" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1856,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1871,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1889,10 +1920,10 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1913,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1928,7 +1959,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1943,13 +1974,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1970,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1985,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1997,16 +2028,16 @@
         <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
         <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2027,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2042,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -2054,16 +2085,16 @@
         <v>1004</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
         <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2084,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -2099,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2111,16 +2142,16 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2141,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2156,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2168,16 +2199,16 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2198,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2213,7 +2244,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2225,16 +2256,16 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2255,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2270,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2282,16 +2313,16 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
         <v>146</v>
-      </c>
-      <c r="F10" t="s">
-        <v>148</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2312,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2327,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2369,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2384,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2399,13 +2430,13 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
         <v>105</v>
-      </c>
-      <c r="F12" t="s">
-        <v>106</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2426,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2441,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2456,13 +2487,13 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2483,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2498,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2513,13 +2544,13 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
         <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2540,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2555,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2597,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2654,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2684,13 +2715,13 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
         <v>136</v>
       </c>
-      <c r="E17" t="s">
-        <v>137</v>
-      </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2711,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2726,31 +2757,31 @@
         <v>6</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4001</v>
+        <v>3004</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2762,19 +2793,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P18">
         <v>100</v>
@@ -2783,31 +2814,31 @@
         <v>6</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2819,13 +2850,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2840,31 +2871,31 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2882,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2897,28 +2928,28 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2933,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2954,31 +2985,31 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2990,16 +3021,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -3010,8 +3041,8 @@
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" t="s">
-        <v>33</v>
+      <c r="R22" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
@@ -3020,22 +3051,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -3053,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -3068,7 +3099,7 @@
         <v>6</v>
       </c>
       <c r="R23" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -3077,19 +3108,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3110,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -3125,7 +3156,7 @@
         <v>6</v>
       </c>
       <c r="R24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3134,19 +3165,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
         <v>102</v>
       </c>
-      <c r="E25" t="s">
-        <v>104</v>
-      </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3167,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -3182,7 +3213,7 @@
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -3197,10 +3228,10 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
         <v>127</v>
@@ -3224,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3248,22 +3279,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5001</v>
+        <v>4008</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3275,19 +3306,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3296,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3305,19 +3336,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6002</v>
+        <v>5001</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -3332,19 +3363,19 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28">
         <v>100</v>
@@ -3353,7 +3384,7 @@
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3362,19 +3393,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3395,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3410,7 +3441,7 @@
         <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -3419,19 +3450,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7001</v>
+        <v>6003</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -3446,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P30">
         <v>100</v>
@@ -3467,7 +3498,7 @@
         <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3476,22 +3507,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3509,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3524,7 +3555,7 @@
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3533,22 +3564,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3566,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="O32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P32">
         <v>100</v>
@@ -3581,7 +3612,7 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -3590,19 +3621,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3623,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3638,7 +3669,7 @@
         <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -3647,46 +3678,46 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
         <v>111</v>
       </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>112</v>
-      </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -3695,31 +3726,31 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3737,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>8</v>
@@ -3751,32 +3782,32 @@
       <c r="Q35">
         <v>6</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>85</v>
+      <c r="R35" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3794,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>8</v>
@@ -3808,8 +3839,8 @@
       <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" t="s">
-        <v>117</v>
+      <c r="R36" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -3818,22 +3849,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3845,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>8</v>
@@ -3866,7 +3897,64 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>108</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>9003</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+      <c r="P38">
+        <v>100</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D407C64-F58E-4D72-B6C8-D72A7F75FC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6BE5F-9536-4DB5-A175-1661FF4C1BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="885" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1273,8 +1273,78 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Cookie_SecondBake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダブル・ファイア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーを二度焼きして、サクサク感を増す。</t>
+    <rPh sb="5" eb="8">
+      <t>ニドヤ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーをさらに焼くことで、サクサク感を増す。
+やりすぎると失敗する。</t>
+    <rPh sb="30" eb="32">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MPリジェネレート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子を作った際に、MPを少し回復する</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MP_Regenaration</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーのお勉強</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーのさくさく感を底上げする</t>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>様々な液体を固めて、
-不思議なシュガーを作り出すよ！
+不思議なシュガーを作り出す。
 ラベンダーポーション　→　ラベンダーシュガー
 砂糖水からは、氷砂糖
 ミルクは、ミルキーシュガー（真っ白で牛乳風味のお砂糖）
@@ -1297,93 +1367,81 @@
     <rPh sb="22" eb="23">
       <t>ダ</t>
     </rPh>
-    <rPh sb="51" eb="54">
+    <rPh sb="50" eb="53">
       <t>サトウミズ</t>
     </rPh>
-    <rPh sb="58" eb="61">
+    <rPh sb="57" eb="60">
       <t>コオリザトウ</t>
     </rPh>
-    <rPh sb="76" eb="77">
+    <rPh sb="75" eb="76">
       <t>マ</t>
     </rPh>
-    <rPh sb="78" eb="79">
+    <rPh sb="77" eb="78">
       <t>シロ</t>
     </rPh>
-    <rPh sb="80" eb="84">
+    <rPh sb="79" eb="83">
       <t>ギュウニュウフウミ</t>
     </rPh>
-    <rPh sb="86" eb="88">
+    <rPh sb="85" eb="87">
       <t>サトウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Cookie_SecondBake</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ダブル・ファイア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーを二度焼きして、サクサク感を増す。</t>
-    <rPh sb="5" eb="8">
-      <t>ニドヤ</t>
-    </rPh>
+    <t>光で作ったちょうちょや葉っぱを飛ばす
+お菓子をさらにかわいく演出できる。
+ただし、特定のお菓子でないと相性が悪いこともある。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SugerPot</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほしのかけらをトッピングする
+特にジュースやソーダなどの
+飲み物と相性がいい。</t>
     <rPh sb="16" eb="17">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーをさらに焼くことで、サクサク感を増す。
-やりすぎると失敗する。</t>
-    <rPh sb="30" eb="32">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MPリジェネレート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お菓子を作った際に、MPを少し回復する</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MP_Regenaration</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーのお勉強</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーのさくさく感を底上げする</t>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソコア</t>
+      <t>トク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>アイショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1773,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1920,10 +1978,10 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
         <v>151</v>
-      </c>
-      <c r="F3" t="s">
-        <v>152</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -2316,13 +2374,13 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
         <v>144</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>145</v>
-      </c>
-      <c r="F10" t="s">
-        <v>146</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2358,7 +2416,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2544,7 +2602,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
         <v>141</v>
@@ -2586,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2757,7 +2815,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -2772,13 +2830,13 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
         <v>148</v>
-      </c>
-      <c r="F18" t="s">
-        <v>149</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -3330,7 +3388,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3383,8 +3441,8 @@
       <c r="Q28">
         <v>6</v>
       </c>
-      <c r="R28" t="s">
-        <v>42</v>
+      <c r="R28" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6BE5F-9536-4DB5-A175-1661FF4C1BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDF8125-6E47-4F94-915E-68FECFAB6856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="164">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -571,45 +571,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>光で作ったちょうちょや葉っぱを飛ばす
-光の演出度が高い。
-ただし、特定のお菓子でないと相性が悪い。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>エンシュツド</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>アイショウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ワル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ライフ・ストリーム</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1277,10 +1238,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ダブル・ファイア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クッキーを二度焼きして、サクサク感を増す。</t>
     <rPh sb="5" eb="8">
       <t>ニドヤ</t>
@@ -1290,14 +1247,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーをさらに焼くことで、サクサク感を増す。
-やりすぎると失敗する。</t>
-    <rPh sb="30" eb="32">
-      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1442,6 +1391,212 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>アイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラテ・ア～ト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒー・カフェラテの見た目を美しくする。</t>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Latte_Art</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラテ・ア～ト
+タイプ：アクティブ
+コーヒー・カフェラテについて勉強し、さらにカフェラテの表面にかわいい絵柄を描く。
+覚えるだけでコーヒー系の品質の底上げ。
+さらに、カフェラテに魔法をかけることで、よりかわいく見せることができる。
+LV1: さくさく感+5
+LV2: さくさく感+10
+LV3: さくさく感+15</t>
+    <rPh sb="32" eb="34">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>エガラ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二度・焼き</t>
+    <rPh sb="0" eb="2">
+      <t>ニド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼く際に、温度を細かく指定できる。
+材料選択後、
+クッキーの場合、時間と温度を決めることができる画面になる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>ザイリョウセンタクゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーをさらに焼くことで、サクサク感を増す。
+やりすぎると失敗する。
+ゲージが出現するので、
+焦げるギリギリのポイントでゲージを止めると、
+サクサク感が増す。
+ポイントを超えると、焦げて失敗。</t>
+    <rPh sb="30" eb="32">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一時的に、「祝福」状態になる。</t>
+    <rPh sb="0" eb="3">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュクフク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blessing_of_Angel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一時的に、「祝福」状態になる。
+「祝福」状態だと、
+お菓子が出来上がる際に、
+さらに食感を底上げする。
+効果は、1時間ほどで消える。</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュクフク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュクフク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショッカン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソコア</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天使のオカリナ</t>
+    <rPh sb="0" eb="2">
+      <t>テンシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1829,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1888,7 +2043,7 @@
         <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1900,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>58</v>
@@ -1908,7 +2063,7 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A38" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A40" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1945,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1978,10 +2133,10 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -2002,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2032,13 +2187,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -2059,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2074,7 +2229,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -2116,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2134,7 +2289,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2173,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -2187,8 +2342,8 @@
       <c r="Q6">
         <v>6</v>
       </c>
-      <c r="R6" t="s">
-        <v>67</v>
+      <c r="R6" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2203,13 +2358,13 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2230,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2245,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2260,13 +2415,13 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2287,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2302,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2317,13 +2472,13 @@
         <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2344,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2359,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2374,13 +2529,13 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" t="s">
         <v>143</v>
-      </c>
-      <c r="E10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" t="s">
-        <v>145</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2401,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2416,7 +2571,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2458,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2473,7 +2628,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2488,13 +2643,13 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
         <v>104</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2515,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2530,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2545,13 +2700,13 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2572,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2587,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2602,13 +2757,13 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" t="s">
         <v>141</v>
-      </c>
-      <c r="F14" t="s">
-        <v>142</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2629,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2644,7 +2799,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2671,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2686,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2743,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2773,10 +2928,10 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
         <v>135</v>
-      </c>
-      <c r="E17" t="s">
-        <v>136</v>
       </c>
       <c r="F17" t="s">
         <v>80</v>
@@ -2785,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2800,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2815,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -2830,13 +2985,13 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -2857,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2872,34 +3027,34 @@
         <v>6</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4001</v>
+        <v>3005</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2908,19 +3063,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>100</v>
@@ -2929,31 +3084,31 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2965,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2986,31 +3141,31 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -3028,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3043,28 +3198,28 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -3079,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3100,31 +3255,31 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -3136,16 +3291,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -3156,8 +3311,8 @@
       <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" t="s">
-        <v>33</v>
+      <c r="R23" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -3166,22 +3321,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3199,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -3214,7 +3369,7 @@
         <v>6</v>
       </c>
       <c r="R24" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3223,19 +3378,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3256,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -3271,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -3280,19 +3435,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
         <v>101</v>
       </c>
-      <c r="E26" t="s">
-        <v>103</v>
-      </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3313,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3328,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3343,10 +3498,10 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
         <v>126</v>
@@ -3370,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3388,28 +3543,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5001</v>
+        <v>4008</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3421,19 +3576,19 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P28">
         <v>100</v>
@@ -3441,29 +3596,29 @@
       <c r="Q28">
         <v>6</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>155</v>
+      <c r="R28" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6002</v>
+        <v>5001</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3478,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P29">
         <v>100</v>
@@ -3498,35 +3653,35 @@
       <c r="Q29">
         <v>6</v>
       </c>
-      <c r="R29" t="s">
-        <v>46</v>
+      <c r="R29" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6003</v>
+        <v>5002</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3535,19 +3690,19 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P30">
         <v>100</v>
@@ -3555,8 +3710,8 @@
       <c r="Q30">
         <v>6</v>
       </c>
-      <c r="R30" t="s">
-        <v>114</v>
+      <c r="R30" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3565,19 +3720,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7001</v>
+        <v>6002</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G31">
         <v>6</v>
@@ -3592,19 +3747,19 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P31">
         <v>100</v>
@@ -3613,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3622,22 +3777,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7002</v>
+        <v>6003</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3649,19 +3804,19 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="O32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P32">
         <v>100</v>
@@ -3670,7 +3825,7 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -3679,19 +3834,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8001</v>
+        <v>7001</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3712,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P33">
         <v>100</v>
@@ -3727,7 +3882,7 @@
         <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -3736,22 +3891,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8002</v>
+        <v>7002</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3769,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -3784,7 +3939,7 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -3793,46 +3948,46 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9001</v>
+        <v>8001</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
         <v>110</v>
       </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>111</v>
-      </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P35">
         <v>100</v>
@@ -3841,28 +3996,28 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9002</v>
+        <v>8002</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -3877,19 +4032,19 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
       <c r="O36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P36">
         <v>100</v>
@@ -3897,8 +4052,8 @@
       <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>84</v>
+      <c r="R36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -3907,19 +4062,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9004</v>
+        <v>9001</v>
       </c>
       <c r="C37" t="s">
         <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3940,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3955,28 +4110,28 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -3991,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4011,8 +4166,122 @@
       <c r="Q38">
         <v>6</v>
       </c>
-      <c r="R38" t="s">
-        <v>107</v>
+      <c r="R38" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>9004</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>110</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>8</v>
+      </c>
+      <c r="P39">
+        <v>100</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>9003</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>110</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>8</v>
+      </c>
+      <c r="P40">
+        <v>100</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDF8125-6E47-4F94-915E-68FECFAB6856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40EF6D-6505-4B9C-AC9A-B2DBF0CF7228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2310" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クッキー・パッキング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クッキーをまとめて包装する。</t>
     <rPh sb="9" eb="11">
       <t>ホウソウ</t>
@@ -591,10 +587,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チョコレート・パッキング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Chocorate_Packing</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1598,6 +1590,17 @@
     <rPh sb="0" eb="2">
       <t>テンシ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキー・パッキング※未使用</t>
+    <rPh sb="11" eb="14">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレート・パッキング※未使用</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1986,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2010,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2040,10 +2043,10 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -2055,10 +2058,10 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2073,13 +2076,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -2100,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -2115,7 +2118,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2130,13 +2133,13 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -2145,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2157,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2172,7 +2175,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2187,13 +2190,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -2214,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2229,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -2241,16 +2244,16 @@
         <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2259,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2271,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2286,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="R5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2298,16 +2301,16 @@
         <v>1004</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
         <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2316,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2328,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>9</v>
@@ -2343,7 +2346,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2355,16 +2358,16 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2373,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2385,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2400,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2412,16 +2415,16 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2430,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2442,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2457,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2469,16 +2472,16 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2487,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2499,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2514,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2526,16 +2529,16 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2544,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2556,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2571,7 +2574,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2583,16 +2586,16 @@
         <v>2001</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2601,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2613,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2628,7 +2631,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2640,16 +2643,16 @@
         <v>2002</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2670,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2685,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2697,16 +2700,16 @@
         <v>2003</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2715,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2727,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2742,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2754,16 +2757,16 @@
         <v>2003</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2772,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2784,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2799,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2811,16 +2814,16 @@
         <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2829,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2841,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2856,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="R15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -2868,16 +2871,16 @@
         <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
         <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -2886,7 +2889,7 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2898,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2913,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="R16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -2925,16 +2928,16 @@
         <v>3003</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2943,7 +2946,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2955,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2970,7 +2973,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -2982,16 +2985,16 @@
         <v>3004</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -3000,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3012,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3027,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3039,16 +3042,16 @@
         <v>3005</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" t="s">
         <v>161</v>
       </c>
-      <c r="E19" t="s">
-        <v>163</v>
-      </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -3057,7 +3060,7 @@
         <v>20</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3069,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3084,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3096,16 +3099,16 @@
         <v>4001</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -3114,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3126,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -3141,7 +3144,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3153,16 +3156,16 @@
         <v>4002</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3171,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3183,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3198,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3210,16 +3213,16 @@
         <v>4003</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -3228,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3240,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3255,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3267,17 +3270,17 @@
         <v>4004</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
       <c r="G23">
         <v>3</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3297,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3312,7 +3315,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -3324,16 +3327,16 @@
         <v>4005</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
         <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
       </c>
       <c r="G24">
         <v>12</v>
@@ -3342,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3354,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3369,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="R24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3381,16 +3384,16 @@
         <v>4006</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3399,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3411,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -3426,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -3438,16 +3441,16 @@
         <v>4007</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
         <v>99</v>
       </c>
-      <c r="E26" t="s">
-        <v>101</v>
-      </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3456,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3468,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3483,7 +3486,7 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3495,16 +3498,16 @@
         <v>4008</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
         <v>100</v>
       </c>
-      <c r="E27" t="s">
-        <v>102</v>
-      </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -3513,7 +3516,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3525,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3540,7 +3543,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3552,16 +3555,16 @@
         <v>4008</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3570,7 +3573,7 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3582,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3597,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3609,16 +3612,16 @@
         <v>5001</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3627,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3639,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3654,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3666,16 +3669,16 @@
         <v>5002</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -3684,7 +3687,7 @@
         <v>7</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3696,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3711,7 +3714,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3723,17 +3726,17 @@
         <v>6002</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
         <v>45</v>
       </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
       <c r="G31">
         <v>6</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3753,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3768,7 +3771,7 @@
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3780,16 +3783,16 @@
         <v>6003</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3798,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3810,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3825,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -3837,17 +3840,17 @@
         <v>7001</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
         <v>51</v>
       </c>
-      <c r="E33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
-      </c>
       <c r="G33">
         <v>6</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3867,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3882,7 +3885,7 @@
         <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -3894,16 +3897,16 @@
         <v>7002</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34">
         <v>18</v>
@@ -3912,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3924,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3939,7 +3942,7 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -3951,16 +3954,16 @@
         <v>8001</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -3969,7 +3972,7 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3981,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3996,7 +3999,7 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
@@ -4008,16 +4011,16 @@
         <v>8002</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -4026,7 +4029,7 @@
         <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -4038,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4053,7 +4056,7 @@
         <v>6</v>
       </c>
       <c r="R36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -4065,16 +4068,16 @@
         <v>9001</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -4083,7 +4086,7 @@
         <v>3</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -4095,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4110,7 +4113,7 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4122,17 +4125,17 @@
         <v>9002</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" t="s">
         <v>81</v>
       </c>
-      <c r="F38" t="s">
-        <v>82</v>
-      </c>
       <c r="G38">
         <v>6</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4152,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4167,7 +4170,7 @@
         <v>6</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
@@ -4179,16 +4182,16 @@
         <v>9004</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4197,7 +4200,7 @@
         <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4209,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -4224,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="R39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
@@ -4236,16 +4239,16 @@
         <v>9003</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -4254,7 +4257,7 @@
         <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4266,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -4281,7 +4284,7 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40EF6D-6505-4B9C-AC9A-B2DBF0CF7228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2409D6-8823-4872-8EFA-F7D1E14685E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="169">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -605,22 +605,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものを渦まき状にする</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>豆焼き</t>
     <rPh sb="0" eb="1">
       <t>マメ</t>
@@ -1030,93 +1014,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものを鋭い円弧状に変形する</t>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>スルド</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>エンコジョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものを鋭い円弧状に変形する
-ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものを渦まき状にする
-ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。
-レベルに応じて、形を変形できる。
-LV1 → ちいさな渦巻型
-LV2 → 空中に浮かぶハート型
-LV3 → 大きな竜巻型</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>フアンテイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ヘンケイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ウズマキ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>タツマキ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>シュガーやフルーツを空中に浮かせて、飾ることができる。</t>
     <rPh sb="10" eb="12">
       <t>クウチュウ</t>
@@ -1601,6 +1498,200 @@
   </si>
   <si>
     <t>チョコレート・パッキング※未使用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものをスタイリッシュな飾りに変形する</t>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものをスタイリッシュな飾りに変形する
+特定のお菓子と組み合わせると、かっこよくてオシャレなお菓子の出来上がり！
+ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="32" eb="34">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを渦巻状に変形する</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ウズマキジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを渦まき状にする
+渦巻きのお菓子は、そのまま彫刻のように、場を彩ることができる。
+華やかな場やパーティー向けのお菓子になる。
+ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。
+レベルに応じて、形を変形できる。
+LV1 → ちいさな渦巻型
+LV2 → 中ぐらいの渦巻型
+LV3 → 大きな竜巻型</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ウズマキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チョウコク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>イロド</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>フアンテイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ヘンケイ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ウズマキ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>タツマキ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Wind_Heart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・ハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものをハートの形に変形する</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Statue_of_AngelWing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものをハートの形に変形する
+ハート型は、かわいらしさや愛を表す。
+ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="63" eb="65">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>フアンテイコテイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1987,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2046,7 +2137,7 @@
         <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -2058,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>57</v>
@@ -2066,7 +2157,7 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A40" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A41" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -2079,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -2103,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -2136,10 +2227,10 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -2160,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2193,10 +2284,10 @@
         <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -2217,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2232,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -2274,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2331,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2346,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2361,13 +2452,13 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2388,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2403,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2418,13 +2509,13 @@
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2445,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2460,7 +2551,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2475,13 +2566,13 @@
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2502,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2517,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2532,13 +2623,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2559,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2574,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2616,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2631,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2646,13 +2737,13 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
         <v>101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2673,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2688,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2703,13 +2794,13 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2730,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2745,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2760,13 +2851,13 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2787,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2802,7 +2893,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2844,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2901,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2931,10 +3022,10 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -2958,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2973,7 +3064,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -2988,13 +3079,13 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -3015,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3030,7 +3121,7 @@
         <v>6</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3045,13 +3136,13 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -3072,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3087,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3108,7 +3199,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -3129,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -3144,7 +3235,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3165,7 +3256,7 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3186,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3201,31 +3292,31 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4003</v>
+        <v>4010</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -3243,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3258,28 +3349,28 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -3294,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3315,31 +3406,31 @@
         <v>6</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3351,16 +3442,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -3371,8 +3462,8 @@
       <c r="Q24">
         <v>6</v>
       </c>
-      <c r="R24" t="s">
-        <v>32</v>
+      <c r="R24" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3381,22 +3472,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -3414,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3429,7 +3520,7 @@
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -3438,19 +3529,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3471,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3486,7 +3577,7 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3495,19 +3586,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
         <v>98</v>
       </c>
-      <c r="E27" t="s">
-        <v>100</v>
-      </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -3528,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3543,7 +3634,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3558,10 +3649,10 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
         <v>123</v>
@@ -3585,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3603,28 +3694,28 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5001</v>
+        <v>4009</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3636,19 +3727,19 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <v>100</v>
@@ -3656,35 +3747,35 @@
       <c r="Q29">
         <v>6</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>150</v>
+      <c r="R29" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3699,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3714,34 +3805,34 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6002</v>
+        <v>5002</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="G31">
         <v>6</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3750,19 +3841,19 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P31">
         <v>100</v>
@@ -3770,8 +3861,8 @@
       <c r="Q31">
         <v>6</v>
       </c>
-      <c r="R31" t="s">
-        <v>45</v>
+      <c r="R31" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3780,19 +3871,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3813,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3828,7 +3919,7 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -3837,19 +3928,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7001</v>
+        <v>6003</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3864,19 +3955,19 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P33">
         <v>100</v>
@@ -3885,7 +3976,7 @@
         <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -3894,22 +3985,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3927,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3942,7 +4033,7 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -3951,22 +4042,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3984,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P35">
         <v>100</v>
@@ -3999,7 +4090,7 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
@@ -4008,19 +4099,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C36" t="s">
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -4041,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4056,7 +4147,7 @@
         <v>6</v>
       </c>
       <c r="R36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -4065,46 +4156,46 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
         <v>107</v>
       </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>10</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>108</v>
-      </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P37">
         <v>100</v>
@@ -4113,31 +4204,31 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -4155,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>8</v>
@@ -4169,32 +4260,32 @@
       <c r="Q38">
         <v>6</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>82</v>
+      <c r="R38" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4212,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>8</v>
@@ -4226,8 +4317,8 @@
       <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" t="s">
-        <v>113</v>
+      <c r="R39" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
@@ -4236,22 +4327,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4263,16 +4354,16 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>8</v>
@@ -4284,7 +4375,64 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>9003</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>107</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>8</v>
+      </c>
+      <c r="P41">
+        <v>100</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2409D6-8823-4872-8EFA-F7D1E14685E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616B8788-E91F-445B-AB77-23B16D9535E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2355" yWindow="990" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616B8788-E91F-445B-AB77-23B16D9535E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F98376-947B-4ADC-B7ED-E6CB41E1FA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="990" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3705" yWindow="1215" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="170">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -388,64 +388,6 @@
   </si>
   <si>
     <t>Cookie_Study</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーのお勉強
-タイプ：パッシヴ
-クッキーについて勉強することで、よりさくさく感の高いクッキーを焼けるようになる。
-LV1: さくさく感+5
-LV2: さくさく感+10
-LV3: さくさく感+15
-LV4: さくさく感+20
-LV5: さくさく感+25
-LV6: さくさく感+30
-LV7: さくさく感+35
-LV8: さくさく感+40
-LV9: さくさく感+45
-LV10: さくさく感+50</t>
-    <rPh sb="27" eb="29">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキー・パッキング
-タイプ：アクティブ
-クッキーをまとめて包装する。
-LVに応じて、クッキーをまとめる個数が変わる。
-LV1: 2個
-LV2: 4個
-LV3: 6個
-LV4: 8個
-LV5: 10個</t>
-    <rPh sb="31" eb="33">
-      <t>ホウソウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>コ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -638,33 +580,6 @@
     <t>チョコレートをまとめて包装する。</t>
     <rPh sb="11" eb="13">
       <t>ホウソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チョコレート・パッキング
-タイプ：アクティブ
-チョコレートをまとめて包装する。
-LVに応じて、チョコレートをまとめる個数が変わる。
-LV1: 2個
-LV2: 4個
-LV3: 6個
-LV4: 8個
-LV5: 10個</t>
-    <rPh sb="35" eb="37">
-      <t>ホウソウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1305,42 +1220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラテ・ア～ト
-タイプ：アクティブ
-コーヒー・カフェラテについて勉強し、さらにカフェラテの表面にかわいい絵柄を描く。
-覚えるだけでコーヒー系の品質の底上げ。
-さらに、カフェラテに魔法をかけることで、よりかわいく見せることができる。
-LV1: さくさく感+5
-LV2: さくさく感+10
-LV3: さくさく感+15</t>
-    <rPh sb="32" eb="34">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウメン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>エガラ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>二度・焼き</t>
-    <rPh sb="0" eb="2">
-      <t>ニド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>焼く際に、温度を細かく指定できる。
 材料選択後、
 クッキーの場合、時間と温度を決めることができる画面になる。</t>
@@ -1692,6 +1571,136 @@
     <rPh sb="66" eb="69">
       <t>フアンテイコテイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーをまとめて包装する。
+LVに応じて、クッキーをまとめる個数が変わる。
+LV1: 2個
+LV2: 4個
+LV3: 6個
+LV4: 8個
+LV5: 10個</t>
+    <rPh sb="9" eb="11">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレートをまとめて包装する。
+LVに応じて、チョコレートをまとめる個数が変わる。
+LV1: 2個
+LV2: 4個
+LV3: 6個
+LV4: 8個
+LV5: 10個</t>
+    <rPh sb="11" eb="13">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒー・カフェラテについて勉強し、さらにカフェラテの表面にかわいい絵柄を描く。
+覚えるだけでコーヒー系の品質の底上げ。
+さらに、カフェラテに魔法をかけることで、よりかわいく見せることができる。
+LV1: さくさく感+5
+LV2: さくさく感+10
+LV3: さくさく感+15</t>
+    <rPh sb="14" eb="16">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>エガラ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュガーを光らせる
+レベルをあげると、成功しやすくなる。
+LV1: +10%成功Up
+LV2: +20%成功Up
+LV3: +30%成功Up
+LV4: +40%成功Up
+LV5: +50%成功Up</t>
+    <rPh sb="5" eb="6">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーについて勉強することで、よりさくさく感の高いクッキーを焼けるようになる。
+ラスクにも効果がある。
+LV1: さくさく感+5
+LV2: さくさく感+10
+LV3: さくさく感+15
+LV4: さくさく感+20
+LV5: さくさく感+25
+LV6: さくさく感+30
+LV7: さくさく感+35
+LV8: さくさく感+40
+LV9: さくさく感+45
+LV10: さくさく感+50</t>
+    <rPh sb="8" eb="10">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セカンド・ベイク</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2080,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2104,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2137,7 +2146,7 @@
         <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -2149,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>57</v>
@@ -2170,7 +2179,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -2194,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -2209,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2227,10 +2236,10 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -2251,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2266,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2281,13 +2290,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -2308,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2323,7 +2332,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -2335,16 +2344,16 @@
         <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2365,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2380,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="R5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2392,16 +2401,16 @@
         <v>1004</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2422,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2437,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2449,16 +2458,16 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2479,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2494,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2506,16 +2515,16 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2536,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2551,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2563,16 +2572,16 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2593,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2608,7 +2617,7 @@
         <v>6</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2620,16 +2629,16 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2650,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2665,7 +2674,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2707,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2722,7 +2731,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2737,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2764,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2779,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2794,13 +2803,13 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2821,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2836,7 +2845,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2851,13 +2860,13 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2878,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2893,10 +2902,10 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2935,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2949,8 +2958,8 @@
       <c r="Q15">
         <v>6</v>
       </c>
-      <c r="R15" t="s">
-        <v>16</v>
+      <c r="R15" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -2992,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3022,13 +3031,13 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -3049,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3064,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3079,13 +3088,13 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -3106,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3121,7 +3130,7 @@
         <v>6</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3136,13 +3145,13 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -3163,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3178,7 +3187,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3199,7 +3208,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -3220,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -3235,7 +3244,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3256,7 +3265,7 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3277,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3292,7 +3301,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3307,13 +3316,13 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -3334,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3349,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3367,7 +3376,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -3391,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3406,7 +3415,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3448,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -3463,7 +3472,7 @@
         <v>6</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3505,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3535,13 +3544,13 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3562,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3577,7 +3586,7 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3592,13 +3601,13 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -3619,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3634,7 +3643,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3649,13 +3658,13 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3676,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3691,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3706,13 +3715,13 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
         <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>122</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3733,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3748,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3760,7 +3769,7 @@
         <v>5001</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
@@ -3790,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3805,7 +3814,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3817,16 +3826,16 @@
         <v>5002</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G31">
         <v>6</v>
@@ -3847,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3862,7 +3871,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3874,7 +3883,7 @@
         <v>6002</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
@@ -3904,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3931,16 +3940,16 @@
         <v>6003</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3961,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3976,7 +3985,7 @@
         <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -3988,7 +3997,7 @@
         <v>7001</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
@@ -4018,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -4045,7 +4054,7 @@
         <v>7002</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
@@ -4075,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4102,13 +4111,13 @@
         <v>8001</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -4132,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4159,7 +4168,7 @@
         <v>8002</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -4189,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -4216,16 +4225,16 @@
         <v>9001</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -4246,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -4261,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="R38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4273,16 +4282,16 @@
         <v>9002</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39">
         <v>6</v>
@@ -4303,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -4318,7 +4327,7 @@
         <v>6</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
@@ -4330,16 +4339,16 @@
         <v>9004</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4360,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -4375,7 +4384,7 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
@@ -4387,16 +4396,16 @@
         <v>9003</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -4417,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -4432,7 +4441,7 @@
         <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F98376-947B-4ADC-B7ED-E6CB41E1FA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB0599A-79CD-4E7C-9E85-3330099470CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1215" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2595" yWindow="840" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1747,6 +1747,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,12 +1771,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2089,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2221,60 +2233,60 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1002</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="G3" s="3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
         <v>10</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
         <v>9</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>100</v>
       </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="3">
+        <v>6</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2905,60 +2917,60 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>3001</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>5</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
         <v>2</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="Q15" s="3">
+        <v>6</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3565,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3622,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3679,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3736,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -4372,7 +4384,7 @@
         <v>104</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <v>8</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB0599A-79CD-4E7C-9E85-3330099470CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5843E-15E8-4136-A3FF-F8F4A0634240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="840" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -277,10 +277,6 @@
   </si>
   <si>
     <t>skill_icon_004</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ほしのかけらをトッピングする</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1022,22 +1018,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>液体を固めて、シュガーを作り出す</t>
-    <rPh sb="0" eb="2">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Cookie_SecondBake</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1092,51 +1072,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ソコア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>様々な液体を固めて、
-不思議なシュガーを作り出す。
-ラベンダーポーション　→　ラベンダーシュガー
-砂糖水からは、氷砂糖
-ミルクは、ミルキーシュガー（真っ白で牛乳風味のお砂糖）
-など</t>
-    <rPh sb="0" eb="2">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>フシギ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>サトウミズ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>コオリザトウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="79" eb="83">
-      <t>ギュウニュウフウミ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>サトウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1178,24 +1113,6 @@
   </si>
   <si>
     <t>SugerPot</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ほしのかけらをトッピングする
-特にジュースやソーダなどの
-飲み物と相性がいい。</t>
-    <rPh sb="16" eb="17">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>アイショウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1620,30 +1537,6 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コーヒー・カフェラテについて勉強し、さらにカフェラテの表面にかわいい絵柄を描く。
-覚えるだけでコーヒー系の品質の底上げ。
-さらに、カフェラテに魔法をかけることで、よりかわいく見せることができる。
-LV1: さくさく感+5
-LV2: さくさく感+10
-LV3: さくさく感+15</t>
-    <rPh sb="14" eb="16">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>エガラ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>カン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1701,6 +1594,160 @@
   </si>
   <si>
     <t>セカンド・ベイク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほしのかけらを飲み物にトッピングする</t>
+    <rPh sb="7" eb="8">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほしのかけらを飲み物にトッピングする
+ジュースやソーダとの相性がいい。</t>
+    <rPh sb="30" eb="32">
+      <t>アイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポーションや液体を固めて、シュガーを作り出す</t>
+    <rPh sb="6" eb="8">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>様々な液体を固めて、
+不思議なシュガーを作り出す。
+ラベンダーポーション　→　ラベンダーシュガー
+砂糖水からは、氷砂糖
+ミルクは、ミルキーシュガー（真っ白で牛乳風味のお砂糖）
+などなど..。</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>サトウミズ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>コオリザトウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="79" eb="83">
+      <t>ギュウニュウフウミ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のフルーツを光らせる
+小さいもの、つぶつぶしたフルーツのみ光らせることができる。
+大き目のフルーツは光らない。</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CompNo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒー・カフェラテについて勉強する。
+覚えるだけでコーヒー系の品質の底上げ。
+さらに、カフェラテのミルクに絵柄を描き、よりかわいく見せることができる。
+LV1: さくさく感+5
+LV2: さくさく感+10
+LV3: さくさく感+15</t>
+    <rPh sb="14" eb="16">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>エガラ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のお菓子に、さらに心をこめて仕上げる。
+使用時、ハートを消費する。</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1737,7 +1784,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1756,6 +1803,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1771,7 +1824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1783,6 +1836,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2101,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2125,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2155,10 +2214,10 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -2170,67 +2229,67 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
         <f t="shared" ref="A2:A41" si="0">ROW()-2</f>
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1001</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="G2" s="5">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>5</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
         <v>9</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="5">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>6</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>164</v>
+      <c r="Q2" s="5">
+        <v>6</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2245,13 +2304,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
@@ -2272,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N3" s="3">
         <v>0</v>
@@ -2287,64 +2346,64 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1005</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="D4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
         <v>9</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <v>100</v>
       </c>
-      <c r="Q4">
-        <v>6</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>165</v>
+      <c r="Q4" s="5">
+        <v>6</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -2356,16 +2415,16 @@
         <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2386,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2401,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="R5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2413,16 +2472,16 @@
         <v>1004</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2443,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2458,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2470,22 +2529,22 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2494,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2515,7 +2574,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2527,22 +2586,22 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2557,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2572,7 +2631,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2584,16 +2643,16 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2614,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2629,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2641,16 +2700,16 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2671,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2686,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2701,19 +2760,19 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2728,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2743,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2758,19 +2817,19 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
         <v>97</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2785,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2800,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2815,13 +2874,13 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2842,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2857,64 +2916,64 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2003</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14">
+      <c r="D14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>140</v>
+      <c r="Q14" s="3">
+        <v>6</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2956,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -2971,64 +3030,64 @@
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16">
+    <row r="16" spans="1:18" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>3002</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>5</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
         <v>2</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>100</v>
       </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-      <c r="R16" t="s">
-        <v>20</v>
+      <c r="Q16" s="3">
+        <v>6</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3043,19 +3102,19 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
         <v>125</v>
       </c>
-      <c r="E17" t="s">
-        <v>126</v>
-      </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3070,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3085,7 +3144,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3100,13 +3159,13 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -3127,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3142,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3157,19 +3216,19 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3184,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3199,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3220,13 +3279,13 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3241,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -3256,7 +3315,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3277,13 +3336,13 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3298,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3313,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3328,19 +3387,19 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3355,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3370,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3388,7 +3447,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -3397,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3412,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3427,7 +3486,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3469,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -3484,7 +3543,7 @@
         <v>6</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3511,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3526,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3556,13 +3615,13 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3583,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3598,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3613,13 +3672,13 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -3640,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3655,7 +3714,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3670,13 +3729,13 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3697,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3712,7 +3771,7 @@
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3727,13 +3786,13 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3754,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3769,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3781,22 +3840,22 @@
         <v>5001</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3811,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3826,7 +3885,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3838,22 +3897,22 @@
         <v>5002</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G31">
         <v>6</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3868,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3883,7 +3942,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3895,16 +3954,16 @@
         <v>6002</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
         <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>45</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3925,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3940,64 +3999,64 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>6003</v>
       </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
+      <c r="E33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="3">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>10</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>104</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
         <v>5</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33">
-        <v>6</v>
-      </c>
-      <c r="R33" t="s">
-        <v>107</v>
+      <c r="Q33" s="3">
+        <v>6</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -4009,22 +4068,22 @@
         <v>7001</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
         <v>50</v>
       </c>
-      <c r="E34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" t="s">
-        <v>51</v>
-      </c>
       <c r="G34">
         <v>6</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4039,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -4054,7 +4113,7 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -4066,22 +4125,22 @@
         <v>7002</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35">
         <v>18</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4096,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4111,7 +4170,7 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
@@ -4123,13 +4182,13 @@
         <v>8001</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -4138,7 +4197,7 @@
         <v>6</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4153,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4180,7 +4239,7 @@
         <v>8002</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -4195,7 +4254,7 @@
         <v>6</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4210,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -4237,16 +4296,16 @@
         <v>9001</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -4267,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -4282,7 +4341,7 @@
         <v>6</v>
       </c>
       <c r="R38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4294,22 +4353,22 @@
         <v>9002</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s">
         <v>78</v>
       </c>
-      <c r="F39" t="s">
-        <v>79</v>
-      </c>
       <c r="G39">
         <v>6</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4324,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -4339,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
@@ -4351,22 +4410,22 @@
         <v>9004</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" t="s">
         <v>108</v>
-      </c>
-      <c r="F40" t="s">
-        <v>109</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4381,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -4396,10 +4455,10 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4408,22 +4467,22 @@
         <v>9003</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41">
         <v>6</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4438,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -4452,8 +4511,8 @@
       <c r="Q41">
         <v>6</v>
       </c>
-      <c r="R41" t="s">
-        <v>100</v>
+      <c r="R41" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5843E-15E8-4136-A3FF-F8F4A0634240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1351C09-9538-4830-8CFF-08EF72C0C429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4185" yWindow="1230" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1748,6 +1748,20 @@
     <rPh sb="31" eb="33">
       <t>ショウヒ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森魔法＜未使用＞</t>
+    <rPh sb="0" eb="3">
+      <t>モリマホウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ForestMagic</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2158,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2237,7 +2251,7 @@
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A41" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -3261,31 +3275,31 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4001</v>
+        <v>3050</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3294,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3306,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>100</v>
@@ -3314,89 +3328,89 @@
       <c r="Q20">
         <v>6</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>152</v>
+      <c r="R20" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="21" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>4002</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
+      <c r="B21" s="3">
+        <v>3051</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>105</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>154</v>
+      <c r="Q21" s="3">
+        <v>6</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4010</v>
+        <v>4001</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -3408,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3429,31 +3443,31 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3471,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3486,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3495,25 +3509,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4004</v>
+        <v>4010</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3522,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3543,34 +3557,34 @@
         <v>6</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3579,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3588,7 +3602,7 @@
         <v>103</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3599,29 +3613,29 @@
       <c r="Q25">
         <v>6</v>
       </c>
-      <c r="R25" t="s">
-        <v>32</v>
+      <c r="R25" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3636,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3656,8 +3670,8 @@
       <c r="Q26">
         <v>6</v>
       </c>
-      <c r="R26" t="s">
-        <v>116</v>
+      <c r="R26" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3666,25 +3680,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3693,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3702,7 +3716,7 @@
         <v>103</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>3</v>
@@ -3714,7 +3728,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3723,19 +3737,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3771,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3780,19 +3794,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3828,34 +3842,34 @@
         <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5001</v>
+        <v>4008</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3876,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P30">
         <v>100</v>
@@ -3884,32 +3898,32 @@
       <c r="Q30">
         <v>6</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>166</v>
+      <c r="R30" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5002</v>
+        <v>4009</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3933,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P31">
         <v>100</v>
@@ -3941,35 +3955,35 @@
       <c r="Q31">
         <v>6</v>
       </c>
-      <c r="R31" s="2" t="s">
-        <v>171</v>
+      <c r="R31" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6002</v>
+        <v>5001</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="G32">
         <v>6</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3978,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3990,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P32">
         <v>100</v>
@@ -3998,65 +4012,65 @@
       <c r="Q32">
         <v>6</v>
       </c>
-      <c r="R32" t="s">
-        <v>44</v>
+      <c r="R32" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
+    <row r="33" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3">
-        <v>6003</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="3">
-        <v>6</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>10</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
+      <c r="B33">
+        <v>5002</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
         <v>103</v>
       </c>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="3">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>6</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>106</v>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -4065,25 +4079,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7001</v>
+        <v>6001</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>6</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4092,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4104,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -4113,7 +4127,7 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -4122,25 +4136,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H35">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4170,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
@@ -4179,25 +4193,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4218,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P36">
         <v>100</v>
@@ -4227,7 +4241,7 @@
         <v>6</v>
       </c>
       <c r="R36" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -4236,25 +4250,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C37" t="s">
         <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>6</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4284,7 +4298,7 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
@@ -4293,25 +4307,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4320,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4329,10 +4343,10 @@
         <v>103</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P38">
         <v>100</v>
@@ -4341,34 +4355,34 @@
         <v>6</v>
       </c>
       <c r="R38" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C39" t="s">
         <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4386,7 +4400,7 @@
         <v>103</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>8</v>
@@ -4397,32 +4411,32 @@
       <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>79</v>
+      <c r="R39" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4454,35 +4468,35 @@
       <c r="Q40">
         <v>6</v>
       </c>
-      <c r="R40" t="s">
-        <v>108</v>
+      <c r="R40" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4491,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4511,7 +4525,64 @@
       <c r="Q41">
         <v>6</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>9003</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>103</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>8</v>
+      </c>
+      <c r="P42">
+        <v>100</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>172</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1351C09-9538-4830-8CFF-08EF72C0C429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CD3DE-3C81-4ADB-8AE1-A0B79E84DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1230" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3840" yWindow="885" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2175,7 +2175,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CD3DE-3C81-4ADB-8AE1-A0B79E84DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528182A0-D15C-4258-AF33-6C2928416284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="885" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4170" yWindow="870" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1762,6 +1762,30 @@
   </si>
   <si>
     <t>ForestMagic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ムーンライト・バナナージュ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月の光を凝縮し、バナナを光らせる。</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ギョウシュク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Moonlight_Banana</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2172,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2251,7 +2275,7 @@
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A43" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -2453,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2915,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -4073,25 +4097,25 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6001</v>
+        <v>5003</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="G34">
         <v>6</v>
@@ -4106,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4118,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -4127,7 +4151,7 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -4136,25 +4160,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7001</v>
+        <v>6001</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G35">
         <v>6</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4163,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4175,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P35">
         <v>100</v>
@@ -4184,7 +4208,7 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
@@ -4193,25 +4217,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4241,7 +4265,7 @@
         <v>6</v>
       </c>
       <c r="R36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -4250,25 +4274,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4289,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P37">
         <v>100</v>
@@ -4298,7 +4322,7 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
@@ -4307,25 +4331,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C38" t="s">
         <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>6</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4355,7 +4379,7 @@
         <v>6</v>
       </c>
       <c r="R38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
@@ -4364,25 +4388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4391,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4400,10 +4424,10 @@
         <v>103</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P39">
         <v>100</v>
@@ -4412,34 +4436,34 @@
         <v>6</v>
       </c>
       <c r="R39" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4457,7 +4481,7 @@
         <v>103</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>8</v>
@@ -4468,32 +4492,32 @@
       <c r="Q40">
         <v>6</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>79</v>
+      <c r="R40" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4525,35 +4549,35 @@
       <c r="Q41">
         <v>6</v>
       </c>
-      <c r="R41" t="s">
-        <v>108</v>
+      <c r="R41" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="C42" t="s">
         <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4562,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4582,7 +4606,64 @@
       <c r="Q42">
         <v>6</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>9003</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>103</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>8</v>
+      </c>
+      <c r="P43">
+        <v>100</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43" s="2" t="s">
         <v>172</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528182A0-D15C-4258-AF33-6C2928416284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD894EC-6854-466A-91CD-3167F6BAE111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="870" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2910" yWindow="900" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="185">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1786,6 +1786,34 @@
   </si>
   <si>
     <t>Moonlight_Banana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skicon_Luminous_Suger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skicon_Luminous_Fruits</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skicon_Cookie_Study</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skicon_Freezing_Spell</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skicon_Plant_Growth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skicon_Temperature_of_Control</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skicon_Bake_Beans</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2198,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2339,7 +2367,7 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
@@ -2510,7 +2538,7 @@
         <v>1004</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
         <v>64</v>
@@ -2567,7 +2595,7 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
         <v>85</v>
@@ -2795,7 +2823,7 @@
         <v>2001</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -3023,7 +3051,7 @@
         <v>3001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -3080,7 +3108,7 @@
         <v>3002</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>21</v>
@@ -3308,7 +3336,7 @@
         <v>3050</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD894EC-6854-466A-91CD-3167F6BAE111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2097330-393B-4D3F-8B64-0DF5F2E8C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="900" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2925" yWindow="795" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="215">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -846,26 +846,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アイス水溶液を魔法でかき混ぜて、なめらかさを出す</t>
-    <rPh sb="3" eb="6">
-      <t>スイヨウエキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アイス水溶液を魔法でかき混ぜて、なめらかさを出す</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>天使の羽の造形</t>
     <rPh sb="0" eb="2">
       <t>テンシ</t>
@@ -1537,25 +1517,6 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シュガーを光らせる
-レベルをあげると、成功しやすくなる。
-LV1: +10%成功Up
-LV2: +20%成功Up
-LV3: +30%成功Up
-LV4: +40%成功Up
-LV5: +50%成功Up</t>
-    <rPh sb="5" eb="6">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1814,6 +1775,435 @@
   </si>
   <si>
     <t>skicon_Bake_Beans</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_Jouken_name1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_Jouken_lv1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュガーを光らせる
+レベルをあげると、成功しやすくなる。
+LV1: +10%成功Up
+LV2: +20%成功Up
+LV3: +30%成功Up
+LV4: +40%成功Up
+LV5: +50%成功Up
+派生：
+LV３で、ルミナスフルーツの習得可</t>
+    <rPh sb="5" eb="6">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ハセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレートのなめらかさを底上げする</t>
+    <rPh sb="13" eb="15">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレート哲学</t>
+    <rPh sb="6" eb="8">
+      <t>テツガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレートについて勉強することで、よりなめらかなチョコレートを仕上げるようになる。
+LV1: なめらか+5
+LV2: なめらか+10
+LV3: なめらか+15
+LV4: なめらか+20
+LV5: なめらか+25
+LV6: なめらか+30
+LV7: なめらか+35
+LV8: なめらか+40
+LV9: なめらか+45
+LV10: なめらか+50</t>
+    <rPh sb="10" eb="12">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の魔法で、キャラメリゼ仕上げにする。
+お菓子の最後の仕上げのタイミングで使用する。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子の見た目をきれいに整える。</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nappe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナッペ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキの見た目をきれいに仕上げる。</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキの見た目をきれいに仕上げる。
+クリームをきれいにぬる技術のこと。
+LVがあがると、よりきれいにクリームをぬって仕上げることができる。
+見た目がよくなる。</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Appaleil_Study</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生地をきれいに混ぜる技術を磨く</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生地をきれいに混ぜる技術を磨く。
+クレープやケーキ生地などのふわふわ感を底上げする。</t>
+    <rPh sb="26" eb="28">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>美の研究</t>
+    <rPh sb="0" eb="1">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子の見た目をきれいに整える。
+LVがあがると、見た目の美しさもアップ！！</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beautiful_Power</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天体観測</t>
+    <rPh sb="0" eb="4">
+      <t>テンタイカンソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Star_Gazer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天について勉強する。</t>
+    <rPh sb="0" eb="1">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天について勉強する。
+LVが上がるにつれて、星魔法の効果をアップする。</t>
+    <rPh sb="0" eb="1">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホシマホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウェザーライト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Weather_Light</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する時間帯によって、ジュースの品質を変える。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する時間帯によって、ジュースの品質を変える。
+ジュースが対象。
+朝→　朝焼けのソーダ
+昼→　昼下がりのソーダ
+など
+それぞれのソーダの色合いが変わる。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>アサヤ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒルサ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の精霊を呼び出し、手伝ってもらう。</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の精霊を呼び出し、手伝ってもらう。
+ケーキやクレープなどのお菓子を作る際に、
+食感の底上げ・成功率アップ。
+さらに、特定のお菓子を仕上げることができるようになる。</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テツダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソコア</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Summon_Wind</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocolate_Philosophy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス水溶液について勉強し、なめらかさを出す</t>
+    <rPh sb="3" eb="6">
+      <t>スイヨウエキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アパレイユ・スタディ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・エレメンタル</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1890,7 +2280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1908,6 +2298,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2224,10 +2620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2245,7 +2641,7 @@
     <col min="18" max="18" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2300,10 +2696,16 @@
       <c r="R1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A43" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A50" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -2316,7 +2718,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -2355,10 +2757,16 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2367,16 +2775,16 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
@@ -2412,10 +2820,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2430,7 +2844,7 @@
         <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>90</v>
@@ -2469,85 +2883,97 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:20" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1003</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
+      <c r="B5" s="7">
+        <v>1010</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="7">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
         <v>9</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="7">
         <v>100</v>
       </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-      <c r="R5" t="s">
-        <v>60</v>
+      <c r="Q5" s="7">
+        <v>6</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2562,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2571,7 +2997,7 @@
         <v>103</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>9</v>
@@ -2583,34 +3009,40 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>143</v>
+        <v>188</v>
+      </c>
+      <c r="S6" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2628,7 +3060,7 @@
         <v>103</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>9</v>
@@ -2639,29 +3071,35 @@
       <c r="Q7">
         <v>6</v>
       </c>
-      <c r="R7" t="s">
-        <v>91</v>
+      <c r="R7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2697,25 +3135,31 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>123</v>
+        <v>91</v>
+      </c>
+      <c r="S8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
         <v>121</v>
@@ -2724,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2733,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2753,29 +3197,35 @@
       <c r="Q9">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>122</v>
+      <c r="R9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2796,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2811,55 +3261,61 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="S10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2001</v>
+        <v>1009</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P11">
         <v>100</v>
@@ -2868,34 +3324,40 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>100</v>
+        <v>142</v>
+      </c>
+      <c r="S11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2904,16 +3366,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2925,34 +3387,40 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>97</v>
+        <v>212</v>
+      </c>
+      <c r="S12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2967,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2981,92 +3449,104 @@
       <c r="Q13">
         <v>6</v>
       </c>
-      <c r="R13" t="s">
-        <v>114</v>
+      <c r="R13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>2003</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14">
+        <v>2002</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>6</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>168</v>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14" t="s">
+        <v>103</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -3087,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -3096,205 +3576,229 @@
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:20" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>3002</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="B16" s="7">
+        <v>3006</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
         <v>5</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
         <v>2</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="7">
         <v>100</v>
       </c>
-      <c r="Q16" s="3">
-        <v>6</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>169</v>
+      <c r="Q16" s="7">
+        <v>6</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17">
+    <row r="17" spans="1:20" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>3003</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
+      <c r="B17" s="3">
+        <v>3001</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>5</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <v>2</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>138</v>
+      <c r="Q17" s="3">
+        <v>6</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18">
+    <row r="18" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>3004</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18">
+      <c r="B18" s="3">
+        <v>3002</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>5</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
         <v>2</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18">
-        <v>6</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>134</v>
+      <c r="Q18" s="3">
+        <v>6</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="3">
+        <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3303,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3324,31 +3828,37 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
+      </c>
+      <c r="S19" t="s">
+        <v>103</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3050</v>
+        <v>3004</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -3360,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3369,7 +3879,7 @@
         <v>103</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>2</v>
@@ -3380,113 +3890,125 @@
       <c r="Q20">
         <v>6</v>
       </c>
-      <c r="R20" t="s">
-        <v>44</v>
+      <c r="R20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S20" t="s">
+        <v>103</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
+    <row r="21" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <v>3051</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="3">
-        <v>6</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="B21">
+        <v>3005</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>2</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>6</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>106</v>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S21" t="s">
+        <v>103</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4001</v>
+        <v>3050</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="G22">
         <v>6</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>2</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>3</v>
       </c>
       <c r="P22">
         <v>100</v>
@@ -3494,68 +4016,80 @@
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>152</v>
+      <c r="R22" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>4002</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
+      <c r="B23" s="3">
+        <v>3051</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="3">
+        <v>6</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
         <v>2</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>105</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>154</v>
+      <c r="Q23" s="3">
+        <v>6</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3567,16 +4101,16 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -3588,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3597,7 +4131,7 @@
         <v>103</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -3609,31 +4143,37 @@
         <v>6</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>159</v>
+        <v>193</v>
+      </c>
+      <c r="S24" t="s">
+        <v>103</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4003</v>
+        <v>4011</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -3645,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3654,7 +4194,7 @@
         <v>103</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3666,34 +4206,40 @@
         <v>6</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>120</v>
+        <v>196</v>
+      </c>
+      <c r="S25" t="s">
+        <v>103</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3723,34 +4269,40 @@
         <v>6</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>112</v>
+        <v>150</v>
+      </c>
+      <c r="S26" t="s">
+        <v>103</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3759,16 +4311,16 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>3</v>
@@ -3779,35 +4331,41 @@
       <c r="Q27">
         <v>6</v>
       </c>
-      <c r="R27" t="s">
-        <v>32</v>
+      <c r="R27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S27" t="s">
+        <v>103</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4006</v>
+        <v>4010</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3836,35 +4394,41 @@
       <c r="Q28">
         <v>6</v>
       </c>
-      <c r="R28" t="s">
-        <v>116</v>
+      <c r="R28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S28" t="s">
+        <v>103</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3893,29 +4457,35 @@
       <c r="Q29">
         <v>6</v>
       </c>
-      <c r="R29" t="s">
-        <v>117</v>
+      <c r="R29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S29" t="s">
+        <v>103</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4008</v>
+        <v>4004</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3930,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3950,35 +4520,41 @@
       <c r="Q30">
         <v>6</v>
       </c>
-      <c r="R30" t="s">
-        <v>119</v>
+      <c r="R30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S30" t="s">
+        <v>103</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4009</v>
+        <v>4005</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3996,7 +4572,7 @@
         <v>103</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>3</v>
@@ -4008,34 +4584,40 @@
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>118</v>
+        <v>32</v>
+      </c>
+      <c r="S31" t="s">
+        <v>103</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5001</v>
+        <v>4006</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4056,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P32">
         <v>100</v>
@@ -4064,32 +4646,38 @@
       <c r="Q32">
         <v>6</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>166</v>
+      <c r="R32" t="s">
+        <v>114</v>
+      </c>
+      <c r="S32" t="s">
+        <v>103</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5002</v>
+        <v>4007</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -4113,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P33">
         <v>100</v>
@@ -4121,32 +4709,38 @@
       <c r="Q33">
         <v>6</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>171</v>
+      <c r="R33" t="s">
+        <v>115</v>
+      </c>
+      <c r="S33" t="s">
+        <v>103</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5003</v>
+        <v>4008</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -4170,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -4179,31 +4773,37 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>176</v>
+        <v>117</v>
+      </c>
+      <c r="S34" t="s">
+        <v>103</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6001</v>
+        <v>4009</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -4215,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4227,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P35">
         <v>100</v>
@@ -4236,34 +4836,40 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>44</v>
+        <v>116</v>
+      </c>
+      <c r="S35" t="s">
+        <v>103</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7001</v>
+        <v>4012</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="G36">
         <v>6</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4272,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4281,10 +4887,10 @@
         <v>103</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <v>100</v>
@@ -4292,35 +4898,41 @@
       <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" t="s">
-        <v>50</v>
+      <c r="R36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S36" t="s">
+        <v>103</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7002</v>
+        <v>5004</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="G37">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4329,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4338,10 +4950,10 @@
         <v>103</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P37">
         <v>100</v>
@@ -4349,35 +4961,41 @@
       <c r="Q37">
         <v>6</v>
       </c>
-      <c r="R37" t="s">
-        <v>51</v>
+      <c r="R37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="S37" t="s">
+        <v>103</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8001</v>
+        <v>5001</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G38">
         <v>6</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4386,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4398,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="O38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P38">
         <v>100</v>
@@ -4406,35 +5024,41 @@
       <c r="Q38">
         <v>6</v>
       </c>
-      <c r="R38" t="s">
-        <v>37</v>
+      <c r="R38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S38" t="s">
+        <v>103</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8002</v>
+        <v>5002</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="G39">
         <v>6</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4443,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4455,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P39">
         <v>100</v>
@@ -4463,32 +5087,38 @@
       <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" t="s">
-        <v>34</v>
+      <c r="R39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S39" t="s">
+        <v>103</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9001</v>
+        <v>5003</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4500,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4509,10 +5139,10 @@
         <v>103</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P40">
         <v>100</v>
@@ -4521,34 +5151,40 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>102</v>
+        <v>173</v>
+      </c>
+      <c r="S40" t="s">
+        <v>103</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9002</v>
+        <v>5005</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="G41">
         <v>6</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4557,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4569,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P41">
         <v>100</v>
@@ -4578,34 +5214,40 @@
         <v>6</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>79</v>
+        <v>207</v>
+      </c>
+      <c r="S41" t="s">
+        <v>103</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42">
-        <v>9004</v>
+        <v>6001</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4626,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P42">
         <v>100</v>
@@ -4635,34 +5277,40 @@
         <v>6</v>
       </c>
       <c r="R42" t="s">
-        <v>108</v>
+        <v>44</v>
+      </c>
+      <c r="S42" t="s">
+        <v>103</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9003</v>
+        <v>7001</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>6</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4683,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P43">
         <v>100</v>
@@ -4691,8 +5339,455 @@
       <c r="Q43">
         <v>6</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>172</v>
+      <c r="R43" t="s">
+        <v>50</v>
+      </c>
+      <c r="S43" t="s">
+        <v>103</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>7002</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>18</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>103</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>100</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44" t="s">
+        <v>51</v>
+      </c>
+      <c r="S44" t="s">
+        <v>103</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>8001</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>103</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>7</v>
+      </c>
+      <c r="P45">
+        <v>100</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45" t="s">
+        <v>37</v>
+      </c>
+      <c r="S45" t="s">
+        <v>103</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>8002</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>103</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46" t="s">
+        <v>103</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>9001</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>103</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>8</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="R47" t="s">
+        <v>102</v>
+      </c>
+      <c r="S47" t="s">
+        <v>103</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>9002</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>103</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48">
+        <v>100</v>
+      </c>
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s">
+        <v>103</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>9004</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>8</v>
+      </c>
+      <c r="P49">
+        <v>100</v>
+      </c>
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49" t="s">
+        <v>108</v>
+      </c>
+      <c r="S49" t="s">
+        <v>103</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>9003</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>8</v>
+      </c>
+      <c r="P50">
+        <v>100</v>
+      </c>
+      <c r="Q50">
+        <v>6</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S50" t="s">
+        <v>103</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2097330-393B-4D3F-8B64-0DF5F2E8C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48BD48A-C526-4ED0-84A9-20F9D6C16982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="795" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3270" yWindow="1140" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="219">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -565,10 +565,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チョコレート・テンパリング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Chocolate_Tempering</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -633,10 +629,6 @@
     <rPh sb="6" eb="8">
       <t>ゾウケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アイスキューブ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1117,81 +1109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>焼く際に、温度を細かく指定できる。
-材料選択後、
-クッキーの場合、時間と温度を決めることができる画面になる。</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="24">
-      <t>ザイリョウセンタクゴ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーをさらに焼くことで、サクサク感を増す。
-やりすぎると失敗する。
-ゲージが出現するので、
-焦げるギリギリのポイントでゲージを止めると、
-サクサク感が増す。
-ポイントを超えると、焦げて失敗。</t>
-    <rPh sb="30" eb="32">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一時的に、「祝福」状態になる。</t>
     <rPh sb="0" eb="3">
       <t>イチジテキ</t>
@@ -1521,39 +1438,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クッキーについて勉強することで、よりさくさく感の高いクッキーを焼けるようになる。
-ラスクにも効果がある。
-LV1: さくさく感+5
-LV2: さくさく感+10
-LV3: さくさく感+15
-LV4: さくさく感+20
-LV5: さくさく感+25
-LV6: さくさく感+30
-LV7: さくさく感+35
-LV8: さくさく感+40
-LV9: さくさく感+45
-LV10: さくさく感+50</t>
-    <rPh sb="8" eb="10">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セカンド・ベイク</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1592,100 +1476,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>様々な液体を固めて、
-不思議なシュガーを作り出す。
-ラベンダーポーション　→　ラベンダーシュガー
-砂糖水からは、氷砂糖
-ミルクは、ミルキーシュガー（真っ白で牛乳風味のお砂糖）
-などなど..。</t>
-    <rPh sb="0" eb="2">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>フシギ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>サトウミズ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>コオリザトウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="79" eb="83">
-      <t>ギュウニュウフウミ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特定のフルーツを光らせる
-小さいもの、つぶつぶしたフルーツのみ光らせることができる。
-大き目のフルーツは光らない。</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ヒカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CompNo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コーヒー・カフェラテについて勉強する。
-覚えるだけでコーヒー系の品質の底上げ。
-さらに、カフェラテのミルクに絵柄を描き、よりかわいく見せることができる。
-LV1: さくさく感+5
-LV2: さくさく感+10
-LV3: さくさく感+15</t>
-    <rPh sb="14" eb="16">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>エガラ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>カン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1786,8 +1577,376 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>チョコレートのなめらかさを底上げする</t>
+    <rPh sb="13" eb="15">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の魔法で、キャラメリゼ仕上げにする。
+お菓子の最後の仕上げのタイミングで使用する。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子の見た目をきれいに整える。</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nappe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナッペ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキの見た目をきれいに仕上げる。</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Appaleil_Study</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生地をきれいに混ぜる技術を磨く</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生地をきれいに混ぜる技術を磨く。
+クレープやケーキ生地などのふわふわ感を底上げする。</t>
+    <rPh sb="26" eb="28">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>美の研究</t>
+    <rPh sb="0" eb="1">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beautiful_Power</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天体観測</t>
+    <rPh sb="0" eb="4">
+      <t>テンタイカンソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Star_Gazer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天について勉強する。</t>
+    <rPh sb="0" eb="1">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天について勉強する。
+LVが上がるにつれて、星魔法の効果をアップする。</t>
+    <rPh sb="0" eb="1">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホシマホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウェザーライト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Weather_Light</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の精霊を呼び出し、手伝ってもらう。</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の精霊を呼び出し、手伝ってもらう。
+ケーキやクレープなどのお菓子を作る際に、
+食感の底上げ・成功率アップ。
+さらに、特定のお菓子を仕上げることができるようになる。</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テツダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソコア</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Summon_Wind</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocolate_Philosophy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アパレイユ・スタディ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・エレメンタル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーについて勉強することで、よりさくさく感の高いクッキーを焼けるようになる。
+ラスクにも効果がある。
+LV1: さくさく感+10
+LV2: さくさく感+20
+LV3: さくさく感+30
+LV4: さくさく感+40
+LV5: さくさく感+50
+LV6: さくさく感+60
+LV7: さくさく感+70
+LV8: さくさく感+80
+LV9: さくさく感+90
+LV10: さくさく感+100</t>
+    <rPh sb="8" eb="10">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子の見た目をきれいに整える。
+LVがあがると、見た目の美しさもアップ！！
+LV1: お菓子の見た目+10
+LV2: お菓子の見た目+20
+LV3: お菓子の見た目+30
+LV4: お菓子の見た目+40
+LV5: お菓子の見た目+50</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス水溶液に魔法をかけながら混ぜて、なめらかさを出す</t>
+    <rPh sb="3" eb="6">
+      <t>スイヨウエキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレートについて勉強することで、よりなめらかなチョコレートを仕上げるようになる。
+LVに応じて、成功率も上がる。
+LV1: なめらか+10, 成功率+2%
+LV2: なめらか+20, 成功率+4%
+LV3: なめらか+30, 成功率+6%
+LV4: なめらか+40, 成功率+8%
+LV5: なめらか+50, 成功率+10%
+LV6: なめらか+60, 成功率+12%
+LV7: なめらか+70, 成功率+14%
+LV8: なめらか+80, 成功率+16%
+LV9: なめらか+90, 成功率+18%
+LV10: なめらか+100, 成功率+20%</t>
+    <rPh sb="10" eb="12">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>セイコウリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>シュガーを光らせる
 レベルをあげると、成功しやすくなる。
+また、見た目が上昇する。
 LV1: +10%成功Up
 LV2: +20%成功Up
 LV3: +30%成功Up
@@ -1801,409 +1960,545 @@
     <rPh sb="20" eb="22">
       <t>セイコウ</t>
     </rPh>
-    <rPh sb="40" eb="42">
+    <rPh sb="33" eb="34">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
       <t>セイコウ</t>
     </rPh>
-    <rPh sb="102" eb="104">
+    <rPh sb="115" eb="117">
       <t>ハセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チョコレートのなめらかさを底上げする</t>
-    <rPh sb="13" eb="15">
-      <t>ソコア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チョコレート哲学</t>
-    <rPh sb="6" eb="8">
-      <t>テツガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チョコレートについて勉強することで、よりなめらかなチョコレートを仕上げるようになる。
-LV1: なめらか+5
-LV2: なめらか+10
-LV3: なめらか+15
-LV4: なめらか+20
-LV5: なめらか+25
-LV6: なめらか+30
-LV7: なめらか+35
-LV8: なめらか+40
-LV9: なめらか+45
-LV10: なめらか+50</t>
-    <rPh sb="10" eb="12">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>火の魔法で、キャラメリゼ仕上げにする。
-お菓子の最後の仕上げのタイミングで使用する。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>マホウ</t>
+    <t>特定のフルーツを光らせる
+小さいもの、つぶつぶしたフルーツのみ光らせることができる。
+大き目のフルーツは光らない。
+レベルをあげると、成功しやすくなる。
+また、見た目が上昇する。
+LV1: +10%成功Up
+LV2: +20%成功Up
+LV3: +30%成功Up
+LV4: +40%成功Up
+LV5: +50%成功Up</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>様々な液体を固めて、
+不思議なシュガーを作り出す。
+ラベンダーポーション　→　ラベンダーシュガー
+砂糖水からは、氷砂糖
+ミルクは、ミルキーシュガー（真っ白で牛乳風味のお砂糖）
+などなど..。
+LVに応じて成功率が上がる。
+LV1: +5%成功Up
+LV2: +10%成功Up
+LV3: +15%成功Up
+LV4: +20%成功Up
+LV5: +25%成功Up</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>サトウミズ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>コオリザトウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="79" eb="83">
+      <t>ギュウニュウフウミ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス水溶液に魔法をかけながら混ぜて、なめらかさを出す
+習得するだけでOK。
+LVに応じて、なめらかさをより出す。
+LV1: なめらかさ+10
+LV2: なめらかさ+20
+LV3: なめらかさ+30
+LV4: なめらかさ+40
+LV5: なめらかさ+50</t>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プランターに種を植えることができるようになる。</t>
+    <rPh sb="6" eb="7">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキの見た目をきれいに仕上げる。
+クリームをきれいにぬる技術のこと。
+LVがあがると、きれいにクリームを塗れて、見た目がよくなる。
+LV1: なめらかさ+15
+LV2: なめらかさ+30
+LV3: なめらかさ+45
+LV4: なめらかさ+60
+LV5: なめらかさ+75</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
     </rPh>
     <rPh sb="12" eb="14">
       <t>シア</t>
     </rPh>
-    <rPh sb="22" eb="24">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お菓子の見た目をきれいに整える。</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トトノ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nappe</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ナッペ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキの見た目をきれいに仕上げる。</t>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキの見た目をきれいに仕上げる。
-クリームをきれいにぬる技術のこと。
-LVがあがると、よりきれいにクリームをぬって仕上げることができる。
-見た目がよくなる。</t>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シア</t>
-    </rPh>
     <rPh sb="29" eb="31">
       <t>ギジュツ</t>
     </rPh>
-    <rPh sb="59" eb="61">
+    <rPh sb="54" eb="55">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハンドミキサーに風の力を加えて、より生地に空気を含ませる。
+風の力が加わった状態のミキサーは、「ウィンドミキサー」状態になる。
+調合の際に、ウィンドミキサーを選択することで、効果が発動する。</t>
+    <rPh sb="8" eb="9">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>チョウゴウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒー・カフェラテについて勉強する。
+覚えるだけでコーヒー系の品質の底上げ。
+さらに、カフェラテの仕上げに魔法をかけることで、
+ミルクに絵柄を描き、かわいく見せることができる。
+失敗することもある。
+LV1: 見た目+30
+LV2: 見た目+60
+LV3: 見た目+90</t>
+    <rPh sb="14" eb="16">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
       <t>シア</t>
     </rPh>
-    <rPh sb="71" eb="72">
+    <rPh sb="55" eb="57">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>エガラ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
       <t>ミ</t>
     </rPh>
-    <rPh sb="73" eb="74">
+    <rPh sb="110" eb="111">
       <t>メ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Appaleil_Study</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生地をきれいに混ぜる技術を磨く</t>
-    <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生地をきれいに混ぜる技術を磨く。
-クレープやケーキ生地などのふわふわ感を底上げする。</t>
-    <rPh sb="26" eb="28">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ソコア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>美の研究</t>
-    <rPh sb="0" eb="1">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お菓子の見た目をきれいに整える。
-LVがあがると、見た目の美しさもアップ！！</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トトノ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ウツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Beautiful_Power</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天体観測</t>
-    <rPh sb="0" eb="4">
-      <t>テンタイカンソク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Star_Gazer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天について勉強する。</t>
-    <rPh sb="0" eb="1">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天について勉強する。
-LVが上がるにつれて、星魔法の効果をアップする。</t>
-    <rPh sb="0" eb="1">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ホシマホウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウェザーライト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Weather_Light</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する時間帯によって、ジュースの品質を変える。</t>
+    <t>アイスキューブ※未使用</t>
+    <rPh sb="8" eb="11">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレートの哲学</t>
+    <rPh sb="7" eb="9">
+      <t>テツガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テンパリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する時間帯によって、ジュースの見た目を変える。</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
     <rPh sb="4" eb="7">
       <t>ジカンタイ</t>
     </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>使用する時間帯によって、ジュースの品質を変える。
-ジュースが対象。
+    <t>使用する時間帯によって、ジュースの見た目を変える。
+ジュース・ソーダが対象。
 朝→　朝焼けのソーダ
 昼→　昼下がりのソーダ
 など
-それぞれのソーダの色合いが変わる。</t>
+それぞれのソーダの色合いが変わる。
+元となるジュースは、透明のものでないと効果がない。</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
     <rPh sb="4" eb="7">
       <t>ジカンタイ</t>
     </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
       <t>カ</t>
     </rPh>
+    <rPh sb="35" eb="37">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>アサヤ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒルサ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼く際に、温度を細かく指定できる。
+材料選択後、
+クッキーの場合、時間と温度を決めることができる画面になる。
+LVが上がると、その他の焼き菓子についても、温度指定ができるようになる。
+LV1: クッキー・ラスク
+LV2: 焼き菓子全般</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>ザイリョウセンタクゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="79" eb="83">
+      <t>オンドシテイ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ガシ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子の食感を底上げし、おいしくする。すべてのお菓子に効果がある。
+使用時に、ハートを少し消費する。
+ハートが少ないと使用できない。
+仕上げ回数を一回消費する。
+仕上げ回数がないと、使用できない。</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソコア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーをさらに焼くことで、サクサク感を増す。
+やりすぎると失敗する。
+ゲージが出現するので、
+焦げるギリギリのポイントでゲージを止めると、
+サクサク感が増す。
+ポイントを超えると、焦げて失敗。
+仕上げ回数を一回消費する。
+仕上げ回数がないと、使用できない。</t>
     <rPh sb="30" eb="32">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>アサヤ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒルサ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>イロア</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の精霊を呼び出し、手伝ってもらう。</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイレイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テツダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の精霊を呼び出し、手伝ってもらう。
-ケーキやクレープなどのお菓子を作る際に、
-食感の底上げ・成功率アップ。
-さらに、特定のお菓子を仕上げることができるようになる。</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイレイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テツダ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ソコア</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>セイコウリツ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
       <t>シア</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Summon_Wind</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Chocolate_Philosophy</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アイス水溶液について勉強し、なめらかさを出す</t>
-    <rPh sb="3" eb="6">
-      <t>スイヨウエキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アパレイユ・スタディ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウィンド・エレメンタル</t>
+    <rPh sb="104" eb="106">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2240,7 +2535,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2262,6 +2557,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2300,11 +2607,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2622,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2679,7 +2986,7 @@
         <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -2691,16 +2998,16 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2718,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -2730,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="5">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="J2" s="5">
         <v>0</v>
@@ -2742,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N2" s="5">
         <v>1</v>
@@ -2757,10 +3064,10 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T2" s="5">
         <v>0</v>
@@ -2775,22 +3082,22 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -2805,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N3" s="3">
         <v>0</v>
@@ -2820,10 +3127,10 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -2844,10 +3151,10 @@
         <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="5">
         <v>6</v>
@@ -2856,7 +3163,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
@@ -2868,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -2883,75 +3190,75 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>1010</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="7">
-        <v>6</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="C5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>10</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <v>9</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="3">
         <v>100</v>
       </c>
-      <c r="Q5" s="7">
-        <v>6</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="T5" s="7">
+      <c r="Q5" s="3">
+        <v>6</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2994,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3009,10 +3316,10 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="S6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3027,7 +3334,7 @@
         <v>1004</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
@@ -3042,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3051,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -3072,138 +3379,138 @@
         <v>6</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="S7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1006</v>
       </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <v>9</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-      <c r="R8" t="s">
-        <v>91</v>
-      </c>
-      <c r="S8" t="s">
-        <v>103</v>
-      </c>
-      <c r="T8">
+      <c r="Q8" s="3">
+        <v>6</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:20" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>1007</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="F9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9999</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
         <v>9</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="7">
         <v>100</v>
       </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-      <c r="R9" t="s">
-        <v>121</v>
-      </c>
-      <c r="S9" t="s">
-        <v>103</v>
-      </c>
-      <c r="T9">
+      <c r="Q9" s="7">
+        <v>6</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3219,13 +3526,13 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -3246,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3261,10 +3568,10 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -3282,13 +3589,13 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -3309,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3324,75 +3631,75 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="S11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>2004</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12">
+      <c r="D12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>5</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>167</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12">
-        <v>6</v>
-      </c>
-      <c r="R12" t="s">
-        <v>212</v>
-      </c>
-      <c r="S12" t="s">
-        <v>103</v>
-      </c>
-      <c r="T12">
+      <c r="Q12" s="3">
+        <v>6</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3405,7 +3712,7 @@
         <v>2001</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -3435,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3450,75 +3757,75 @@
         <v>6</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>2002</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="5">
         <v>2</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>9999</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
         <v>100</v>
       </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" t="s">
-        <v>103</v>
-      </c>
-      <c r="T14">
+      <c r="Q14" s="5">
+        <v>6</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3534,13 +3841,13 @@
         <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -3561,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -3576,75 +3883,75 @@
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>3006</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="C16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>5</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>2</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="P16" s="3">
         <v>100</v>
       </c>
-      <c r="Q16" s="7">
-        <v>6</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="T16" s="7">
+      <c r="Q16" s="3">
+        <v>6</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3657,7 +3964,7 @@
         <v>3001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -3687,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
@@ -3702,10 +4009,10 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -3720,7 +4027,7 @@
         <v>3002</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>21</v>
@@ -3750,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -3765,7 +4072,7 @@
         <v>6</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>17</v>
@@ -3786,10 +4093,10 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -3813,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3828,10 +4135,10 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3849,19 +4156,19 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3876,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3891,10 +4198,10 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3912,13 +4219,13 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -3939,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3954,10 +4261,10 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="S21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -3972,7 +4279,7 @@
         <v>3050</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
@@ -4002,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4017,10 +4324,10 @@
         <v>6</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="S22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -4038,13 +4345,13 @@
         <v>68</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G23" s="3">
         <v>6</v>
@@ -4065,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
@@ -4080,138 +4387,138 @@
         <v>6</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24">
+    <row r="24" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>4010</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="D24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>5</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>103</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>3</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24">
-        <v>6</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S24" t="s">
-        <v>103</v>
-      </c>
-      <c r="T24">
+      <c r="Q24" s="3">
+        <v>6</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25">
+    <row r="25" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>4011</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="D25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
         <v>5</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
         <v>3</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>100</v>
       </c>
-      <c r="Q25">
-        <v>6</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S25" t="s">
-        <v>103</v>
-      </c>
-      <c r="T25">
+      <c r="Q25" s="3">
+        <v>6</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4233,7 +4540,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -4254,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4269,10 +4576,10 @@
         <v>6</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -4296,7 +4603,7 @@
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4317,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4332,10 +4639,10 @@
         <v>6</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="S27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -4353,13 +4660,13 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4380,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4395,10 +4702,10 @@
         <v>6</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -4443,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4458,10 +4765,10 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -4506,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4521,16 +4828,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4569,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>3</v>
@@ -4583,11 +4890,11 @@
       <c r="Q31">
         <v>6</v>
       </c>
-      <c r="R31" t="s">
-        <v>32</v>
+      <c r="R31" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="S31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -4611,7 +4918,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -4632,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4647,10 +4954,10 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -4668,13 +4975,13 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -4695,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4710,10 +5017,10 @@
         <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -4731,13 +5038,13 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -4758,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -4773,10 +5080,10 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -4794,13 +5101,13 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -4821,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4836,10 +5143,10 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -4857,19 +5164,19 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G36">
         <v>6</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4884,10 +5191,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>3</v>
@@ -4899,10 +5206,10 @@
         <v>6</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="S36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -4920,19 +5227,19 @@
         <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F37" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G37">
         <v>6</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4947,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4962,10 +5269,10 @@
         <v>6</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="S37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -4989,7 +5296,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -5010,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5025,10 +5332,10 @@
         <v>6</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="S38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -5046,13 +5353,13 @@
         <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G39">
         <v>6</v>
@@ -5073,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5088,10 +5395,10 @@
         <v>6</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="S39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -5109,13 +5416,13 @@
         <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -5136,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5151,10 +5458,10 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="S40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -5172,13 +5479,13 @@
         <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F41" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -5199,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5214,390 +5521,390 @@
         <v>6</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="S41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A42">
+    <row r="42" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="7">
         <v>6001</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D42" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-      <c r="H42">
+      <c r="G42" s="7">
+        <v>6</v>
+      </c>
+      <c r="H42" s="7">
         <v>3</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
+      <c r="I42" s="7">
+        <v>9999</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
         <v>10</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>103</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42" s="7">
         <v>5</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="7">
         <v>100</v>
       </c>
-      <c r="Q42">
-        <v>6</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="Q42" s="7">
+        <v>6</v>
+      </c>
+      <c r="R42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="S42" t="s">
-        <v>103</v>
-      </c>
-      <c r="T42">
+      <c r="S42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T42" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A43">
+    <row r="43" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>7001</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-      <c r="H43">
+      <c r="G43" s="8">
+        <v>6</v>
+      </c>
+      <c r="H43" s="8">
         <v>15</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>103</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>6</v>
-      </c>
-      <c r="P43">
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0</v>
+      </c>
+      <c r="K43" s="8">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N43" s="8">
+        <v>1</v>
+      </c>
+      <c r="O43" s="8">
+        <v>6</v>
+      </c>
+      <c r="P43" s="8">
         <v>100</v>
       </c>
-      <c r="Q43">
-        <v>6</v>
-      </c>
-      <c r="R43" t="s">
+      <c r="Q43" s="8">
+        <v>6</v>
+      </c>
+      <c r="R43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S43" t="s">
-        <v>103</v>
-      </c>
-      <c r="T43">
+      <c r="S43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T43" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A44">
+    <row r="44" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="8">
         <v>7002</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="8">
         <v>18</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="8">
         <v>20</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>103</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>6</v>
-      </c>
-      <c r="P44">
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N44" s="8">
+        <v>1</v>
+      </c>
+      <c r="O44" s="8">
+        <v>6</v>
+      </c>
+      <c r="P44" s="8">
         <v>100</v>
       </c>
-      <c r="Q44">
-        <v>6</v>
-      </c>
-      <c r="R44" t="s">
+      <c r="Q44" s="8">
+        <v>6</v>
+      </c>
+      <c r="R44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="S44" t="s">
-        <v>103</v>
-      </c>
-      <c r="T44">
+      <c r="S44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T44" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A45">
+    <row r="45" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <v>8001</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G45">
-        <v>6</v>
-      </c>
-      <c r="H45">
+      <c r="G45" s="8">
+        <v>6</v>
+      </c>
+      <c r="H45" s="8">
         <v>5</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" t="s">
-        <v>103</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" s="8">
+        <v>1</v>
+      </c>
+      <c r="O45" s="8">
         <v>7</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="8">
         <v>100</v>
       </c>
-      <c r="Q45">
-        <v>6</v>
-      </c>
-      <c r="R45" t="s">
+      <c r="Q45" s="8">
+        <v>6</v>
+      </c>
+      <c r="R45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="S45" t="s">
-        <v>103</v>
-      </c>
-      <c r="T45">
+      <c r="S45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T45" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A46">
+    <row r="46" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="8">
         <v>8002</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G46">
-        <v>6</v>
-      </c>
-      <c r="H46">
+      <c r="G46" s="8">
+        <v>6</v>
+      </c>
+      <c r="H46" s="8">
         <v>8</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>103</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N46" s="8">
+        <v>1</v>
+      </c>
+      <c r="O46" s="8">
         <v>7</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="8">
         <v>100</v>
       </c>
-      <c r="Q46">
-        <v>6</v>
-      </c>
-      <c r="R46" t="s">
+      <c r="Q46" s="8">
+        <v>6</v>
+      </c>
+      <c r="R46" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S46" t="s">
-        <v>103</v>
-      </c>
-      <c r="T46">
+      <c r="S46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T46" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A47">
+    <row r="47" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>9001</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F47" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="3">
         <v>2</v>
       </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>10</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>103</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
         <v>8</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47">
-        <v>6</v>
-      </c>
-      <c r="R47" t="s">
-        <v>102</v>
-      </c>
-      <c r="S47" t="s">
-        <v>103</v>
-      </c>
-      <c r="T47">
+      <c r="Q47" s="3">
+        <v>6</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T47" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5640,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -5658,7 +5965,7 @@
         <v>79</v>
       </c>
       <c r="S48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -5676,13 +5983,13 @@
         <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -5703,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -5718,10 +6025,10 @@
         <v>6</v>
       </c>
       <c r="R49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -5739,13 +6046,13 @@
         <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G50">
         <v>6</v>
@@ -5766,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -5781,10 +6088,10 @@
         <v>6</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="S50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T50">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48BD48A-C526-4ED0-84A9-20F9D6C16982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6CE7E2-4F02-499B-BDE5-F9079E37E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3270" yWindow="1140" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -2930,7 +2930,7 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6CE7E2-4F02-499B-BDE5-F9079E37E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743C73BD-E356-4DA7-A509-0542B196E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1140" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2460" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2318,72 +2318,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>焼く際に、温度を細かく指定できる。
-材料選択後、
-クッキーの場合、時間と温度を決めることができる画面になる。
-LVが上がると、その他の焼き菓子についても、温度指定ができるようになる。
-LV1: クッキー・ラスク
-LV2: 焼き菓子全般</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="24">
-      <t>ザイリョウセンタクゴ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="79" eb="83">
-      <t>オンドシテイ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ガシ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ゼンパン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>お菓子の食感を底上げし、おいしくする。すべてのお菓子に効果がある。
 使用時に、ハートを少し消費する。
 ハートが少ないと使用できない。
@@ -2498,6 +2432,67 @@
     </rPh>
     <rPh sb="125" eb="127">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼く際に、温度を細かく指定できる。
+材料選択後、
+クッキーの場合、時間と温度を決めることができる画面になる。
+その他、焼き菓子も同様に、時間と温度を決めることができる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>ザイリョウセンタクゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2929,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3325,66 +3320,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1004</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
         <v>9</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>100</v>
       </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T7">
+      <c r="Q7" s="3">
+        <v>6</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3631,7 +3626,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S11" t="s">
         <v>101</v>
@@ -5899,7 +5894,7 @@
         <v>6</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>101</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743C73BD-E356-4DA7-A509-0542B196E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFEB3BF-EFB7-4F87-8D26-1C2CC55F26D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="3150" yWindow="1275" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2924,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFEB3BF-EFB7-4F87-8D26-1C2CC55F26D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F82EB0-4FF9-471C-9C32-E0F635C66944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3150" yWindow="1275" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2325" yWindow="1170" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2377,122 +2377,128 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>焼く際に、温度を細かく指定できる。
+材料選択後、
+クッキーの場合、時間と温度を決めることができる画面になる。
+その他、焼き菓子も同様に、時間と温度を決めることができる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>ザイリョウセンタクゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>クッキーをさらに焼くことで、サクサク感を増す。
-やりすぎると失敗する。
+LVが上がると、より効果が高まる。
 ゲージが出現するので、
 焦げるギリギリのポイントでゲージを止めると、
 サクサク感が増す。
 ポイントを超えると、焦げて失敗。
 仕上げ回数を一回消費する。
 仕上げ回数がないと、使用できない。</t>
-    <rPh sb="30" eb="32">
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
       <t>シッパイ</t>
     </rPh>
-    <rPh sb="41" eb="43">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
+    <rPh sb="107" eb="109">
       <t>シア</t>
     </rPh>
-    <rPh sb="104" eb="106">
+    <rPh sb="110" eb="112">
       <t>カイスウ</t>
     </rPh>
-    <rPh sb="107" eb="109">
+    <rPh sb="113" eb="115">
       <t>イッカイ</t>
     </rPh>
-    <rPh sb="109" eb="111">
+    <rPh sb="115" eb="117">
       <t>ショウヒ</t>
     </rPh>
-    <rPh sb="115" eb="117">
+    <rPh sb="121" eb="123">
       <t>シア</t>
     </rPh>
-    <rPh sb="118" eb="120">
+    <rPh sb="124" eb="126">
       <t>カイスウ</t>
     </rPh>
-    <rPh sb="125" eb="127">
+    <rPh sb="131" eb="133">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>焼く際に、温度を細かく指定できる。
-材料選択後、
-クッキーの場合、時間と温度を決めることができる画面になる。
-その他、焼き菓子も同様に、時間と温度を決めることができる。</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="24">
-      <t>ザイリョウセンタクゴ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2924,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3374,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>101</v>
@@ -3572,66 +3578,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1009</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
         <v>3</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
         <v>9</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>100</v>
       </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="S11" t="s">
-        <v>101</v>
-      </c>
-      <c r="T11">
+      <c r="Q11" s="3">
+        <v>6</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F82EB0-4FF9-471C-9C32-E0F635C66944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1393F7C-B0BD-4078-962F-30DA470CABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1170" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="230">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -471,13 +471,6 @@
   </si>
   <si>
     <t>skill_icon_010</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ペンギンの造形</t>
-    <rPh sb="5" eb="7">
-      <t>ゾウケイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -729,10 +722,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Use</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>草花のエキスを抽出し、ポーションを作る</t>
     <rPh sb="0" eb="2">
       <t>クサバナ</t>
@@ -1252,92 +1241,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものを渦まき状にする
-渦巻きのお菓子は、そのまま彫刻のように、場を彩ることができる。
-華やかな場やパーティー向けのお菓子になる。
-ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。
-レベルに応じて、形を変形できる。
-LV1 → ちいさな渦巻型
-LV2 → 中ぐらいの渦巻型
-LV3 → 大きな竜巻型</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ウズマキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>チョウコク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>イロド</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="99" eb="102">
-      <t>フアンテイ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ヘンケイ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>ウズマキ</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="172" eb="173">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>タツマキ</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>ガタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1480,29 +1383,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>特定のお菓子に、さらに心をこめて仕上げる。
-使用時、ハートを消費する。</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ココロ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>シヨウジ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>森魔法＜未使用＞</t>
     <rPh sb="0" eb="3">
       <t>モリマホウ</t>
@@ -1821,10 +1701,6 @@
   </si>
   <si>
     <t>アパレイユ・スタディ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウィンド・エレメンタル</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2499,6 +2375,273 @@
     </rPh>
     <rPh sb="131" eb="133">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを渦まき状にする
+渦巻きのお菓子は、そのまま彫刻のように、場を彩ることができる。
+華やかな場やパーティー向けのお菓子になる。
+ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。
+レベルに応じて、どんどん見た目を派手にしていける。</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ウズマキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チョウコク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>イロド</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>フアンテイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ハデ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・板チョコ</t>
+    <rPh sb="5" eb="6">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを板の形に変形する</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを板の形に変形する
+ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="15" eb="16">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>フアンテイコテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Wind_FlatBar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・クラウン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Wind_Crown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを王冠の形に変形する</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを王冠の形に変形する
+お城のケーキなどを作る際の、部品となる。
+ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="15" eb="17">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>フアンテイコテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ペンギンさんの造形</t>
+    <rPh sb="7" eb="9">
+      <t>ゾウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の精霊</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のお菓子に、さらに心をこめて仕上げる。
+通常のおかしには、効果がない。
+使用時、ハートを消費する。</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オーバーフリーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空気の含有量を選択して凍らせる</t>
+    <rPh sb="0" eb="2">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ガンユウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Freezing_OverRun</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス水溶液を凍らせる際に、空気の含有量を選択してから、凍らせる。
+空気の含有量によって、
+アイスの質が変わる。</t>
+    <rPh sb="35" eb="37">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ガンユウリョウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2928,10 +3071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2987,7 +3130,7 @@
         <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -2999,21 +3142,21 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A50" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A53" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -3026,7 +3169,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -3050,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N2" s="5">
         <v>1</v>
@@ -3065,10 +3208,10 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T2" s="5">
         <v>0</v>
@@ -3083,16 +3226,16 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
@@ -3113,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N3" s="3">
         <v>0</v>
@@ -3128,10 +3271,10 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -3149,13 +3292,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="5">
         <v>6</v>
@@ -3176,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -3191,10 +3334,10 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
@@ -3209,16 +3352,16 @@
         <v>1010</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
@@ -3239,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -3254,10 +3397,10 @@
         <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
@@ -3302,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3317,10 +3460,10 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3335,7 +3478,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -3365,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -3380,10 +3523,10 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -3398,16 +3541,16 @@
         <v>1006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3">
         <v>6</v>
@@ -3428,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -3443,10 +3586,10 @@
         <v>6</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -3464,13 +3607,13 @@
         <v>67</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G9" s="7">
         <v>6</v>
@@ -3491,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N9" s="7">
         <v>1</v>
@@ -3506,10 +3649,10 @@
         <v>6</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T9" s="7">
         <v>0</v>
@@ -3527,13 +3670,13 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -3554,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3569,10 +3712,10 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -3590,13 +3733,13 @@
         <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -3617,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -3632,10 +3775,10 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
@@ -3653,13 +3796,13 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -3680,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -3695,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -3713,7 +3856,7 @@
         <v>2001</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -3743,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3758,166 +3901,166 @@
         <v>6</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
+    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="5">
-        <v>2002</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="B14">
+        <v>2001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>9999</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>6</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T14" s="5">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
+    <row r="15" spans="1:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>2003</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="D15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="5">
         <v>2</v>
       </c>
-      <c r="H15" s="3">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>6</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>9999</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>6</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>3006</v>
+        <v>2003</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -3932,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" s="3">
         <v>100</v>
@@ -3950,7 +4093,7 @@
         <v>200</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
@@ -3962,25 +4105,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>3001</v>
+        <v>3006</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -3995,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>2</v>
@@ -4010,40 +4153,40 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -4058,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -4073,76 +4216,76 @@
         <v>6</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>3003</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19">
+      <c r="B19" s="3">
+        <v>3002</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>5</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>6</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="3">
         <v>3</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-      <c r="P19">
-        <v>100</v>
-      </c>
-      <c r="Q19">
-        <v>6</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="S19" t="s">
-        <v>101</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4151,25 +4294,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4178,16 +4321,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>2</v>
@@ -4199,10 +4342,10 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -4214,25 +4357,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4247,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -4262,40 +4405,40 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="S21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3050</v>
+        <v>3005</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4304,13 +4447,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4324,104 +4467,104 @@
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" t="s">
-        <v>207</v>
+      <c r="R22" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="S22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3">
-        <v>3051</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="3">
-        <v>6</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="B23">
+        <v>3050</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>10</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
         <v>2</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>6</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23" t="s">
+        <v>202</v>
+      </c>
+      <c r="S23" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>4010</v>
+        <v>3051</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="G24" s="3">
         <v>6</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -4430,19 +4573,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -4450,11 +4593,11 @@
       <c r="Q24" s="3">
         <v>6</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>208</v>
+      <c r="R24" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -4466,19 +4609,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G25" s="3">
         <v>6</v>
@@ -4499,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N25" s="3">
         <v>0</v>
@@ -4514,100 +4657,100 @@
         <v>6</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="26" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>4001</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="3">
+        <v>4011</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>101</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
+      <c r="D26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>3</v>
       </c>
-      <c r="P26">
-        <v>100</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="S26" t="s">
-        <v>101</v>
-      </c>
-      <c r="T26">
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>6</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -4619,13 +4762,13 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4640,10 +4783,10 @@
         <v>6</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -4655,19 +4798,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4688,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4703,37 +4846,37 @@
         <v>6</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="S28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4003</v>
+        <v>4010</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -4751,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4766,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="S29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -4781,40 +4924,40 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4004</v>
+        <v>4011</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4829,40 +4972,40 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="S30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4005</v>
+        <v>4012</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4877,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4892,40 +5035,40 @@
         <v>6</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="S31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4006</v>
+        <v>4003</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
         <v>74</v>
       </c>
-      <c r="E32" t="s">
-        <v>73</v>
-      </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4940,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4954,35 +5097,35 @@
       <c r="Q32">
         <v>6</v>
       </c>
-      <c r="R32" t="s">
-        <v>112</v>
+      <c r="R32" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="S32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4007</v>
+        <v>4004</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -4997,13 +5140,13 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5017,41 +5160,41 @@
       <c r="Q33">
         <v>6</v>
       </c>
-      <c r="R33" t="s">
-        <v>113</v>
+      <c r="R33" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="S33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4008</v>
+        <v>4005</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5066,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5080,11 +5223,11 @@
       <c r="Q34">
         <v>6</v>
       </c>
-      <c r="R34" t="s">
-        <v>115</v>
+      <c r="R34" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="S34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -5096,19 +5239,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4009</v>
+        <v>4006</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -5129,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5144,40 +5287,40 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4012</v>
+        <v>4007</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5186,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5206,41 +5349,41 @@
       <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>194</v>
+      <c r="R36" t="s">
+        <v>111</v>
       </c>
       <c r="S36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5004</v>
+        <v>4008</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5249,19 +5392,19 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P37">
         <v>100</v>
@@ -5269,41 +5412,41 @@
       <c r="Q37">
         <v>6</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>190</v>
+      <c r="R37" t="s">
+        <v>113</v>
       </c>
       <c r="S37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5001</v>
+        <v>4009</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5318,13 +5461,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P38">
         <v>100</v>
@@ -5332,63 +5475,63 @@
       <c r="Q38">
         <v>6</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>158</v>
+      <c r="R38" t="s">
+        <v>112</v>
       </c>
       <c r="S38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5002</v>
+        <v>4013</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="G39">
         <v>6</v>
       </c>
       <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>101</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>4</v>
-      </c>
       <c r="P39">
         <v>100</v>
       </c>
@@ -5396,40 +5539,40 @@
         <v>6</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="S39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="C40" t="s">
         <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G40">
         <v>6</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5438,16 +5581,16 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>4</v>
@@ -5458,41 +5601,41 @@
       <c r="Q40">
         <v>6</v>
       </c>
-      <c r="R40" t="s">
-        <v>165</v>
+      <c r="R40" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="S40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="C41" t="s">
         <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="G41">
         <v>6</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5507,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5522,264 +5665,264 @@
         <v>6</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="S41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7">
+    <row r="42" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="7">
-        <v>6001</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="7">
-        <v>6</v>
-      </c>
-      <c r="H42" s="7">
+      <c r="B42">
+        <v>5002</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
         <v>3</v>
       </c>
-      <c r="I42" s="7">
-        <v>9999</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
-        <v>10</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N42" s="7">
-        <v>1</v>
-      </c>
-      <c r="O42" s="7">
-        <v>5</v>
-      </c>
-      <c r="P42" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>6</v>
-      </c>
-      <c r="R42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S42" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T42" s="7">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <v>100</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="S42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="8">
+    <row r="43" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="8">
-        <v>7001</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="8">
-        <v>6</v>
-      </c>
-      <c r="H43" s="8">
-        <v>15</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0</v>
-      </c>
-      <c r="K43" s="8">
-        <v>1</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="N43" s="8">
-        <v>1</v>
-      </c>
-      <c r="O43" s="8">
-        <v>6</v>
-      </c>
-      <c r="P43" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="8">
-        <v>6</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S43" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="T43" s="8">
+      <c r="B43">
+        <v>5003</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>100</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>100</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43" t="s">
+        <v>161</v>
+      </c>
+      <c r="S43" t="s">
+        <v>100</v>
+      </c>
+      <c r="T43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="8">
+    <row r="44" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="8">
-        <v>7002</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="8">
-        <v>18</v>
-      </c>
-      <c r="H44" s="8">
-        <v>20</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
-      <c r="K44" s="8">
-        <v>1</v>
-      </c>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="N44" s="8">
-        <v>1</v>
-      </c>
-      <c r="O44" s="8">
-        <v>6</v>
-      </c>
-      <c r="P44" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q44" s="8">
-        <v>6</v>
-      </c>
-      <c r="R44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S44" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="T44" s="8">
+      <c r="B44">
+        <v>5005</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>100</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <v>100</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="S44" t="s">
+        <v>100</v>
+      </c>
+      <c r="T44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="8">
+    <row r="45" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="8">
-        <v>8001</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="8">
-        <v>6</v>
-      </c>
-      <c r="H45" s="8">
+      <c r="B45" s="7">
+        <v>6001</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="7">
+        <v>6</v>
+      </c>
+      <c r="H45" s="7">
+        <v>3</v>
+      </c>
+      <c r="I45" s="7">
+        <v>9999</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>10</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7">
         <v>5</v>
       </c>
-      <c r="I45" s="8">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0</v>
-      </c>
-      <c r="K45" s="8">
-        <v>1</v>
-      </c>
-      <c r="L45" s="8">
-        <v>0</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="N45" s="8">
-        <v>1</v>
-      </c>
-      <c r="O45" s="8">
-        <v>7</v>
-      </c>
-      <c r="P45" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="8">
-        <v>6</v>
-      </c>
-      <c r="R45" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S45" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="T45" s="8">
+      <c r="P45" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>6</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T45" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5789,25 +5932,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="8">
-        <v>8002</v>
+        <v>7001</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G46" s="8">
         <v>6</v>
       </c>
       <c r="H46" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I46" s="8">
         <v>0</v>
@@ -5822,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N46" s="8">
         <v>1</v>
       </c>
       <c r="O46" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P46" s="8">
         <v>100</v>
@@ -5837,264 +5980,453 @@
         <v>6</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T46" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3">
+    <row r="47" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="3">
-        <v>9001</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>10</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1</v>
-      </c>
-      <c r="O47" s="3">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>6</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="B47" s="8">
+        <v>7002</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="8">
+        <v>18</v>
+      </c>
+      <c r="H47" s="8">
+        <v>20</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N47" s="8">
+        <v>1</v>
+      </c>
+      <c r="O47" s="8">
+        <v>6</v>
+      </c>
+      <c r="P47" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>6</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T47" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48">
+    <row r="48" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>9002</v>
-      </c>
-      <c r="C48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-      <c r="H48">
+      <c r="B48" s="8">
+        <v>8001</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="8">
+        <v>6</v>
+      </c>
+      <c r="H48" s="8">
         <v>5</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>10</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>101</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>8</v>
-      </c>
-      <c r="P48">
-        <v>100</v>
-      </c>
-      <c r="Q48">
-        <v>6</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S48" t="s">
-        <v>101</v>
-      </c>
-      <c r="T48">
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N48" s="8">
+        <v>1</v>
+      </c>
+      <c r="O48" s="8">
+        <v>7</v>
+      </c>
+      <c r="P48" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>6</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T48" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A49">
+    <row r="49" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>9004</v>
-      </c>
-      <c r="C49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" t="s">
-        <v>106</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>10</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>101</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
+      <c r="B49" s="8">
+        <v>8002</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="8">
+        <v>6</v>
+      </c>
+      <c r="H49" s="8">
         <v>8</v>
       </c>
-      <c r="P49">
-        <v>100</v>
-      </c>
-      <c r="Q49">
-        <v>6</v>
-      </c>
-      <c r="R49" t="s">
-        <v>106</v>
-      </c>
-      <c r="S49" t="s">
-        <v>101</v>
-      </c>
-      <c r="T49">
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N49" s="8">
+        <v>1</v>
+      </c>
+      <c r="O49" s="8">
+        <v>7</v>
+      </c>
+      <c r="P49" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>6</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T49" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50">
+    <row r="50" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
+        <v>9001</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="3">
+        <v>2</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>10</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
+        <v>8</v>
+      </c>
+      <c r="P50" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>6</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>9002</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>100</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>8</v>
+      </c>
+      <c r="P51">
+        <v>100</v>
+      </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s">
+        <v>100</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>9004</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>100</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>8</v>
+      </c>
+      <c r="P52">
+        <v>100</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52" t="s">
+        <v>104</v>
+      </c>
+      <c r="S52" t="s">
+        <v>100</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>9003</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>71</v>
       </c>
-      <c r="D50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50">
-        <v>6</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50" t="s">
-        <v>101</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>100</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
         <v>8</v>
       </c>
-      <c r="P50">
-        <v>100</v>
-      </c>
-      <c r="Q50">
-        <v>6</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="S50" t="s">
-        <v>101</v>
-      </c>
-      <c r="T50">
+      <c r="P53">
+        <v>100</v>
+      </c>
+      <c r="Q53">
+        <v>6</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="S53" t="s">
+        <v>100</v>
+      </c>
+      <c r="T53">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1393F7C-B0BD-4078-962F-30DA470CABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CAE8C-5F88-46C7-96ED-E22624C15396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2775" yWindow="1095" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="234">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1279,18 +1279,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものをハートの形に変形する
-ハート型は、かわいらしさや愛を表す。
-ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="63" eb="65">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="66" eb="69">
-      <t>フアンテイコテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クッキーをまとめて包装する。
 LVに応じて、クッキーをまとめる個数が変わる。
 LV1: 2個
@@ -2479,20 +2467,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものを板の形に変形する
-ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="15" eb="16">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>フアンテイコテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Wind_FlatBar</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2526,33 +2500,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものを王冠の形に変形する
-お城のケーキなどを作る際の、部品となる。
-ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="15" eb="17">
-      <t>オウカン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="67" eb="70">
-      <t>フアンテイコテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2642,6 +2589,134 @@
     </rPh>
     <rPh sb="53" eb="54">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・ロール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、柔らかいクッキーをくるくる巻く</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Wind_Roll</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、柔らかいクッキーをくるくる巻く。
+巻いたクッキーは、お城のケーキなどを作る際の、部品となる。</t>
+    <rPh sb="23" eb="24">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを王冠の形に変形する
+お城のケーキなどを作る際の、部品となる。
+ウィンドクラウンをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="15" eb="17">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>フアンテイコテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを板の形に変形する
+ウィンド板チョコをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="15" eb="16">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>フアンテイコテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものをハートの形に変形する
+ハートの形は、好きな人への愛や感謝を表す形。
+特別な日のおかしになる。
+ウィンドハートをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="31" eb="32">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンシャ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>フアンテイコテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3071,10 +3146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3148,15 +3223,15 @@
         <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A53" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A54" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -3208,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>100</v>
@@ -3226,7 +3301,7 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
@@ -3271,7 +3346,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>100</v>
@@ -3334,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>100</v>
@@ -3352,16 +3427,16 @@
         <v>1010</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
@@ -3397,7 +3472,7 @@
         <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>100</v>
@@ -3460,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S6" t="s">
         <v>100</v>
@@ -3478,7 +3553,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -3523,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>100</v>
@@ -3541,7 +3616,7 @@
         <v>1006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>84</v>
@@ -3673,7 +3748,7 @@
         <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
         <v>115</v>
@@ -3736,7 +3811,7 @@
         <v>125</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>126</v>
@@ -3760,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -3775,7 +3850,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>100</v>
@@ -3802,7 +3877,7 @@
         <v>122</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -3838,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>100</v>
@@ -3856,7 +3931,7 @@
         <v>2001</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -3919,16 +3994,16 @@
         <v>2001</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -3964,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S14" t="s">
         <v>100</v>
@@ -3988,7 +4063,7 @@
         <v>95</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>94</v>
@@ -4054,7 +4129,7 @@
         <v>124</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -4090,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>100</v>
@@ -4108,16 +4183,16 @@
         <v>3006</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -4153,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>100</v>
@@ -4171,7 +4246,7 @@
         <v>3001</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -4216,7 +4291,7 @@
         <v>6</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>100</v>
@@ -4234,7 +4309,7 @@
         <v>3002</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>21</v>
@@ -4279,7 +4354,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>17</v>
@@ -4486,7 +4561,7 @@
         <v>3050</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -4531,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="R23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S23" t="s">
         <v>100</v>
@@ -4615,13 +4690,13 @@
         <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="G25" s="3">
         <v>6</v>
@@ -4657,7 +4732,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>100</v>
@@ -4678,13 +4753,13 @@
         <v>40</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="G26" s="3">
         <v>6</v>
@@ -4720,7 +4795,7 @@
         <v>6</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>100</v>
@@ -4846,13 +4921,13 @@
         <v>6</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S28" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4909,13 +4984,13 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="S29" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4930,13 +5005,13 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" t="s">
         <v>215</v>
-      </c>
-      <c r="F30" t="s">
-        <v>216</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4972,13 +5047,13 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="S30" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4993,13 +5068,13 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" t="s">
         <v>219</v>
-      </c>
-      <c r="F31" t="s">
-        <v>221</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -5035,37 +5110,37 @@
         <v>6</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="S31" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4003</v>
+        <v>4012</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -5077,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5098,49 +5173,49 @@
         <v>6</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="S32" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>3</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5161,7 +5236,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="S33" t="s">
         <v>100</v>
@@ -5170,31 +5245,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5203,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5224,7 +5299,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="S34" t="s">
         <v>100</v>
@@ -5233,31 +5308,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5286,8 +5361,8 @@
       <c r="Q35">
         <v>6</v>
       </c>
-      <c r="R35" t="s">
-        <v>110</v>
+      <c r="R35" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="S35" t="s">
         <v>100</v>
@@ -5302,19 +5377,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -5350,7 +5425,7 @@
         <v>6</v>
       </c>
       <c r="R36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S36" t="s">
         <v>100</v>
@@ -5365,19 +5440,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -5413,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S37" t="s">
         <v>100</v>
@@ -5428,19 +5503,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -5476,7 +5551,7 @@
         <v>6</v>
       </c>
       <c r="R38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S38" t="s">
         <v>100</v>
@@ -5485,31 +5560,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5518,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -5538,8 +5613,8 @@
       <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>190</v>
+      <c r="R39" t="s">
+        <v>112</v>
       </c>
       <c r="S39" t="s">
         <v>100</v>
@@ -5548,31 +5623,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5004</v>
+        <v>4013</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G40">
         <v>6</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5590,10 +5665,10 @@
         <v>100</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P40">
         <v>100</v>
@@ -5602,7 +5677,7 @@
         <v>6</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S40" t="s">
         <v>100</v>
@@ -5617,25 +5692,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="C41" t="s">
         <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="G41">
         <v>6</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5644,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5653,7 +5728,7 @@
         <v>100</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>4</v>
@@ -5665,7 +5740,7 @@
         <v>6</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="S41" t="s">
         <v>100</v>
@@ -5674,31 +5749,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C42" t="s">
         <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G42">
         <v>6</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5728,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="S42" t="s">
         <v>100</v>
@@ -5743,19 +5818,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C43" t="s">
         <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -5790,8 +5865,8 @@
       <c r="Q43">
         <v>6</v>
       </c>
-      <c r="R43" t="s">
-        <v>161</v>
+      <c r="R43" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="S43" t="s">
         <v>100</v>
@@ -5806,19 +5881,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -5853,8 +5928,8 @@
       <c r="Q44">
         <v>6</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>210</v>
+      <c r="R44" t="s">
+        <v>160</v>
       </c>
       <c r="S44" t="s">
         <v>100</v>
@@ -5863,129 +5938,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="7">
+    <row r="45" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="7">
-        <v>6001</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" s="7">
-        <v>6</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="B45">
+        <v>5005</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
         <v>3</v>
       </c>
-      <c r="I45" s="7">
-        <v>9999</v>
-      </c>
-      <c r="J45" s="7">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7">
-        <v>10</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N45" s="7">
-        <v>1</v>
-      </c>
-      <c r="O45" s="7">
-        <v>5</v>
-      </c>
-      <c r="P45" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>6</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="T45" s="7">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>100</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>100</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S45" t="s">
+        <v>100</v>
+      </c>
+      <c r="T45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="8">
+    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="8">
-        <v>7001</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="8">
-        <v>6</v>
-      </c>
-      <c r="H46" s="8">
-        <v>15</v>
-      </c>
-      <c r="I46" s="8">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0</v>
-      </c>
-      <c r="K46" s="8">
-        <v>1</v>
-      </c>
-      <c r="L46" s="8">
-        <v>0</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="N46" s="8">
-        <v>1</v>
-      </c>
-      <c r="O46" s="8">
-        <v>6</v>
-      </c>
-      <c r="P46" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="8">
-        <v>6</v>
-      </c>
-      <c r="R46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S46" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="T46" s="8">
+      <c r="B46" s="7">
+        <v>6001</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="7">
+        <v>6</v>
+      </c>
+      <c r="H46" s="7">
+        <v>3</v>
+      </c>
+      <c r="I46" s="7">
+        <v>9999</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>10</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1</v>
+      </c>
+      <c r="O46" s="7">
+        <v>5</v>
+      </c>
+      <c r="P46" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>6</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T46" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5995,25 +6070,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="8">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47" s="8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H47" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I47" s="8">
         <v>0</v>
@@ -6043,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S47" s="8" t="s">
         <v>100</v>
@@ -6058,25 +6133,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="8">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G48" s="8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H48" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I48" s="8">
         <v>0</v>
@@ -6097,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P48" s="8">
         <v>100</v>
@@ -6106,7 +6181,7 @@
         <v>6</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="S48" s="8" t="s">
         <v>100</v>
@@ -6121,25 +6196,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="8">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G49" s="8">
         <v>6</v>
       </c>
       <c r="H49" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I49" s="8">
         <v>0</v>
@@ -6169,7 +6244,7 @@
         <v>6</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S49" s="8" t="s">
         <v>100</v>
@@ -6178,154 +6253,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3">
+    <row r="50" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="3">
-        <v>9001</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="3">
-        <v>2</v>
-      </c>
-      <c r="H50" s="3">
-        <v>2</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3">
-        <v>10</v>
-      </c>
-      <c r="L50" s="3">
-        <v>0</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N50" s="3">
-        <v>1</v>
-      </c>
-      <c r="O50" s="3">
+      <c r="B50" s="8">
+        <v>8002</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="8">
+        <v>6</v>
+      </c>
+      <c r="H50" s="8">
         <v>8</v>
       </c>
-      <c r="P50" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>6</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="T50" s="3">
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N50" s="8">
+        <v>1</v>
+      </c>
+      <c r="O50" s="8">
+        <v>7</v>
+      </c>
+      <c r="P50" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>6</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T50" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51">
+    <row r="51" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>9002</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="3">
+        <v>9001</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" t="s">
-        <v>77</v>
-      </c>
-      <c r="G51">
-        <v>6</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
+      <c r="D51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2</v>
+      </c>
+      <c r="H51" s="3">
+        <v>2</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
         <v>10</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
-        <v>100</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
         <v>8</v>
       </c>
-      <c r="P51">
-        <v>100</v>
-      </c>
-      <c r="Q51">
-        <v>6</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S51" t="s">
-        <v>100</v>
-      </c>
-      <c r="T51">
+      <c r="P51" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>6</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T51" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C52" t="s">
         <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -6357,8 +6432,8 @@
       <c r="Q52">
         <v>6</v>
       </c>
-      <c r="R52" t="s">
-        <v>104</v>
+      <c r="R52" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S52" t="s">
         <v>100</v>
@@ -6367,43 +6442,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="C53" t="s">
         <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="s">
         <v>100</v>
@@ -6420,13 +6495,76 @@
       <c r="Q53">
         <v>6</v>
       </c>
-      <c r="R53" s="2" t="s">
-        <v>225</v>
+      <c r="R53" t="s">
+        <v>104</v>
       </c>
       <c r="S53" t="s">
         <v>100</v>
       </c>
       <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>9003</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>100</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>8</v>
+      </c>
+      <c r="P54">
+        <v>100</v>
+      </c>
+      <c r="Q54">
+        <v>6</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="S54" t="s">
+        <v>100</v>
+      </c>
+      <c r="T54">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CAE8C-5F88-46C7-96ED-E22624C15396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392A1831-108D-445B-81F1-016CA855FA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1095" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2551,45 +2551,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オーバーフリーズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>空気の含有量を選択して凍らせる</t>
-    <rPh sb="0" eb="2">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ガンユウリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Freezing_OverRun</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アイス水溶液を凍らせる際に、空気の含有量を選択してから、凍らせる。
-空気の含有量によって、
-アイスの質が変わる。</t>
-    <rPh sb="35" eb="37">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>ガンユウリョウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>カ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2718,6 +2680,33 @@
     <rPh sb="81" eb="84">
       <t>フアンテイコテイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空気の含有量を少なくして凍らせる</t>
+    <rPh sb="0" eb="2">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ガンユウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス水溶液を凍らせる際に、空気の含有量を少なくして、凍らせる。</t>
+    <rPh sb="21" eb="22">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジェラートフリーズ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3148,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3997,13 +3986,13 @@
         <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -4039,13 +4028,13 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="S14" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4984,7 +4973,7 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
@@ -5047,7 +5036,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S30" t="s">
         <v>24</v>
@@ -5110,7 +5099,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S31" t="s">
         <v>24</v>
@@ -5131,13 +5120,13 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -5173,7 +5162,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S32" t="s">
         <v>24</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392A1831-108D-445B-81F1-016CA855FA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4133588F-D2F0-48C1-AAFD-300D094BB7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1950" yWindow="1905" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="238">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1199,30 +1199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものをスタイリッシュな飾りに変形する
-特定のお菓子と組み合わせると、かっこよくてオシャレなお菓子の出来上がり！
-ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="32" eb="34">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="62" eb="65">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>風の力で、流体や柔らかいものを渦巻状に変形する</t>
     <rPh sb="0" eb="1">
       <t>カゼ</t>
@@ -2707,6 +2683,101 @@
   </si>
   <si>
     <t>ジェラートフリーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・ペン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Wind_Pen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、チョコを操り、模様を描く</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アヤツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、液体チョコレートを操り、ペンのように模様を描けるようになる。
+液体チョコレートにかけると、チョコのペンが出来上がる。
+◆ブラックチョコ→クッキーにチョコペンで、模様が描ける。
+◆ホワイトチョコ→チョコレートに文字が描ける。
+お誕生日メッセージなど。</t>
+    <rPh sb="5" eb="7">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アヤツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>タンジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものをスタイリッシュな羽飾りに変形する
+特定のお菓子と組み合わせると、かっこよくてオシャレなお菓子の出来上がり！
+ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="23" eb="24">
+      <t>ハネ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>デキア</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3135,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3212,15 +3283,15 @@
         <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A54" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A55" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -3272,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>100</v>
@@ -3290,7 +3361,7 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
@@ -3335,7 +3406,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>100</v>
@@ -3398,7 +3469,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>100</v>
@@ -3416,16 +3487,16 @@
         <v>1010</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
@@ -3461,7 +3532,7 @@
         <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>100</v>
@@ -3524,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S6" t="s">
         <v>100</v>
@@ -3542,7 +3613,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -3587,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>100</v>
@@ -3605,7 +3676,7 @@
         <v>1006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>84</v>
@@ -3737,7 +3808,7 @@
         <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>115</v>
@@ -3800,7 +3871,7 @@
         <v>125</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>126</v>
@@ -3824,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -3839,7 +3910,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>100</v>
@@ -3866,7 +3937,7 @@
         <v>122</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -3902,7 +3973,7 @@
         <v>6</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>100</v>
@@ -3920,7 +3991,7 @@
         <v>2001</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -3983,16 +4054,16 @@
         <v>2001</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -4028,7 +4099,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S14" t="s">
         <v>54</v>
@@ -4052,7 +4123,7 @@
         <v>95</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>94</v>
@@ -4118,7 +4189,7 @@
         <v>124</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -4154,7 +4225,7 @@
         <v>6</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>100</v>
@@ -4172,16 +4243,16 @@
         <v>3006</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -4217,7 +4288,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>100</v>
@@ -4235,7 +4306,7 @@
         <v>3001</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -4280,7 +4351,7 @@
         <v>6</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>100</v>
@@ -4298,7 +4369,7 @@
         <v>3002</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>21</v>
@@ -4343,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>17</v>
@@ -4550,7 +4621,7 @@
         <v>3050</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -4595,7 +4666,7 @@
         <v>6</v>
       </c>
       <c r="R23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S23" t="s">
         <v>100</v>
@@ -4679,13 +4750,13 @@
         <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="G25" s="3">
         <v>6</v>
@@ -4721,7 +4792,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>100</v>
@@ -4742,13 +4813,13 @@
         <v>40</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="G26" s="3">
         <v>6</v>
@@ -4784,7 +4855,7 @@
         <v>6</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>100</v>
@@ -4847,7 +4918,7 @@
         <v>6</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="S27" t="s">
         <v>100</v>
@@ -4874,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4910,7 +4981,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S28" t="s">
         <v>24</v>
@@ -4931,13 +5002,13 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" t="s">
         <v>146</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" t="s">
-        <v>148</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -4973,7 +5044,7 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
@@ -4994,13 +5065,13 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" t="s">
         <v>214</v>
-      </c>
-      <c r="F30" t="s">
-        <v>215</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -5036,7 +5107,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S30" t="s">
         <v>24</v>
@@ -5057,13 +5128,13 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" t="s">
         <v>218</v>
-      </c>
-      <c r="E31" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" t="s">
-        <v>219</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -5099,7 +5170,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S31" t="s">
         <v>24</v>
@@ -5120,13 +5191,13 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" t="s">
         <v>224</v>
-      </c>
-      <c r="F32" t="s">
-        <v>225</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -5162,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S32" t="s">
         <v>24</v>
@@ -5171,28 +5242,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4003</v>
+        <v>4012</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -5204,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5225,49 +5296,49 @@
         <v>6</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="S33" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>3</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5288,7 +5359,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="S34" t="s">
         <v>100</v>
@@ -5297,31 +5368,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5330,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5351,7 +5422,7 @@
         <v>6</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="S35" t="s">
         <v>100</v>
@@ -5360,31 +5431,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5413,8 +5484,8 @@
       <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" t="s">
-        <v>110</v>
+      <c r="R36" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="S36" t="s">
         <v>100</v>
@@ -5429,19 +5500,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -5477,7 +5548,7 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S37" t="s">
         <v>100</v>
@@ -5492,19 +5563,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -5540,7 +5611,7 @@
         <v>6</v>
       </c>
       <c r="R38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S38" t="s">
         <v>100</v>
@@ -5555,19 +5626,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -5603,7 +5674,7 @@
         <v>6</v>
       </c>
       <c r="R39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S39" t="s">
         <v>100</v>
@@ -5612,31 +5683,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5645,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -5665,8 +5736,8 @@
       <c r="Q40">
         <v>6</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>189</v>
+      <c r="R40" t="s">
+        <v>112</v>
       </c>
       <c r="S40" t="s">
         <v>100</v>
@@ -5675,31 +5746,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5004</v>
+        <v>4013</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G41">
         <v>6</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5717,10 +5788,10 @@
         <v>100</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P41">
         <v>100</v>
@@ -5729,7 +5800,7 @@
         <v>6</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="S41" t="s">
         <v>100</v>
@@ -5744,25 +5815,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="C42" t="s">
         <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="G42">
         <v>6</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5771,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -5780,7 +5851,7 @@
         <v>100</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>4</v>
@@ -5792,7 +5863,7 @@
         <v>6</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="S42" t="s">
         <v>100</v>
@@ -5801,31 +5872,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C43" t="s">
         <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G43">
         <v>6</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5855,7 +5926,7 @@
         <v>6</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="S43" t="s">
         <v>100</v>
@@ -5870,19 +5941,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -5917,8 +5988,8 @@
       <c r="Q44">
         <v>6</v>
       </c>
-      <c r="R44" t="s">
-        <v>160</v>
+      <c r="R44" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="S44" t="s">
         <v>100</v>
@@ -5933,19 +6004,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -5980,8 +6051,8 @@
       <c r="Q45">
         <v>6</v>
       </c>
-      <c r="R45" s="2" t="s">
-        <v>209</v>
+      <c r="R45" t="s">
+        <v>159</v>
       </c>
       <c r="S45" t="s">
         <v>100</v>
@@ -5990,129 +6061,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="7">
+    <row r="46" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="7">
-        <v>6001</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="7">
-        <v>6</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="B46">
+        <v>5005</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
         <v>3</v>
       </c>
-      <c r="I46" s="7">
-        <v>9999</v>
-      </c>
-      <c r="J46" s="7">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7">
-        <v>10</v>
-      </c>
-      <c r="L46" s="7">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N46" s="7">
-        <v>1</v>
-      </c>
-      <c r="O46" s="7">
-        <v>5</v>
-      </c>
-      <c r="P46" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>6</v>
-      </c>
-      <c r="R46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="T46" s="7">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S46" t="s">
+        <v>100</v>
+      </c>
+      <c r="T46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="8">
+    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="8">
-        <v>7001</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="8">
-        <v>6</v>
-      </c>
-      <c r="H47" s="8">
-        <v>15</v>
-      </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
-      <c r="K47" s="8">
-        <v>1</v>
-      </c>
-      <c r="L47" s="8">
-        <v>0</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="N47" s="8">
-        <v>1</v>
-      </c>
-      <c r="O47" s="8">
-        <v>6</v>
-      </c>
-      <c r="P47" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q47" s="8">
-        <v>6</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S47" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="T47" s="8">
+      <c r="B47" s="7">
+        <v>6001</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="7">
+        <v>6</v>
+      </c>
+      <c r="H47" s="7">
+        <v>3</v>
+      </c>
+      <c r="I47" s="7">
+        <v>9999</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <v>10</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
+      <c r="O47" s="7">
+        <v>5</v>
+      </c>
+      <c r="P47" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>6</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T47" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6122,25 +6193,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="8">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G48" s="8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H48" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I48" s="8">
         <v>0</v>
@@ -6170,7 +6241,7 @@
         <v>6</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S48" s="8" t="s">
         <v>100</v>
@@ -6185,25 +6256,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="8">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G49" s="8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H49" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I49" s="8">
         <v>0</v>
@@ -6224,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P49" s="8">
         <v>100</v>
@@ -6233,7 +6304,7 @@
         <v>6</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="S49" s="8" t="s">
         <v>100</v>
@@ -6248,25 +6319,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="8">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G50" s="8">
         <v>6</v>
       </c>
       <c r="H50" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I50" s="8">
         <v>0</v>
@@ -6296,7 +6367,7 @@
         <v>6</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S50" s="8" t="s">
         <v>100</v>
@@ -6305,154 +6376,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3">
+    <row r="51" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="3">
-        <v>9001</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="3">
-        <v>2</v>
-      </c>
-      <c r="H51" s="3">
-        <v>2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
-        <v>10</v>
-      </c>
-      <c r="L51" s="3">
-        <v>0</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N51" s="3">
-        <v>1</v>
-      </c>
-      <c r="O51" s="3">
+      <c r="B51" s="8">
+        <v>8002</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="8">
+        <v>6</v>
+      </c>
+      <c r="H51" s="8">
         <v>8</v>
       </c>
-      <c r="P51" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>6</v>
-      </c>
-      <c r="R51" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="T51" s="3">
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N51" s="8">
+        <v>1</v>
+      </c>
+      <c r="O51" s="8">
+        <v>7</v>
+      </c>
+      <c r="P51" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>6</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T51" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52">
+    <row r="52" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>9002</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" s="3">
+        <v>9001</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" t="s">
-        <v>77</v>
-      </c>
-      <c r="G52">
-        <v>6</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
+      <c r="D52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>10</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>100</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3">
         <v>8</v>
       </c>
-      <c r="P52">
-        <v>100</v>
-      </c>
-      <c r="Q52">
-        <v>6</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S52" t="s">
-        <v>100</v>
-      </c>
-      <c r="T52">
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>6</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C53" t="s">
         <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -6484,8 +6555,8 @@
       <c r="Q53">
         <v>6</v>
       </c>
-      <c r="R53" t="s">
-        <v>104</v>
+      <c r="R53" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S53" t="s">
         <v>100</v>
@@ -6494,43 +6565,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="C54" t="s">
         <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="s">
         <v>100</v>
@@ -6547,13 +6618,76 @@
       <c r="Q54">
         <v>6</v>
       </c>
-      <c r="R54" s="2" t="s">
-        <v>222</v>
+      <c r="R54" t="s">
+        <v>104</v>
       </c>
       <c r="S54" t="s">
         <v>100</v>
       </c>
       <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>9003</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>100</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>8</v>
+      </c>
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55">
+        <v>6</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="S55" t="s">
+        <v>100</v>
+      </c>
+      <c r="T55">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4133588F-D2F0-48C1-AAFD-300D094BB7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FBA8BD-AF9D-4D06-AA2E-058544E8B8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1905" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="239">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -547,10 +547,6 @@
   </si>
   <si>
     <t>Bake_Beans</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リムービング・シェル</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2418,31 +2414,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものを板の形に変形する</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Wind_FlatBar</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2452,31 +2423,6 @@
   </si>
   <si>
     <t>Wind_Crown</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものを王冠の形に変形する</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>オウカン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンケイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2571,50 +2517,6 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>ブヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものを王冠の形に変形する
-お城のケーキなどを作る際の、部品となる。
-ウィンドクラウンをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="15" eb="17">
-      <t>オウカン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="66" eb="69">
-      <t>フアンテイコテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものを板の形に変形する
-ウィンド板チョコをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="15" eb="16">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>フアンテイコテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2659,34 +2561,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>空気の含有量を少なくして凍らせる</t>
-    <rPh sb="0" eb="2">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ガンユウリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アイス水溶液を凍らせる際に、空気の含有量を少なくして、凍らせる。</t>
-    <rPh sb="21" eb="22">
-      <t>スク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ジェラートフリーズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウィンド・ペン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2777,6 +2652,145 @@
     </rPh>
     <rPh sb="63" eb="66">
       <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、チョコレートを板の形に変形する</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、チョコレートを板の形に変形する
+ウィンド板チョコをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="12" eb="13">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>フアンテイコテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、チョコレートを王冠の形に変形する</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、チョコレートを王冠の形に変形する
+お城のケーキなどを作る際の、部品となる。
+ウィンドクラウンをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="12" eb="14">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>フアンテイコテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・ペンシル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジェラートを作り出す</t>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス水溶液を凍らせる際に、強く凍らせて、ジェラートを作る。</t>
+    <rPh sb="14" eb="15">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リムービング・シェル※未使用</t>
+    <rPh sb="11" eb="14">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月の光を凝縮し、バナナを光らせる。
+夜にしか使えない。</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ギョウシュク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3208,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3265,7 +3279,7 @@
         <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -3277,16 +3291,16 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3304,7 +3318,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -3328,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N2" s="5">
         <v>1</v>
@@ -3343,10 +3357,10 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T2" s="5">
         <v>0</v>
@@ -3361,16 +3375,16 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
@@ -3391,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N3" s="3">
         <v>0</v>
@@ -3406,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -3430,10 +3444,10 @@
         <v>80</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="5">
         <v>6</v>
@@ -3454,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -3469,10 +3483,10 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
@@ -3487,16 +3501,16 @@
         <v>1010</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
@@ -3517,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -3532,10 +3546,10 @@
         <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
@@ -3580,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3595,10 +3609,10 @@
         <v>6</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3613,7 +3627,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -3643,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -3658,10 +3672,10 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -3676,7 +3690,7 @@
         <v>1006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>84</v>
@@ -3685,7 +3699,7 @@
         <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="3">
         <v>6</v>
@@ -3706,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -3721,10 +3735,10 @@
         <v>6</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -3742,13 +3756,13 @@
         <v>67</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="7">
         <v>6</v>
@@ -3769,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N9" s="7">
         <v>1</v>
@@ -3784,10 +3798,10 @@
         <v>6</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T9" s="7">
         <v>0</v>
@@ -3805,13 +3819,13 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -3832,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3847,10 +3861,10 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -3868,13 +3882,13 @@
         <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -3895,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -3910,10 +3924,10 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
@@ -3931,13 +3945,13 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -3958,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -3973,10 +3987,10 @@
         <v>6</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -3991,7 +4005,7 @@
         <v>2001</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -4021,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4036,75 +4050,75 @@
         <v>6</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2001</v>
       </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F14" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14">
+      <c r="C14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>100</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="Q14" s="3">
+        <v>6</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4120,13 +4134,13 @@
         <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="5">
         <v>2</v>
@@ -4147,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N15" s="5">
         <v>1</v>
@@ -4162,10 +4176,10 @@
         <v>6</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T15" s="5">
         <v>0</v>
@@ -4183,13 +4197,13 @@
         <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -4210,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
@@ -4225,10 +4239,10 @@
         <v>6</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
@@ -4243,16 +4257,16 @@
         <v>3006</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -4273,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -4288,10 +4302,10 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -4306,7 +4320,7 @@
         <v>3001</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -4336,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -4351,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -4369,7 +4383,7 @@
         <v>3002</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>21</v>
@@ -4399,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -4414,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>17</v>
@@ -4435,10 +4449,10 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
         <v>118</v>
-      </c>
-      <c r="E20" t="s">
-        <v>119</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -4462,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4477,10 +4491,10 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -4498,13 +4512,13 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" t="s">
         <v>127</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -4525,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -4540,10 +4554,10 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -4561,13 +4575,13 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -4588,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4603,10 +4617,10 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -4621,7 +4635,7 @@
         <v>3050</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -4651,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4666,10 +4680,10 @@
         <v>6</v>
       </c>
       <c r="R23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -4687,13 +4701,13 @@
         <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="3">
         <v>6</v>
@@ -4714,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -4729,10 +4743,10 @@
         <v>6</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -4750,13 +4764,13 @@
         <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="G25" s="3">
         <v>6</v>
@@ -4777,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N25" s="3">
         <v>0</v>
@@ -4792,10 +4806,10 @@
         <v>6</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T25" s="3">
         <v>0</v>
@@ -4813,13 +4827,13 @@
         <v>40</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="G26" s="3">
         <v>6</v>
@@ -4840,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -4855,10 +4869,10 @@
         <v>6</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
@@ -4882,7 +4896,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -4903,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4918,10 +4932,10 @@
         <v>6</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="S27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -4945,7 +4959,7 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4966,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4981,7 +4995,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S28" t="s">
         <v>24</v>
@@ -5002,13 +5016,13 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
         <v>145</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>146</v>
-      </c>
-      <c r="F29" t="s">
-        <v>147</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -5029,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -5044,7 +5058,7 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
@@ -5065,13 +5079,13 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -5092,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -5107,7 +5121,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="S30" t="s">
         <v>24</v>
@@ -5128,13 +5142,13 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -5155,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -5170,7 +5184,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="S31" t="s">
         <v>24</v>
@@ -5191,13 +5205,13 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -5218,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -5233,7 +5247,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S32" t="s">
         <v>24</v>
@@ -5254,13 +5268,13 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" t="s">
         <v>234</v>
       </c>
-      <c r="E33" t="s">
-        <v>233</v>
-      </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -5281,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5296,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S33" t="s">
         <v>24</v>
@@ -5344,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5359,10 +5373,10 @@
         <v>6</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -5407,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5422,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -5470,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5485,10 +5499,10 @@
         <v>6</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -5509,10 +5523,10 @@
         <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -5533,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -5548,10 +5562,10 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -5569,13 +5583,13 @@
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -5596,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5611,10 +5625,10 @@
         <v>6</v>
       </c>
       <c r="R38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -5632,13 +5646,13 @@
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -5659,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5674,10 +5688,10 @@
         <v>6</v>
       </c>
       <c r="R39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -5695,13 +5709,13 @@
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -5722,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5737,10 +5751,10 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -5758,13 +5772,13 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -5785,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5800,10 +5814,10 @@
         <v>6</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -5821,13 +5835,13 @@
         <v>69</v>
       </c>
       <c r="D42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" t="s">
         <v>182</v>
-      </c>
-      <c r="E42" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" t="s">
-        <v>183</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -5848,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -5863,10 +5877,10 @@
         <v>6</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -5890,7 +5904,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -5911,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -5926,10 +5940,10 @@
         <v>6</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -5947,13 +5961,13 @@
         <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" t="s">
         <v>134</v>
-      </c>
-      <c r="F44" t="s">
-        <v>135</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -5974,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -5989,10 +6003,10 @@
         <v>6</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -6010,13 +6024,13 @@
         <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" t="s">
         <v>158</v>
-      </c>
-      <c r="F45" t="s">
-        <v>159</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -6037,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -6051,11 +6065,11 @@
       <c r="Q45">
         <v>6</v>
       </c>
-      <c r="R45" t="s">
-        <v>159</v>
+      <c r="R45" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="S45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -6073,13 +6087,13 @@
         <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -6100,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -6115,10 +6129,10 @@
         <v>6</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -6136,10 +6150,10 @@
         <v>68</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>44</v>
@@ -6163,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N47" s="7">
         <v>1</v>
@@ -6181,7 +6195,7 @@
         <v>44</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T47" s="7">
         <v>0</v>
@@ -6226,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N48" s="8">
         <v>1</v>
@@ -6244,7 +6258,7 @@
         <v>50</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T48" s="8">
         <v>0</v>
@@ -6289,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N49" s="8">
         <v>1</v>
@@ -6307,7 +6321,7 @@
         <v>51</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T49" s="8">
         <v>0</v>
@@ -6352,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N50" s="8">
         <v>1</v>
@@ -6370,7 +6384,7 @@
         <v>37</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T50" s="8">
         <v>0</v>
@@ -6415,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N51" s="8">
         <v>1</v>
@@ -6433,7 +6447,7 @@
         <v>34</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T51" s="8">
         <v>0</v>
@@ -6457,7 +6471,7 @@
         <v>81</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="3">
         <v>2</v>
@@ -6478,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N52" s="3">
         <v>1</v>
@@ -6493,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -6541,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -6559,7 +6573,7 @@
         <v>78</v>
       </c>
       <c r="S53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -6577,13 +6591,13 @@
         <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -6604,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -6619,10 +6633,10 @@
         <v>6</v>
       </c>
       <c r="R54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -6640,13 +6654,13 @@
         <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G55">
         <v>6</v>
@@ -6667,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -6682,10 +6696,10 @@
         <v>6</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T55">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FBA8BD-AF9D-4D06-AA2E-058544E8B8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7C7580-861C-4EF5-BF8C-B7D0219C42B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1620" yWindow="1245" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3222,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
         <v>5</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7C7580-861C-4EF5-BF8C-B7D0219C42B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8368752-4A1D-4D67-B87C-DD1E9F0656BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="1245" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -2154,65 +2154,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お菓子の食感を底上げし、おいしくする。すべてのお菓子に効果がある。
-使用時に、ハートを少し消費する。
-ハートが少ないと使用できない。
-仕上げ回数を一回消費する。
-仕上げ回数がないと、使用できない。</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソコア</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>シヨウジ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>焼く際に、温度を細かく指定できる。
 材料選択後、
 クッキーの場合、時間と温度を決めることができる画面になる。
@@ -2791,6 +2732,79 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>できたてのお菓子に対し、こころをこめることで、
+お菓子の食感を底上げし、おいしくする。すべてのお菓子に効果がある。
+使用時に、ハートを少し消費する。
+ハートが少ないと使用できない。
+仕上げ回数を一回消費する。
+仕上げ回数がないと、使用できない。
+パネルにお菓子がセットされていないと、使用できない。</t>
+    <rPh sb="6" eb="8">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソコア</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3222,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3672,7 +3686,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>99</v>
@@ -3759,7 +3773,7 @@
         <v>85</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>116</v>
@@ -3924,7 +3938,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>99</v>
@@ -4071,13 +4085,13 @@
         <v>163</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -4113,7 +4127,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>54</v>
@@ -4932,7 +4946,7 @@
         <v>6</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S27" t="s">
         <v>99</v>
@@ -4995,7 +5009,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S28" t="s">
         <v>24</v>
@@ -5058,7 +5072,7 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
@@ -5079,13 +5093,13 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -5121,7 +5135,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S30" t="s">
         <v>24</v>
@@ -5142,13 +5156,13 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -5184,7 +5198,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S31" t="s">
         <v>24</v>
@@ -5205,13 +5219,13 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" t="s">
         <v>220</v>
-      </c>
-      <c r="F32" t="s">
-        <v>221</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -5247,7 +5261,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S32" t="s">
         <v>24</v>
@@ -5268,13 +5282,13 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" t="s">
         <v>226</v>
-      </c>
-      <c r="E33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" t="s">
-        <v>227</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -5310,7 +5324,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S33" t="s">
         <v>24</v>
@@ -5523,7 +5537,7 @@
         <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F37" t="s">
         <v>109</v>
@@ -5775,7 +5789,7 @@
         <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
         <v>186</v>
@@ -6066,7 +6080,7 @@
         <v>6</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S45" t="s">
         <v>99</v>
@@ -6507,7 +6521,7 @@
         <v>6</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>99</v>
@@ -6696,7 +6710,7 @@
         <v>6</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S55" t="s">
         <v>99</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8368752-4A1D-4D67-B87C-DD1E9F0656BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772A00A0-4151-40A2-975D-584B1669E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1245" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2760" yWindow="840" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="251">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -506,14 +506,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>特定のお菓子に生命を吹き込むことで、動くお菓子にする。
-動きそうなお菓子でないとダメ。
-ツイスターチョコレート　→　ライフ　→　うねうねと生きた動きをするチョコレート
-お菓子のロボット　→　ライフ　→　動くお菓子ロボット
-妖精の見た目の彫刻砂糖菓子　→　ライフ　→　かわいい妖精さんお菓子</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Life_Stream</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -651,48 +643,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>様々な物体を凍らせる
-ゼリー凍る。
-砂糖水とジュース　アイスキャンデーに。
-お花　フリーズフラワー　トッピングに使える。
-くだもの　冷凍フルーツを作れる
-クレープ　冷凍クレープの自販機
-LV1　アイスクリームの水溶液
-LV2　みず・ミルク系
-LV3　くだもの
-LV4　お花
-LV5　おかし全般
-LVに応じて凍らせられる素材が増えていく。</t>
-    <rPh sb="0" eb="2">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブッタイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コオ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>レイトウ</t>
-    </rPh>
-    <rPh sb="90" eb="93">
-      <t>ジハンキ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>コオ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>cost_time</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -763,63 +713,6 @@
   </si>
   <si>
     <t>Aroma_Potion</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アロマの泡を作り出す。
-中にドライアイスの霧が入っており、泡が割れることで霧の演出が可能になる。
-泡を作るためには、各お花に対応する「アロマポーション」が必要。</t>
-    <rPh sb="4" eb="5">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キリ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>キリ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1179,71 +1072,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものをスタイリッシュな飾りに変形する</t>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カザ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものを渦巻状に変形する</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ウズマキジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Wind_Heart</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ウィンド・ハート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものをハートの形に変形する</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンケイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1357,10 +1190,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ムーンライト・バナナージュ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>月の光を凝縮し、バナナを光らせる。</t>
     <rPh sb="0" eb="1">
       <t>ツキ</t>
@@ -1543,44 +1372,6 @@
   </si>
   <si>
     <t>Star_Gazer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天について勉強する。</t>
-    <rPh sb="0" eb="1">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天について勉強する。
-LVが上がるにつれて、星魔法の効果をアップする。</t>
-    <rPh sb="0" eb="1">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ホシマホウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウェザーライト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Weather_Light</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2027,41 +1818,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コーヒー・カフェラテについて勉強する。
-覚えるだけでコーヒー系の品質の底上げ。
-さらに、カフェラテの仕上げに魔法をかけることで、
-ミルクに絵柄を描き、かわいく見せることができる。
-失敗することもある。
-LV1: 見た目+30
-LV2: 見た目+60
-LV3: 見た目+90</t>
-    <rPh sb="14" eb="16">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>エガラ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アイスキューブ※未使用</t>
     <rPh sb="8" eb="11">
       <t>ミシヨウ</t>
@@ -2077,141 +1833,6 @@
   </si>
   <si>
     <t>テンパリング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する時間帯によって、ジュースの見た目を変える。</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジカンタイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する時間帯によって、ジュースの見た目を変える。
-ジュース・ソーダが対象。
-朝→　朝焼けのソーダ
-昼→　昼下がりのソーダ
-など
-それぞれのソーダの色合いが変わる。
-元となるジュースは、透明のものでないと効果がない。</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジカンタイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>アサヤ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒルサ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>イロア</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>焼く際に、温度を細かく指定できる。
-材料選択後、
-クッキーの場合、時間と温度を決めることができる画面になる。
-その他、焼き菓子も同様に、時間と温度を決めることができる。</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="24">
-      <t>ザイリョウセンタクゴ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>キ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2280,74 +1901,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものを渦まき状にする
-渦巻きのお菓子は、そのまま彫刻のように、場を彩ることができる。
-華やかな場やパーティー向けのお菓子になる。
-ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。
-レベルに応じて、どんどん見た目を派手にしていける。</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ウズマキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>チョウコク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>イロド</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="99" eb="102">
-      <t>フアンテイ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ハデ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ウィンド・板チョコ</t>
     <rPh sb="5" eb="6">
       <t>イタ</t>
@@ -2370,16 +1923,6 @@
     <t>ペンギンさんの造形</t>
     <rPh sb="7" eb="9">
       <t>ゾウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の精霊</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイレイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2442,66 +1985,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、柔らかいクッキーをくるくる巻く。
-巻いたクッキーは、お城のケーキなどを作る際の、部品となる。</t>
-    <rPh sb="23" eb="24">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ブヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものをハートの形に変形する
-ハートの形は、好きな人への愛や感謝を表す形。
-特別な日のおかしになる。
-ウィンドハートをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="31" eb="32">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カンシャ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t>フアンテイコテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ジェラートフリーズ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2525,74 +2008,6 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、液体チョコレートを操り、ペンのように模様を描けるようになる。
-液体チョコレートにかけると、チョコのペンが出来上がる。
-◆ブラックチョコ→クッキーにチョコペンで、模様が描ける。
-◆ホワイトチョコ→チョコレートに文字が描ける。
-お誕生日メッセージなど。</t>
-    <rPh sb="5" eb="7">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アヤツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>モヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>エガ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>モヨウ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>タンジョウビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものをスタイリッシュな羽飾りに変形する
-特定のお菓子と組み合わせると、かっこよくてオシャレなお菓子の出来上がり！
-ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="23" eb="24">
-      <t>ハネ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t>デキア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2709,29 +2124,6 @@
     <t>リムービング・シェル※未使用</t>
     <rPh sb="11" eb="14">
       <t>ミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月の光を凝縮し、バナナを光らせる。
-夜にしか使えない。</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒカリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ギョウシュク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2805,6 +2197,869 @@
     </rPh>
     <rPh sb="145" eb="147">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒー・カフェラテについて勉強する。
+覚えるだけでコーヒー系の品質の底上げ。
+さらに、カフェラテの仕上げに魔法をかけることで、
+ミルクに絵柄を描き、かわいく見せることができる。
+失敗することもある。
+コーヒー系の
+LV1: 見た目+30
+LV2: 見た目+60
+LV3: 見た目+90</t>
+    <rPh sb="14" eb="16">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>エガラ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ムーンライト・バナナ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星について勉強する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星について勉強する。
+LVが上がるにつれて、星魔法の効果をアップする。
+星魔法を使う際、出来上がるお菓子の食感・見た目が底上げされる。</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホシマホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ホシマホウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>謎の呪文により、別のお菓子に変えてしまう。
+LVが上がると、変わったときのお菓子の種類が増える。</t>
+    <rPh sb="0" eb="1">
+      <t>ナゾ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュモン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、液体チョコレートを操り、ペンのように模様を描けるようになる。
+液体チョコレートにかけると、チョコのペンが出来上がる。
+◆ブラックチョコペン→クッキーに模様が描ける。
+◆ホワイトチョコペン→チョコレートに文字が描ける。
+お誕生日メッセージなど。</t>
+    <rPh sb="5" eb="7">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アヤツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>タンジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アロマの泡を作り出す。
+中にアロマポーションの霧が入っており、泡が割れることで霧の演出が可能になる。
+泡を作るためには、各お花に対応する「アロマポーション」が必要。</t>
+    <rPh sb="4" eb="5">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子を作った際に、MPを少し回復する。
+LVが上がると、回復量が上昇する。</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、液体やチョコレートを渦巻状に変形する</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ウズマキジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、チョコレートをハートの形に変形する</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、チョコレートをハートの形に変形する
+ハートの形は、好きな人への愛や感謝を表す形。
+特別な日のおかしになる。
+ウィンドハートをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="28" eb="29">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カンシャ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>フアンテイコテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、液体・チョコレートを渦まき状にする
+渦巻きのお菓子は、そのまま彫刻のように、場を彩ることができる。
+華やかな場やパーティー向けのお菓子になる。
+ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ウズマキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チョウコク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>イロド</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>フアンテイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、水あめ・チョコレートをスタイリッシュな飾りに変形する</t>
+    <rPh sb="5" eb="6">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、柔らかいクッキーをくるくる巻く。
+柔らかいクッキーは、焼きたてのラングドシャクッキーのこと。
+巻いたクッキーは、お城のケーキなどを作る際の、部品となる。</t>
+    <rPh sb="22" eb="23">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シルフの呼び声</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のお菓子に生命を吹き込むことで、動くお菓子にする。
+動きそうなお菓子でないとダメ。
+ツイスターチョコレート　→　うねうねと生きた動きをするチョコレート
+お菓子の兵隊　→　動くお菓子の兵隊
+動物のお菓子　→　動くどうぶつたちのお菓子</t>
+    <rPh sb="85" eb="87">
+      <t>ヘイタイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヘイタイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Statue_of_Cat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ねこさんの造形</t>
+    <rPh sb="5" eb="7">
+      <t>ゾウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水あめ、チョコレートをねこの形にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する時間帯によって、ソーダの見た目を変える。
+ソーダが対象。
+朝→　朝焼けのソーダ
+昼→　昼下がりのソーダ
+など
+それぞれのソーダの色合いが変わる。
+元となるソーダは、純粋のものでないと効果がない。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>アサヤ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒルサ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジュンスイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する時間帯によって、ソーダの見た目を変える。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マジック・ソーダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Magic_Soda</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イフリートの呼び声</t>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウンディーネの呼び声</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Summon_Undine</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Summon_Ifrit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水の精霊を呼び出し、手伝ってもらう。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の精霊を呼び出し、手伝ってもらう。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月の光を凝縮し、バナナを光らせる。
+夜になると効果がアップする。</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ギョウシュク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>様々な物体を凍らせる
+ゼリー凍る。
+砂糖水とジュース　アイスキャンデーに。
+お花　フリーズフラワー　トッピングに使える。
+くだもの　冷凍フルーツを作れる
+クレープ　冷凍クレープの自販機
+LV1　アイスクリームの水溶液
+LV2　みず・ミルク・液体チョコ系
+LV3　くだもの
+LV4　お花
+LV5　おかし全般
+LVに応じて凍らせられる素材が増えていく。
+派生：
+LV2で、ジェラートフリーズ習得可</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>レイトウ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>ジハンキ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ハセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆類を焼いて香りや味を出す。豆殻も一緒に取る。
+派生：
+LV1でテンパリング習得可</t>
+    <rPh sb="0" eb="1">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼く際に、温度を細かく指定できる。
+材料選択後、
+クッキーの場合、時間と温度を決めることができる画面になる。
+その他、焼き菓子も同様に、時間と温度を決めることができる。
+派生：
+LV1で、豆焼き習得可</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>ザイリョウセンタクゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>マメヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、水あめ・チョコレートをスタイリッシュな羽飾りに変形する
+特定のお菓子と組み合わせると、かっこよくてオシャレなお菓子の出来上がり！
+ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。
+派生：
+LV1で、各ウィンド系の魔法の習得可</t>
+    <rPh sb="5" eb="6">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハネ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>マホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3234,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3293,7 +3548,7 @@
         <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -3305,21 +3560,21 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A55" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A58" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -3332,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -3356,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N2" s="5">
         <v>1</v>
@@ -3371,10 +3626,10 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T2" s="5">
         <v>0</v>
@@ -3389,16 +3644,16 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
@@ -3419,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N3" s="3">
         <v>0</v>
@@ -3434,10 +3689,10 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -3455,13 +3710,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="5">
         <v>6</v>
@@ -3482,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
@@ -3497,10 +3752,10 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
@@ -3515,16 +3770,16 @@
         <v>1010</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
@@ -3545,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -3560,75 +3815,75 @@
         <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1003</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>99</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <v>9</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>100</v>
       </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S6" t="s">
-        <v>99</v>
-      </c>
-      <c r="T6">
+      <c r="Q6" s="3">
+        <v>6</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3641,7 +3896,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -3671,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -3686,10 +3941,10 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -3704,16 +3959,16 @@
         <v>1006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="3">
         <v>6</v>
@@ -3734,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -3748,14 +4003,14 @@
       <c r="Q8" s="3">
         <v>6</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>88</v>
+      <c r="R8" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3770,13 +4025,13 @@
         <v>67</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G9" s="7">
         <v>6</v>
@@ -3797,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N9" s="7">
         <v>1</v>
@@ -3812,10 +4067,10 @@
         <v>6</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T9" s="7">
         <v>0</v>
@@ -3833,13 +4088,13 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -3860,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3875,13 +4130,13 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S10" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3896,13 +4151,13 @@
         <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -3923,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -3938,355 +4193,355 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+    <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>2004</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="B12">
+        <v>1009</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>6</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>245</v>
+      </c>
+      <c r="S12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>2001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13">
+      <c r="B13" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>5</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
         <v>100</v>
       </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S13" t="s">
-        <v>99</v>
-      </c>
-      <c r="T13">
+      <c r="Q13" s="3">
+        <v>6</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>2001</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>6</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T14" s="3">
-        <v>2</v>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>2002</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="B15" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>9999</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5">
-        <v>1</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="5">
-        <v>6</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
+      <c r="Q15" s="3">
+        <v>6</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>2003</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="D16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>5</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3">
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>9999</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
         <v>100</v>
       </c>
-      <c r="Q16" s="3">
-        <v>6</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T16" s="3">
+      <c r="Q16" s="5">
+        <v>6</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>3006</v>
+        <v>2003</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -4301,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -4316,103 +4571,103 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+    <row r="18" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>3001</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="B18">
+        <v>2003</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>5</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>6</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18" t="s">
+        <v>244</v>
+      </c>
+      <c r="S18" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
@@ -4427,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
         <v>2</v>
@@ -4442,139 +4697,139 @@
         <v>6</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="T19" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="20" spans="1:20" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>3003</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
+      <c r="B20" s="3">
+        <v>3001</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
         <v>5</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
         <v>2</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S20" t="s">
-        <v>99</v>
-      </c>
-      <c r="T20">
+      <c r="Q20" s="3">
+        <v>6</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="21" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>3004</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21">
+      <c r="B21" s="3">
+        <v>3002</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3">
         <v>4</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>5</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>99</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
         <v>2</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S21" t="s">
-        <v>99</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
+      <c r="Q21" s="3">
+        <v>6</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4583,25 +4838,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4610,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4631,229 +4886,229 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="S22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="23" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>3050</v>
-      </c>
-      <c r="C23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>99</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
+      <c r="B23" s="3">
+        <v>3004</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>2</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-      <c r="R23" t="s">
-        <v>199</v>
-      </c>
-      <c r="S23" t="s">
-        <v>99</v>
-      </c>
-      <c r="T23">
+      <c r="Q23" s="3">
+        <v>6</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
+    <row r="24" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <v>3051</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="3">
-        <v>6</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="B24">
+        <v>3005</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
         <v>10</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>2</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>6</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S24" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3">
-        <v>4010</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="3">
-        <v>6</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>5</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
+      <c r="B25">
+        <v>3050</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
         <v>3</v>
       </c>
-      <c r="P25" s="3">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
         <v>100</v>
       </c>
-      <c r="Q25" s="3">
-        <v>6</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T25" s="3">
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25" t="s">
+        <v>188</v>
+      </c>
+      <c r="S25" t="s">
+        <v>97</v>
+      </c>
+      <c r="T25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>4011</v>
+        <v>3051</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="G26" s="3">
         <v>6</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -4868,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
@@ -4882,164 +5137,164 @@
       <c r="Q26" s="3">
         <v>6</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>177</v>
+      <c r="R26" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27">
+    <row r="27" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>4001</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="3">
+        <v>4010</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>99</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
+      <c r="D27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>3</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27">
-        <v>6</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="S27" t="s">
-        <v>99</v>
-      </c>
-      <c r="T27">
+      <c r="Q27" s="3">
+        <v>6</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T27" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="28" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>4002</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="3">
+        <v>4011</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
+      <c r="D28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>5</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
         <v>3</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>99</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>100</v>
       </c>
-      <c r="Q28">
-        <v>6</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="S28" t="s">
-        <v>24</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
+      <c r="Q28" s="3">
+        <v>6</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4010</v>
+        <v>4001</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -5051,13 +5306,13 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -5072,418 +5327,418 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="S29" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="30" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>4011</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="3">
+        <v>4002</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" t="s">
-        <v>211</v>
-      </c>
-      <c r="F30" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
+      <c r="D30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
         <v>3</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>99</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
         <v>3</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <v>100</v>
       </c>
-      <c r="Q30">
-        <v>6</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="Q30" s="3">
+        <v>6</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="S30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31">
+    <row r="31" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>4012</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3">
+        <v>4010</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
+      <c r="D31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
         <v>2</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
         <v>3</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>99</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
         <v>3</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <v>100</v>
       </c>
-      <c r="Q31">
-        <v>6</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="Q31" s="3">
+        <v>6</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32">
+    <row r="32" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>4012</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="3">
+        <v>4011</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="D32" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>99</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>3</v>
       </c>
-      <c r="P32">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32">
-        <v>6</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="Q32" s="3">
+        <v>6</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="33" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>4012</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D33" t="s">
-        <v>225</v>
-      </c>
-      <c r="E33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
+      <c r="D33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
         <v>2</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>99</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>3</v>
       </c>
-      <c r="P33">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33">
-        <v>6</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="Q33" s="3">
+        <v>6</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34">
+    <row r="34" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>4003</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="3">
+        <v>4012</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34">
+      <c r="D34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
         <v>3</v>
       </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>3</v>
-      </c>
-      <c r="P34">
+      <c r="P34" s="3">
         <v>100</v>
       </c>
-      <c r="Q34">
-        <v>6</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
+      <c r="Q34" s="3">
+        <v>6</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35">
+    <row r="35" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>4004</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="3">
+        <v>4012</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35">
+      <c r="D35" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
         <v>3</v>
       </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>99</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>3</v>
-      </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35">
-        <v>6</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S35" t="s">
-        <v>99</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
+      <c r="Q35" s="3">
+        <v>6</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5498,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5513,34 +5768,34 @@
         <v>6</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="S36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -5555,13 +5810,13 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -5575,41 +5830,41 @@
       <c r="Q37">
         <v>6</v>
       </c>
-      <c r="R37" t="s">
-        <v>109</v>
+      <c r="R37" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="S37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5624,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5638,11 +5893,11 @@
       <c r="Q38">
         <v>6</v>
       </c>
-      <c r="R38" t="s">
-        <v>110</v>
+      <c r="R38" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="S38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -5654,19 +5909,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -5687,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5702,10 +5957,10 @@
         <v>6</v>
       </c>
       <c r="R39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="S39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -5717,19 +5972,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -5750,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5765,40 +6020,40 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4013</v>
+        <v>4007</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5807,13 +6062,13 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5827,41 +6082,41 @@
       <c r="Q41">
         <v>6</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>187</v>
+      <c r="R41" t="s">
+        <v>235</v>
       </c>
       <c r="S41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5004</v>
+        <v>4008</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5870,19 +6125,19 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <v>100</v>
@@ -5890,41 +6145,41 @@
       <c r="Q42">
         <v>6</v>
       </c>
-      <c r="R42" s="2" t="s">
-        <v>183</v>
+      <c r="R42" t="s">
+        <v>109</v>
       </c>
       <c r="S42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5001</v>
+        <v>4009</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5939,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P43">
         <v>100</v>
@@ -5953,62 +6208,62 @@
       <c r="Q43">
         <v>6</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>152</v>
+      <c r="R43" t="s">
+        <v>108</v>
       </c>
       <c r="S43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5002</v>
+        <v>4013</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G44">
         <v>6</v>
       </c>
       <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>97</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
         <v>3</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>3</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>99</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>4</v>
       </c>
       <c r="P44">
         <v>100</v>
@@ -6017,40 +6272,40 @@
         <v>6</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="S44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6059,16 +6314,16 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>4</v>
@@ -6080,40 +6335,40 @@
         <v>6</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="S45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6128,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -6143,264 +6398,264 @@
         <v>6</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="S46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7">
+    <row r="47" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="7">
-        <v>6001</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="7">
-        <v>6</v>
-      </c>
-      <c r="H47" s="7">
+      <c r="B47" s="3">
+        <v>5002</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3">
         <v>3</v>
       </c>
-      <c r="I47" s="7">
-        <v>9999</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0</v>
-      </c>
-      <c r="K47" s="7">
-        <v>10</v>
-      </c>
-      <c r="L47" s="7">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N47" s="7">
-        <v>1</v>
-      </c>
-      <c r="O47" s="7">
-        <v>5</v>
-      </c>
-      <c r="P47" s="7">
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="7">
-        <v>6</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="T47" s="7">
+      <c r="Q47" s="3">
+        <v>6</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T47" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="8">
+    <row r="48" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="8">
-        <v>7001</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="8">
-        <v>6</v>
-      </c>
-      <c r="H48" s="8">
-        <v>15</v>
-      </c>
-      <c r="I48" s="8">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0</v>
-      </c>
-      <c r="K48" s="8">
-        <v>1</v>
-      </c>
-      <c r="L48" s="8">
-        <v>0</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N48" s="8">
-        <v>1</v>
-      </c>
-      <c r="O48" s="8">
-        <v>6</v>
-      </c>
-      <c r="P48" s="8">
+      <c r="B48" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="8">
-        <v>6</v>
-      </c>
-      <c r="R48" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="T48" s="8">
+      <c r="Q48" s="3">
+        <v>6</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T48" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="8">
+    <row r="49" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="8">
-        <v>7002</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="8">
-        <v>18</v>
-      </c>
-      <c r="H49" s="8">
-        <v>20</v>
-      </c>
-      <c r="I49" s="8">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <v>0</v>
-      </c>
-      <c r="K49" s="8">
-        <v>1</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N49" s="8">
-        <v>1</v>
-      </c>
-      <c r="O49" s="8">
-        <v>6</v>
-      </c>
-      <c r="P49" s="8">
+      <c r="B49">
+        <v>5005</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
         <v>100</v>
       </c>
-      <c r="Q49" s="8">
-        <v>6</v>
-      </c>
-      <c r="R49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="T49" s="8">
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S49" t="s">
+        <v>97</v>
+      </c>
+      <c r="T49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8">
+    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="8">
-        <v>8001</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" s="8">
-        <v>6</v>
-      </c>
-      <c r="H50" s="8">
+      <c r="B50" s="7">
+        <v>6001</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="7">
+        <v>6</v>
+      </c>
+      <c r="H50" s="7">
+        <v>3</v>
+      </c>
+      <c r="I50" s="7">
+        <v>9999</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>10</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1</v>
+      </c>
+      <c r="O50" s="7">
         <v>5</v>
       </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="K50" s="8">
-        <v>1</v>
-      </c>
-      <c r="L50" s="8">
-        <v>0</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N50" s="8">
-        <v>1</v>
-      </c>
-      <c r="O50" s="8">
-        <v>7</v>
-      </c>
-      <c r="P50" s="8">
+      <c r="P50" s="7">
         <v>100</v>
       </c>
-      <c r="Q50" s="8">
-        <v>6</v>
-      </c>
-      <c r="R50" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="T50" s="8">
+      <c r="Q50" s="7">
+        <v>6</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T50" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6410,25 +6665,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="8">
-        <v>8002</v>
+        <v>7001</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G51" s="8">
         <v>6</v>
       </c>
       <c r="H51" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I51" s="8">
         <v>0</v>
@@ -6443,13 +6698,13 @@
         <v>0</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N51" s="8">
         <v>1</v>
       </c>
       <c r="O51" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P51" s="8">
         <v>100</v>
@@ -6458,264 +6713,453 @@
         <v>6</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T51" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
+    <row r="52" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="3">
-        <v>9001</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>10</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1</v>
-      </c>
-      <c r="O52" s="3">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="B52" s="8">
+        <v>7002</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="8">
+        <v>18</v>
+      </c>
+      <c r="H52" s="8">
+        <v>20</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N52" s="8">
+        <v>1</v>
+      </c>
+      <c r="O52" s="8">
+        <v>6</v>
+      </c>
+      <c r="P52" s="8">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>6</v>
-      </c>
-      <c r="R52" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="Q52" s="8">
+        <v>6</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T52" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53">
+    <row r="53" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="8">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>9002</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53">
-        <v>6</v>
-      </c>
-      <c r="H53">
+      <c r="B53" s="8">
+        <v>8001</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="8">
+        <v>6</v>
+      </c>
+      <c r="H53" s="8">
         <v>5</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>10</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53" t="s">
-        <v>99</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>8</v>
-      </c>
-      <c r="P53">
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N53" s="8">
+        <v>1</v>
+      </c>
+      <c r="O53" s="8">
+        <v>7</v>
+      </c>
+      <c r="P53" s="8">
         <v>100</v>
       </c>
-      <c r="Q53">
-        <v>6</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S53" t="s">
-        <v>99</v>
-      </c>
-      <c r="T53">
+      <c r="Q53" s="8">
+        <v>6</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T53" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A54">
+    <row r="54" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="8">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>9004</v>
-      </c>
-      <c r="C54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>5</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>10</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" t="s">
-        <v>99</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
+      <c r="B54" s="8">
+        <v>8002</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="8">
+        <v>6</v>
+      </c>
+      <c r="H54" s="8">
         <v>8</v>
       </c>
-      <c r="P54">
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N54" s="8">
+        <v>1</v>
+      </c>
+      <c r="O54" s="8">
+        <v>7</v>
+      </c>
+      <c r="P54" s="8">
         <v>100</v>
       </c>
-      <c r="Q54">
-        <v>6</v>
-      </c>
-      <c r="R54" t="s">
-        <v>103</v>
-      </c>
-      <c r="S54" t="s">
-        <v>99</v>
-      </c>
-      <c r="T54">
+      <c r="Q54" s="8">
+        <v>6</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T54" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55">
+    <row r="55" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
+        <v>9001</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>10</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3">
+        <v>8</v>
+      </c>
+      <c r="P55" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>6</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>9002</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>97</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <v>100</v>
+      </c>
+      <c r="Q56">
+        <v>6</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S56" t="s">
+        <v>97</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>9004</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>97</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <v>100</v>
+      </c>
+      <c r="Q57">
+        <v>6</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="S57" t="s">
+        <v>97</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
         <v>9003</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D55" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55">
-        <v>6</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55" t="s">
-        <v>99</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
+      <c r="D58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
         <v>8</v>
       </c>
-      <c r="P55">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q55">
-        <v>6</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="S55" t="s">
-        <v>99</v>
-      </c>
-      <c r="T55">
+      <c r="Q58" s="3">
+        <v>6</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T58" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772A00A0-4151-40A2-975D-584B1669E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4BAB64-F420-42D4-B949-5A7BF984EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="840" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1095" yWindow="1020" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -872,19 +872,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クッキーを二度焼きして、サクサク感を増す。</t>
-    <rPh sb="5" eb="8">
-      <t>ニドヤ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MPリジェネレート</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1833,71 +1820,6 @@
   </si>
   <si>
     <t>テンパリング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーをさらに焼くことで、サクサク感を増す。
-LVが上がると、より効果が高まる。
-ゲージが出現するので、
-焦げるギリギリのポイントでゲージを止めると、
-サクサク感が増す。
-ポイントを超えると、焦げて失敗。
-仕上げ回数を一回消費する。
-仕上げ回数がないと、使用できない。</t>
-    <rPh sb="27" eb="28">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>シヨウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3060,6 +2982,96 @@
     </rPh>
     <rPh sb="127" eb="129">
       <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼き菓子を二度焼きして、サクサク感を増す。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニドヤ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーなどの焼き菓子をさらに焼くことで、サクサク感を増す。
+LVが上がると、より効果が高まる。
+ゲージが出現するので、
+焦げるギリギリのポイントでゲージを止めると、
+サクサク感が増す。
+ポイントを超えると、焦げて失敗。
+仕上げ回数を一回消費する。
+仕上げ回数がないと、使用できない。</t>
+    <rPh sb="7" eb="8">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3491,8 +3503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3566,10 +3578,10 @@
         <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3587,7 +3599,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -3626,7 +3638,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>97</v>
@@ -3644,16 +3656,16 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
@@ -3689,7 +3701,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>97</v>
@@ -3713,7 +3725,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>86</v>
@@ -3752,7 +3764,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>97</v>
@@ -3770,16 +3782,16 @@
         <v>1010</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
@@ -3815,7 +3827,7 @@
         <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>97</v>
@@ -3878,7 +3890,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>97</v>
@@ -3896,7 +3908,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -3941,7 +3953,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>97</v>
@@ -3959,7 +3971,7 @@
         <v>1006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>83</v>
@@ -4004,7 +4016,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>64</v>
@@ -4028,7 +4040,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>113</v>
@@ -4091,7 +4103,7 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F10" t="s">
         <v>111</v>
@@ -4154,10 +4166,10 @@
         <v>121</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -4178,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -4193,7 +4205,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>97</v>
@@ -4214,13 +4226,13 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" t="s">
         <v>243</v>
-      </c>
-      <c r="E12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" t="s">
-        <v>245</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -4256,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S12" t="s">
         <v>97</v>
@@ -4283,7 +4295,7 @@
         <v>118</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -4319,7 +4331,7 @@
         <v>6</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>97</v>
@@ -4337,7 +4349,7 @@
         <v>2001</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -4382,7 +4394,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S14" t="s">
         <v>97</v>
@@ -4400,16 +4412,16 @@
         <v>2001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -4445,7 +4457,7 @@
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>54</v>
@@ -4469,7 +4481,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>92</v>
@@ -4529,13 +4541,13 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -4571,7 +4583,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>97</v>
@@ -4592,13 +4604,13 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" t="s">
         <v>242</v>
-      </c>
-      <c r="E18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F18" t="s">
-        <v>244</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4634,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S18" t="s">
         <v>97</v>
@@ -4652,16 +4664,16 @@
         <v>3006</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -4697,7 +4709,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>97</v>
@@ -4715,7 +4727,7 @@
         <v>3001</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -4760,7 +4772,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>97</v>
@@ -4778,7 +4790,7 @@
         <v>3002</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>21</v>
@@ -4823,7 +4835,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>17</v>
@@ -4886,7 +4898,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S22" t="s">
         <v>97</v>
@@ -4907,13 +4919,13 @@
         <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="G23" s="3">
         <v>4</v>
@@ -4949,7 +4961,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>97</v>
@@ -4970,13 +4982,13 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -5012,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S24" t="s">
         <v>97</v>
@@ -5030,7 +5042,7 @@
         <v>3050</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
@@ -5075,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S25" t="s">
         <v>97</v>
@@ -5159,13 +5171,13 @@
         <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="G27" s="3">
         <v>6</v>
@@ -5201,7 +5213,7 @@
         <v>6</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>97</v>
@@ -5222,13 +5234,13 @@
         <v>40</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="G28" s="3">
         <v>6</v>
@@ -5264,7 +5276,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>97</v>
@@ -5291,7 +5303,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -5327,7 +5339,7 @@
         <v>6</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S29" t="s">
         <v>97</v>
@@ -5354,7 +5366,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -5390,7 +5402,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>24</v>
@@ -5411,13 +5423,13 @@
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -5453,7 +5465,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>24</v>
@@ -5474,13 +5486,13 @@
         <v>40</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -5516,7 +5528,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>24</v>
@@ -5537,13 +5549,13 @@
         <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -5579,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>24</v>
@@ -5600,13 +5612,13 @@
         <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5642,7 +5654,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>24</v>
@@ -5663,13 +5675,13 @@
         <v>40</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -5705,7 +5717,7 @@
         <v>6</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>24</v>
@@ -5831,7 +5843,7 @@
         <v>6</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S37" t="s">
         <v>97</v>
@@ -5894,7 +5906,7 @@
         <v>6</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S38" t="s">
         <v>97</v>
@@ -5918,7 +5930,7 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F39" t="s">
         <v>106</v>
@@ -6041,13 +6053,13 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" t="s">
         <v>233</v>
-      </c>
-      <c r="E41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" t="s">
-        <v>235</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -6083,7 +6095,7 @@
         <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S41" t="s">
         <v>97</v>
@@ -6167,7 +6179,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
         <v>105</v>
@@ -6230,13 +6242,13 @@
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -6272,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S44" t="s">
         <v>97</v>
@@ -6293,13 +6305,13 @@
         <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -6335,7 +6347,7 @@
         <v>6</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S45" t="s">
         <v>97</v>
@@ -6362,7 +6374,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -6398,7 +6410,7 @@
         <v>6</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S46" t="s">
         <v>97</v>
@@ -6419,13 +6431,13 @@
         <v>69</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="G47" s="3">
         <v>6</v>
@@ -6461,7 +6473,7 @@
         <v>6</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>97</v>
@@ -6482,13 +6494,13 @@
         <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G48" s="3">
         <v>6</v>
@@ -6524,7 +6536,7 @@
         <v>6</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>97</v>
@@ -6545,13 +6557,13 @@
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -6587,7 +6599,7 @@
         <v>6</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S49" t="s">
         <v>97</v>
@@ -6608,10 +6620,10 @@
         <v>68</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>44</v>
@@ -6950,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N55" s="3">
         <v>1</v>
@@ -6965,7 +6977,7 @@
         <v>6</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S55" s="3" t="s">
         <v>97</v>
@@ -7028,7 +7040,7 @@
         <v>6</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S56" t="s">
         <v>97</v>
@@ -7091,7 +7103,7 @@
         <v>6</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S57" t="s">
         <v>97</v>
@@ -7154,7 +7166,7 @@
         <v>6</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>97</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4BAB64-F420-42D4-B949-5A7BF984EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1600AA-F077-4148-90F0-B5920EB41F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1020" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2910" yWindow="540" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="254">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -838,10 +838,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バタフライ・ルミネ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>真実のハート</t>
     <rPh sb="0" eb="2">
       <t>シンジツ</t>
@@ -909,42 +905,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ソコア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>光で作ったちょうちょや葉っぱを飛ばす
-お菓子をさらにかわいく演出できる。
-ただし、特定のお菓子でないと相性が悪いこともある。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>アイショウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ワル</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1435,10 +1395,6 @@
   </si>
   <si>
     <t>Chocolate_Philosophy</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アパレイユ・スタディ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2513,19 +2469,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、水あめ・チョコレートをスタイリッシュな飾りに変形する</t>
-    <rPh sb="5" eb="6">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カザ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>風の力で、柔らかいクッキーをくるくる巻く。
 柔らかいクッキーは、焼きたてのラングドシャクッキーのこと。
 巻いたクッキーは、お城のケーキなどを作る際の、部品となる。</t>
@@ -2549,39 +2492,6 @@
     </rPh>
     <rPh sb="76" eb="78">
       <t>ブヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シルフの呼び声</t>
-    <rPh sb="4" eb="5">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特定のお菓子に生命を吹き込むことで、動くお菓子にする。
-動きそうなお菓子でないとダメ。
-ツイスターチョコレート　→　うねうねと生きた動きをするチョコレート
-お菓子の兵隊　→　動くお菓子の兵隊
-動物のお菓子　→　動くどうぶつたちのお菓子</t>
-    <rPh sb="85" eb="87">
-      <t>ヘイタイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ヘイタイ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ドウブツ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2686,26 +2596,6 @@
   </si>
   <si>
     <t>Magic_Soda</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>イフリートの呼び声</t>
-    <rPh sb="6" eb="7">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ゴエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウンディーネの呼び声</t>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴエ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2942,50 +2832,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、水あめ・チョコレートをスタイリッシュな羽飾りに変形する
-特定のお菓子と組み合わせると、かっこよくてオシャレなお菓子の出来上がり！
-ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。
-派生：
-LV1で、各ウィンド系の魔法の習得可</t>
-    <rPh sb="5" eb="6">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ハネ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ハセイ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>マホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>焼き菓子を二度焼きして、サクサク感を増す。</t>
     <rPh sb="0" eb="1">
       <t>ヤ</t>
@@ -3072,6 +2918,189 @@
     </rPh>
     <rPh sb="138" eb="140">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミナス・バタフライ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光で作ったちょうちょや葉っぱを飛ばす
+お菓子をさらにかわいく演出できる。
+特定のお菓子でないと、効果が発動しない。
+木やお城などをモチーフにしたお菓子と相性がいい。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>アイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アパレイユのお勉強</t>
+    <rPh sb="7" eb="9">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シルフの召喚</t>
+    <rPh sb="4" eb="6">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウンディーネの召喚</t>
+    <rPh sb="7" eb="9">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イフリートの召喚</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のお菓子に生命を吹き込むことで、動くお菓子にする。
+ツイスターチョコレート　→　うねうねと生きた動きをするチョコレート
+動物のお菓子　→　動くどうぶつたちのお菓子</t>
+    <rPh sb="64" eb="66">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、水あめ・チョコレートを羽飾りに変形する
+特定のお菓子と組み合わせると、かっこよくてオシャレなお菓子の出来上がり！
+ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。
+派生：
+LV1で、各ウィンド系の魔法の習得可</t>
+    <rPh sb="5" eb="6">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハネ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、水あめ・チョコレートを羽飾りに変形する</t>
+    <rPh sb="5" eb="6">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハネ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Summon_Mirabo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラボーの召喚</t>
+    <rPh sb="5" eb="7">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラボー先生を呼び出し、手伝ってもらう。</t>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テツダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3501,10 +3530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3578,15 +3607,15 @@
         <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A58" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A59" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -3599,7 +3628,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -3638,7 +3667,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>97</v>
@@ -3656,16 +3685,16 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
@@ -3701,7 +3730,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>97</v>
@@ -3725,7 +3754,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>86</v>
@@ -3764,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>97</v>
@@ -3782,16 +3811,16 @@
         <v>1010</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
@@ -3827,7 +3856,7 @@
         <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>97</v>
@@ -3890,7 +3919,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>97</v>
@@ -3908,7 +3937,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -3953,7 +3982,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>97</v>
@@ -3971,7 +4000,7 @@
         <v>1006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>83</v>
@@ -4016,7 +4045,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>64</v>
@@ -4040,7 +4069,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>113</v>
@@ -4103,7 +4132,7 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
         <v>111</v>
@@ -4163,13 +4192,13 @@
         <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -4190,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -4205,7 +4234,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>97</v>
@@ -4226,19 +4255,19 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4268,7 +4297,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="S12" t="s">
         <v>97</v>
@@ -4289,13 +4318,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -4331,7 +4360,7 @@
         <v>6</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>97</v>
@@ -4349,7 +4378,7 @@
         <v>2001</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -4394,7 +4423,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="S14" t="s">
         <v>97</v>
@@ -4412,16 +4441,16 @@
         <v>2001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -4457,7 +4486,7 @@
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>54</v>
@@ -4481,7 +4510,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>92</v>
@@ -4541,13 +4570,13 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -4583,7 +4612,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>97</v>
@@ -4604,19 +4633,19 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4646,7 +4675,7 @@
         <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="S18" t="s">
         <v>97</v>
@@ -4664,16 +4693,16 @@
         <v>3006</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -4709,7 +4738,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>97</v>
@@ -4727,7 +4756,7 @@
         <v>3001</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -4772,7 +4801,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>97</v>
@@ -4790,7 +4819,7 @@
         <v>3002</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>21</v>
@@ -4835,7 +4864,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>17</v>
@@ -4859,7 +4888,7 @@
         <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -4898,7 +4927,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s">
         <v>97</v>
@@ -4919,13 +4948,13 @@
         <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="G23" s="3">
         <v>4</v>
@@ -4961,7 +4990,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>97</v>
@@ -4982,13 +5011,13 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
         <v>133</v>
       </c>
-      <c r="E24" t="s">
-        <v>135</v>
-      </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -5024,7 +5053,7 @@
         <v>6</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S24" t="s">
         <v>97</v>
@@ -5033,31 +5062,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3050</v>
+        <v>3005</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5066,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -5086,8 +5115,8 @@
       <c r="Q25">
         <v>6</v>
       </c>
-      <c r="R25" t="s">
-        <v>187</v>
+      <c r="R25" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="S25" t="s">
         <v>97</v>
@@ -5096,94 +5125,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>3051</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="3">
-        <v>6</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="B26">
+        <v>3050</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
         <v>3</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
         <v>2</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>6</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26" t="s">
+        <v>184</v>
+      </c>
+      <c r="S26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>4010</v>
+        <v>3051</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="G27" s="3">
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -5201,10 +5230,10 @@
         <v>97</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
@@ -5212,8 +5241,8 @@
       <c r="Q27" s="3">
         <v>6</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>188</v>
+      <c r="R27" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>97</v>
@@ -5228,19 +5257,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G28" s="3">
         <v>6</v>
@@ -5276,7 +5305,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>97</v>
@@ -5285,130 +5314,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="29" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>4001</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3">
+        <v>4011</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
+      <c r="D29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="3">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>3</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="S29" t="s">
-        <v>97</v>
-      </c>
-      <c r="T29">
+      <c r="Q29" s="3">
+        <v>6</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T29" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
+    <row r="30" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <v>4002</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30">
+        <v>4001</v>
+      </c>
+      <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>3</v>
       </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>3</v>
-      </c>
-      <c r="P30" s="3">
+      <c r="P30">
         <v>100</v>
       </c>
-      <c r="Q30" s="3">
-        <v>6</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T30" s="3">
-        <v>1</v>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S30" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -5417,19 +5446,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -5465,7 +5494,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>24</v>
@@ -5480,19 +5509,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -5528,7 +5557,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>24</v>
@@ -5543,19 +5572,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -5591,7 +5620,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>24</v>
@@ -5612,13 +5641,13 @@
         <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5633,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -5654,7 +5683,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>24</v>
@@ -5675,13 +5704,13 @@
         <v>40</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -5717,7 +5746,7 @@
         <v>6</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>24</v>
@@ -5726,103 +5755,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36">
+    <row r="36" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>4003</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="3">
+        <v>4012</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36">
+      <c r="D36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
         <v>3</v>
       </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>97</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>3</v>
-      </c>
-      <c r="P36">
+      <c r="P36" s="3">
         <v>100</v>
       </c>
-      <c r="Q36">
-        <v>6</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S36" t="s">
-        <v>97</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
+      <c r="Q36" s="3">
+        <v>6</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T36" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>3</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5843,7 +5872,7 @@
         <v>6</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="S37" t="s">
         <v>97</v>
@@ -5852,31 +5881,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5885,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5906,7 +5935,7 @@
         <v>6</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="S38" t="s">
         <v>97</v>
@@ -5915,31 +5944,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5968,8 +5997,8 @@
       <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" t="s">
-        <v>106</v>
+      <c r="R39" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="S39" t="s">
         <v>97</v>
@@ -5984,19 +6013,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -6032,7 +6061,7 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S40" t="s">
         <v>97</v>
@@ -6053,13 +6082,13 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -6095,7 +6124,7 @@
         <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="S41" t="s">
         <v>97</v>
@@ -6110,19 +6139,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -6158,7 +6187,7 @@
         <v>6</v>
       </c>
       <c r="R42" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="S42" t="s">
         <v>97</v>
@@ -6173,19 +6202,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -6221,7 +6250,7 @@
         <v>6</v>
       </c>
       <c r="R43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S43" t="s">
         <v>97</v>
@@ -6230,31 +6259,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -6263,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -6283,8 +6312,8 @@
       <c r="Q44">
         <v>6</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>175</v>
+      <c r="R44" t="s">
+        <v>108</v>
       </c>
       <c r="S44" t="s">
         <v>97</v>
@@ -6293,31 +6322,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5004</v>
+        <v>4013</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" t="s">
         <v>172</v>
       </c>
-      <c r="F45" t="s">
-        <v>217</v>
-      </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6335,10 +6364,10 @@
         <v>97</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P45">
         <v>100</v>
@@ -6347,7 +6376,7 @@
         <v>6</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="S45" t="s">
         <v>97</v>
@@ -6362,25 +6391,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6389,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -6398,7 +6427,7 @@
         <v>97</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>4</v>
@@ -6410,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="S46" t="s">
         <v>97</v>
@@ -6419,66 +6448,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3">
+    <row r="47" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="3">
-        <v>5002</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47">
+        <v>5001</v>
+      </c>
+      <c r="C47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47">
         <v>100</v>
       </c>
-      <c r="Q47" s="3">
-        <v>6</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S47" t="s">
+        <v>97</v>
+      </c>
+      <c r="T47">
         <v>0</v>
       </c>
     </row>
@@ -6488,19 +6517,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G48" s="3">
         <v>6</v>
@@ -6536,7 +6565,7 @@
         <v>6</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>97</v>
@@ -6545,192 +6574,192 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49">
+    <row r="49" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>5005</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D49" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>6</v>
+      </c>
+      <c r="R49" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F49" t="s">
-        <v>235</v>
-      </c>
-      <c r="G49">
-        <v>6</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>97</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="P49">
-        <v>100</v>
-      </c>
-      <c r="Q49">
-        <v>6</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="S49" t="s">
-        <v>97</v>
-      </c>
-      <c r="T49">
+      <c r="S49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T49" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="7">
+    <row r="50" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="7">
-        <v>6001</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" s="7">
-        <v>6</v>
-      </c>
-      <c r="H50" s="7">
+      <c r="B50">
+        <v>5005</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50">
         <v>3</v>
       </c>
-      <c r="I50" s="7">
-        <v>9999</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>10</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="N50" s="7">
-        <v>1</v>
-      </c>
-      <c r="O50" s="7">
-        <v>5</v>
-      </c>
-      <c r="P50" s="7">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>97</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
         <v>100</v>
       </c>
-      <c r="Q50" s="7">
-        <v>6</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S50" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="T50" s="7">
+      <c r="Q50">
+        <v>6</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="S50" t="s">
+        <v>97</v>
+      </c>
+      <c r="T50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="8">
+    <row r="51" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="8">
-        <v>7001</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="8">
-        <v>6</v>
-      </c>
-      <c r="H51" s="8">
-        <v>15</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
-        <v>0</v>
-      </c>
-      <c r="K51" s="8">
-        <v>1</v>
-      </c>
-      <c r="L51" s="8">
-        <v>0</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="N51" s="8">
-        <v>1</v>
-      </c>
-      <c r="O51" s="8">
-        <v>6</v>
-      </c>
-      <c r="P51" s="8">
+      <c r="B51" s="7">
+        <v>6001</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="7">
+        <v>6</v>
+      </c>
+      <c r="H51" s="7">
+        <v>3</v>
+      </c>
+      <c r="I51" s="7">
+        <v>9999</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>10</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N51" s="7">
+        <v>1</v>
+      </c>
+      <c r="O51" s="7">
+        <v>5</v>
+      </c>
+      <c r="P51" s="7">
         <v>100</v>
       </c>
-      <c r="Q51" s="8">
-        <v>6</v>
-      </c>
-      <c r="R51" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S51" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T51" s="8">
+      <c r="Q51" s="7">
+        <v>6</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T51" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6740,25 +6769,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="8">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G52" s="8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H52" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I52" s="8">
         <v>0</v>
@@ -6788,7 +6817,7 @@
         <v>6</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S52" s="8" t="s">
         <v>97</v>
@@ -6803,25 +6832,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="8">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G53" s="8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H53" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I53" s="8">
         <v>0</v>
@@ -6842,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P53" s="8">
         <v>100</v>
@@ -6851,7 +6880,7 @@
         <v>6</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="S53" s="8" t="s">
         <v>97</v>
@@ -6866,25 +6895,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="8">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G54" s="8">
         <v>6</v>
       </c>
       <c r="H54" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I54" s="8">
         <v>0</v>
@@ -6914,7 +6943,7 @@
         <v>6</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S54" s="8" t="s">
         <v>97</v>
@@ -6923,154 +6952,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3">
+    <row r="55" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="3">
-        <v>9001</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G55" s="3">
-        <v>2</v>
-      </c>
-      <c r="H55" s="3">
-        <v>2</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
-        <v>10</v>
-      </c>
-      <c r="L55" s="3">
-        <v>0</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N55" s="3">
-        <v>1</v>
-      </c>
-      <c r="O55" s="3">
+      <c r="B55" s="8">
+        <v>8002</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="8">
+        <v>6</v>
+      </c>
+      <c r="H55" s="8">
         <v>8</v>
       </c>
-      <c r="P55" s="3">
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>1</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N55" s="8">
+        <v>1</v>
+      </c>
+      <c r="O55" s="8">
+        <v>7</v>
+      </c>
+      <c r="P55" s="8">
         <v>100</v>
       </c>
-      <c r="Q55" s="3">
-        <v>6</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T55" s="3">
+      <c r="Q55" s="8">
+        <v>6</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T55" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56">
+    <row r="56" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>9002</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="3">
+        <v>9001</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56">
-        <v>6</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
+      <c r="D56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
         <v>10</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
-        <v>97</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3">
         <v>8</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="3">
         <v>100</v>
       </c>
-      <c r="Q56">
-        <v>6</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="S56" t="s">
-        <v>97</v>
-      </c>
-      <c r="T56">
+      <c r="Q56" s="3">
+        <v>6</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T56" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -7082,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -7103,7 +7132,7 @@
         <v>6</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="S57" t="s">
         <v>97</v>
@@ -7112,66 +7141,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="3">
+    <row r="58" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
+        <v>9004</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>97</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>8</v>
+      </c>
+      <c r="P58">
+        <v>100</v>
+      </c>
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S58" t="s">
+        <v>97</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
         <v>9003</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="E59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="3">
-        <v>6</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="G59" s="3">
+        <v>6</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>6</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="Q59" s="3">
+        <v>6</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T59" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1600AA-F077-4148-90F0-B5920EB41F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C94A0-3B55-4383-B9DC-AD3FBCBFD16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="540" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3225" yWindow="1875" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1675,38 +1675,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ケーキの見た目をきれいに仕上げる。
-クリームをきれいにぬる技術のこと。
-LVがあがると、きれいにクリームを塗れて、見た目がよくなる。
-LV1: なめらかさ+15
-LV2: なめらかさ+30
-LV3: なめらかさ+45
-LV4: なめらかさ+60
-LV5: なめらかさ+75</t>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ハンドミキサーに風の力を加えて、より生地に空気を含ませる。
 風の力が加わった状態のミキサーは、「ウィンドミキサー」状態になる。
 調合の際に、ウィンドミキサーを選択することで、効果が発動する。</t>
@@ -3101,6 +3069,60 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキの見た目をきれいに仕上げる。
+クリームをきれいにぬる技術のこと。
+クリームを塗る工程の際に、成功率を少し上げる。
+LVがあがると、きれいにクリームを塗れて、見た目がよくなる。
+LV1: なめらかさ+15, 成功率+3%
+LV2: なめらかさ+30, 成功率+6%
+LV3: なめらかさ+45, 成功率+9%
+LV4: なめらかさ+60, 成功率+12%
+LV5: なめらかさ+75, 成功率+15%</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="108" eb="111">
+      <t>セイコウリツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3532,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3817,7 +3839,7 @@
         <v>175</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>159</v>
@@ -3982,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>97</v>
@@ -4045,7 +4067,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>64</v>
@@ -4069,7 +4091,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>113</v>
@@ -4132,7 +4154,7 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
         <v>111</v>
@@ -4198,7 +4220,7 @@
         <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -4234,7 +4256,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>97</v>
@@ -4255,13 +4277,13 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -4297,7 +4319,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S12" t="s">
         <v>97</v>
@@ -4423,7 +4445,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S14" t="s">
         <v>97</v>
@@ -4444,13 +4466,13 @@
         <v>153</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -4486,7 +4508,7 @@
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>54</v>
@@ -4510,7 +4532,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>92</v>
@@ -4633,13 +4655,13 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4675,7 +4697,7 @@
         <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S18" t="s">
         <v>97</v>
@@ -4888,7 +4910,7 @@
         <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -4927,7 +4949,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S22" t="s">
         <v>97</v>
@@ -4990,7 +5012,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>97</v>
@@ -5074,13 +5096,13 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" t="s">
         <v>251</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>252</v>
-      </c>
-      <c r="F25" t="s">
-        <v>253</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -5116,7 +5138,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S25" t="s">
         <v>97</v>
@@ -5305,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>97</v>
@@ -5329,7 +5351,7 @@
         <v>165</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>166</v>
@@ -5395,7 +5417,7 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -5431,7 +5453,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S30" t="s">
         <v>97</v>
@@ -5458,7 +5480,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -5494,7 +5516,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>24</v>
@@ -5521,7 +5543,7 @@
         <v>137</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -5557,7 +5579,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>24</v>
@@ -5578,13 +5600,13 @@
         <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -5620,7 +5642,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>24</v>
@@ -5641,13 +5663,13 @@
         <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5683,7 +5705,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>24</v>
@@ -5704,13 +5726,13 @@
         <v>40</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -5746,7 +5768,7 @@
         <v>6</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>24</v>
@@ -5767,13 +5789,13 @@
         <v>40</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -5809,7 +5831,7 @@
         <v>6</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>24</v>
@@ -5935,7 +5957,7 @@
         <v>6</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S38" t="s">
         <v>97</v>
@@ -5998,7 +6020,7 @@
         <v>6</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S39" t="s">
         <v>97</v>
@@ -6022,7 +6044,7 @@
         <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F40" t="s">
         <v>106</v>
@@ -6145,13 +6167,13 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" t="s">
         <v>225</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>226</v>
-      </c>
-      <c r="F42" t="s">
-        <v>227</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -6187,7 +6209,7 @@
         <v>6</v>
       </c>
       <c r="R42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S42" t="s">
         <v>97</v>
@@ -6337,7 +6359,7 @@
         <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F45" t="s">
         <v>172</v>
@@ -6403,7 +6425,7 @@
         <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -6439,7 +6461,7 @@
         <v>6</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S46" t="s">
         <v>97</v>
@@ -6565,7 +6587,7 @@
         <v>6</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>97</v>
@@ -6589,7 +6611,7 @@
         <v>149</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>148</v>
@@ -6628,7 +6650,7 @@
         <v>6</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>97</v>
@@ -6649,13 +6671,13 @@
         <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G50">
         <v>6</v>
@@ -6691,7 +6713,7 @@
         <v>6</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S50" t="s">
         <v>97</v>
@@ -7069,7 +7091,7 @@
         <v>6</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>97</v>
@@ -7132,7 +7154,7 @@
         <v>6</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S57" t="s">
         <v>97</v>
@@ -7195,7 +7217,7 @@
         <v>6</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S58" t="s">
         <v>97</v>
@@ -7258,7 +7280,7 @@
         <v>6</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>97</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C94A0-3B55-4383-B9DC-AD3FBCBFD16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB64698-00FD-4F3E-9558-B0D07A43D1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1875" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2160" yWindow="1275" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="258">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -2950,27 +2950,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>シルフの召喚</t>
-    <rPh sb="4" eb="6">
-      <t>ショウカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウンディーネの召喚</t>
-    <rPh sb="7" eb="9">
-      <t>ショウカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>イフリートの召喚</t>
-    <rPh sb="6" eb="8">
-      <t>ショウカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>特定のお菓子に生命を吹き込むことで、動くお菓子にする。
 ツイスターチョコレート　→　うねうねと生きた動きをするチョコレート
 動物のお菓子　→　動くどうぶつたちのお菓子</t>
@@ -3124,6 +3103,78 @@
     <rPh sb="108" eb="111">
       <t>セイコウリツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雨の力で、ベリーやジュースに虹色を加える。</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニジイロ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雨の力を借りて、ベリーやジュースに、虹色の力を与える。
+与えられたベリーやジュースは、虹色になる。
+また、不思議な味わいになる。</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニジイロ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニジイロ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レインボー・レイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rainbow_Rain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サラマンダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウンディーネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シルフェイド</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3552,10 +3603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3637,7 +3688,7 @@
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A59" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A60" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -4280,7 +4331,7 @@
         <v>232</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F12" t="s">
         <v>234</v>
@@ -4658,7 +4709,7 @@
         <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
         <v>233</v>
@@ -5096,13 +5147,13 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -5138,7 +5189,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S25" t="s">
         <v>97</v>
@@ -5147,94 +5198,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="26" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>3050</v>
-      </c>
-      <c r="C26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
+      <c r="B26" s="3">
+        <v>4010</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-      <c r="R26" t="s">
-        <v>184</v>
-      </c>
-      <c r="S26" t="s">
-        <v>97</v>
-      </c>
-      <c r="T26">
+      <c r="Q26" s="3">
+        <v>6</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>3051</v>
+        <v>4011</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="G27" s="3">
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -5252,10 +5303,10 @@
         <v>97</v>
       </c>
       <c r="N27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
@@ -5263,8 +5314,8 @@
       <c r="Q27" s="3">
         <v>6</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>99</v>
+      <c r="R27" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>97</v>
@@ -5273,94 +5324,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>4010</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28">
+        <v>4001</v>
+      </c>
+      <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="3">
-        <v>6</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>5</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
         <v>3</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28">
         <v>100</v>
       </c>
-      <c r="Q28" s="3">
-        <v>6</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T28" s="3">
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="S28" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>4011</v>
+        <v>4002</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="G29" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -5369,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -5378,7 +5429,7 @@
         <v>97</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="3">
         <v>3</v>
@@ -5390,76 +5441,76 @@
         <v>6</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="T29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="30" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>4001</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="3">
+        <v>4010</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>3</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>3</v>
+      </c>
+      <c r="P30" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>6</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>249</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>97</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30">
-        <v>100</v>
-      </c>
-      <c r="Q30">
-        <v>6</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="S30" t="s">
-        <v>97</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
+      <c r="T30" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -5468,19 +5519,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>4002</v>
+        <v>4011</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -5516,7 +5567,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>24</v>
@@ -5531,19 +5582,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>4010</v>
+        <v>4012</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -5579,7 +5630,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>24</v>
@@ -5594,19 +5645,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -5621,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -5642,7 +5693,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>24</v>
@@ -5663,13 +5714,13 @@
         <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5684,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -5705,7 +5756,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>24</v>
@@ -5714,157 +5765,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
+    <row r="35" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3">
-        <v>4012</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35">
+        <v>4003</v>
+      </c>
+      <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>3</v>
       </c>
-      <c r="P35" s="3">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>6</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1</v>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S35" t="s">
+        <v>97</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3">
+    <row r="36" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="3">
-        <v>4012</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36">
+        <v>4004</v>
+      </c>
+      <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N36" s="3">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3">
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="P36" s="3">
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
         <v>100</v>
       </c>
-      <c r="Q36" s="3">
-        <v>6</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T36" s="3">
-        <v>1</v>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S36" t="s">
+        <v>97</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4003</v>
+        <v>4005</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5894,7 +5945,7 @@
         <v>6</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="S37" t="s">
         <v>97</v>
@@ -5903,25 +5954,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -5936,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5956,8 +6007,8 @@
       <c r="Q38">
         <v>6</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>217</v>
+      <c r="R38" t="s">
+        <v>106</v>
       </c>
       <c r="S38" t="s">
         <v>97</v>
@@ -5966,31 +6017,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -6019,8 +6070,8 @@
       <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>185</v>
+      <c r="R39" t="s">
+        <v>107</v>
       </c>
       <c r="S39" t="s">
         <v>97</v>
@@ -6035,19 +6086,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -6083,7 +6134,7 @@
         <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="S40" t="s">
         <v>97</v>
@@ -6098,19 +6149,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -6146,7 +6197,7 @@
         <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S41" t="s">
         <v>97</v>
@@ -6161,19 +6212,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -6209,7 +6260,7 @@
         <v>6</v>
       </c>
       <c r="R42" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="S42" t="s">
         <v>97</v>
@@ -6218,31 +6269,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4008</v>
+        <v>4013</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -6251,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -6271,8 +6322,8 @@
       <c r="Q43">
         <v>6</v>
       </c>
-      <c r="R43" t="s">
-        <v>109</v>
+      <c r="R43" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="S43" t="s">
         <v>97</v>
@@ -6281,31 +6332,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4009</v>
+        <v>5004</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -6314,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -6323,10 +6374,10 @@
         <v>97</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P44">
         <v>100</v>
@@ -6334,8 +6385,8 @@
       <c r="Q44">
         <v>6</v>
       </c>
-      <c r="R44" t="s">
-        <v>108</v>
+      <c r="R44" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="S44" t="s">
         <v>97</v>
@@ -6344,31 +6395,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4013</v>
+        <v>5001</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6377,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -6389,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P45">
         <v>100</v>
@@ -6398,7 +6449,7 @@
         <v>6</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="S45" t="s">
         <v>97</v>
@@ -6407,444 +6458,444 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46">
+    <row r="46" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>5004</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="3">
+        <v>5002</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D46" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" t="s">
-        <v>170</v>
-      </c>
-      <c r="F46" t="s">
-        <v>213</v>
-      </c>
-      <c r="G46">
-        <v>6</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>97</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
+      <c r="D46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="3">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
         <v>4</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46">
-        <v>6</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="S46" t="s">
-        <v>97</v>
-      </c>
-      <c r="T46">
+      <c r="Q46" s="3">
+        <v>6</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T46" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47">
+    <row r="47" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>5001</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" t="s">
-        <v>142</v>
-      </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="D47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3">
         <v>3</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>97</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
         <v>4</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47">
-        <v>6</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="S47" t="s">
-        <v>97</v>
-      </c>
-      <c r="T47">
+      <c r="Q47" s="3">
+        <v>6</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T47" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3">
+    <row r="48" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="3">
-        <v>5002</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48">
+        <v>5005</v>
+      </c>
+      <c r="C48" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="D48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
-        <v>6</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="S48" t="s">
+        <v>97</v>
+      </c>
+      <c r="T48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="3">
+    <row r="49" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49">
+        <v>5006</v>
+      </c>
+      <c r="C49" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
         <v>3</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49">
         <v>100</v>
       </c>
-      <c r="Q49" s="3">
-        <v>6</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="S49" t="s">
+        <v>97</v>
+      </c>
+      <c r="T49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50">
+    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>5005</v>
-      </c>
-      <c r="C50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" t="s">
-        <v>230</v>
-      </c>
-      <c r="E50" t="s">
-        <v>229</v>
-      </c>
-      <c r="F50" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50">
-        <v>6</v>
-      </c>
-      <c r="H50">
+      <c r="B50" s="7">
+        <v>6001</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="7">
+        <v>6</v>
+      </c>
+      <c r="H50" s="7">
         <v>3</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>3</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50" t="s">
-        <v>97</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
-      <c r="P50">
+      <c r="I50" s="7">
+        <v>9999</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>10</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1</v>
+      </c>
+      <c r="O50" s="7">
+        <v>5</v>
+      </c>
+      <c r="P50" s="7">
         <v>100</v>
       </c>
-      <c r="Q50">
-        <v>6</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="S50" t="s">
-        <v>97</v>
-      </c>
-      <c r="T50">
+      <c r="Q50" s="7">
+        <v>6</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T50" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="7">
+    <row r="51" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="7">
-        <v>6001</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="3">
+        <v>6002</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="7">
-        <v>6</v>
-      </c>
-      <c r="H51" s="7">
+      <c r="D51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="3">
+        <v>6</v>
+      </c>
+      <c r="H51" s="3">
         <v>3</v>
       </c>
-      <c r="I51" s="7">
-        <v>9999</v>
-      </c>
-      <c r="J51" s="7">
-        <v>0</v>
-      </c>
-      <c r="K51" s="7">
-        <v>10</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="N51" s="7">
-        <v>1</v>
-      </c>
-      <c r="O51" s="7">
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
         <v>5</v>
       </c>
-      <c r="P51" s="7">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
+        <v>5</v>
+      </c>
+      <c r="P51" s="3">
         <v>100</v>
       </c>
-      <c r="Q51" s="7">
-        <v>6</v>
-      </c>
-      <c r="R51" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="T51" s="7">
+      <c r="Q51" s="3">
+        <v>6</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T51" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="8">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="8">
-        <v>7001</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="8">
-        <v>6</v>
-      </c>
-      <c r="H52" s="8">
-        <v>15</v>
-      </c>
-      <c r="I52" s="8">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0</v>
-      </c>
-      <c r="K52" s="8">
-        <v>1</v>
-      </c>
-      <c r="L52" s="8">
-        <v>0</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="N52" s="8">
-        <v>1</v>
-      </c>
-      <c r="O52" s="8">
-        <v>6</v>
-      </c>
-      <c r="P52" s="8">
+      <c r="B52">
+        <v>6003</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>97</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52">
         <v>100</v>
       </c>
-      <c r="Q52" s="8">
-        <v>6</v>
-      </c>
-      <c r="R52" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S52" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T52" s="8">
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52" t="s">
+        <v>184</v>
+      </c>
+      <c r="S52" t="s">
+        <v>97</v>
+      </c>
+      <c r="T52">
         <v>0</v>
       </c>
     </row>
@@ -6854,25 +6905,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="8">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H53" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I53" s="8">
         <v>0</v>
@@ -6902,7 +6953,7 @@
         <v>6</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S53" s="8" t="s">
         <v>97</v>
@@ -6917,25 +6968,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="8">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G54" s="8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H54" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I54" s="8">
         <v>0</v>
@@ -6956,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P54" s="8">
         <v>100</v>
@@ -6965,7 +7016,7 @@
         <v>6</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="S54" s="8" t="s">
         <v>97</v>
@@ -6980,25 +7031,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="8">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G55" s="8">
         <v>6</v>
       </c>
       <c r="H55" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I55" s="8">
         <v>0</v>
@@ -7028,7 +7079,7 @@
         <v>6</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S55" s="8" t="s">
         <v>97</v>
@@ -7037,154 +7088,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3">
+    <row r="56" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="3">
-        <v>9001</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56" s="3">
-        <v>2</v>
-      </c>
-      <c r="H56" s="3">
-        <v>2</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3">
-        <v>10</v>
-      </c>
-      <c r="L56" s="3">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="N56" s="3">
-        <v>1</v>
-      </c>
-      <c r="O56" s="3">
+      <c r="B56" s="8">
+        <v>8002</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="8">
+        <v>6</v>
+      </c>
+      <c r="H56" s="8">
         <v>8</v>
       </c>
-      <c r="P56" s="3">
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N56" s="8">
+        <v>1</v>
+      </c>
+      <c r="O56" s="8">
+        <v>7</v>
+      </c>
+      <c r="P56" s="8">
         <v>100</v>
       </c>
-      <c r="Q56" s="3">
-        <v>6</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T56" s="3">
+      <c r="Q56" s="8">
+        <v>6</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T56" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57">
+    <row r="57" spans="1:20" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>9002</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="3">
+        <v>9001</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D57" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57">
-        <v>6</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
+      <c r="D57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>10</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>97</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
         <v>8</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57">
-        <v>6</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="S57" t="s">
-        <v>97</v>
-      </c>
-      <c r="T57">
+      <c r="Q57" s="3">
+        <v>6</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T57" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E58" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -7196,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -7217,7 +7268,7 @@
         <v>6</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="S58" t="s">
         <v>97</v>
@@ -7226,66 +7277,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="3">
+    <row r="59" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
+        <v>9004</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>97</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>8</v>
+      </c>
+      <c r="P59">
+        <v>100</v>
+      </c>
+      <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="S59" t="s">
+        <v>97</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
         <v>9003</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="3">
-        <v>6</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="G60" s="3">
+        <v>6</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>6</v>
-      </c>
-      <c r="R59" s="4" t="s">
+      <c r="Q60" s="3">
+        <v>6</v>
+      </c>
+      <c r="R60" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="S60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T60" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB64698-00FD-4F3E-9558-B0D07A43D1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29334092-36A4-47B3-B063-2AB3512F0AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1275" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -3605,8 +3605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29334092-36A4-47B3-B063-2AB3512F0AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B965B9D-AB2B-4162-AC73-C0D8649045C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1275" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1815" yWindow="930" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="260">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -791,29 +791,6 @@
     <t>カカオマスの温度調整をし、なめらかにする。</t>
     <rPh sb="6" eb="10">
       <t>オンドチョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カカオマスの温度調整をし、なめらかにする。
-温度調節はかなり繊細な作業なので、慎重に。</t>
-    <rPh sb="6" eb="10">
-      <t>オンドチョウセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>チョウセツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>センサイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シンチョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2096,54 +2073,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>星について勉強する。
-LVが上がるにつれて、星魔法の効果をアップする。
-星魔法を使う際、出来上がるお菓子の食感・見た目が底上げされる。</t>
-    <rPh sb="0" eb="1">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ホシマホウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ホシマホウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ソコア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2890,10 +2819,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ルミナス・バタフライ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>光で作ったちょうちょや葉っぱを飛ばす
 お菓子をさらにかわいく演出できる。
 特定のお菓子でないと、効果が発動しない。
@@ -3122,9 +3047,135 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>レインボー・レイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rainbow_Rain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サラマンダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウンディーネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シルフェイド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カカオマスの温度調整をし、なめらかにする。
+温度調節はかなり繊細な作業なので、慎重に。
+３つゲージがでてきて、
+各ゲージを赤い点になるべく近づけてストップ。</t>
+    <rPh sb="6" eb="10">
+      <t>オンドチョウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウセツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センサイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラボー先生を呼び出し、手伝ってもらう。
+ヒカリの周りをうろちょろする。</t>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テツダ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バタフライ・ルミネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星について勉強する。
+LVが上がるにつれて、星魔法の効果をアップする。
+星魔法を使ったときの、お菓子の食感・見た目が底上げされる。</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホシマホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ホシマホウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>雨の力を借りて、ベリーやジュースに、虹色の力を与える。
-与えられたベリーやジュースは、虹色になる。
-また、不思議な味わいになる。</t>
+与えられたベリーやジュースは、虹色になる。</t>
     <rPh sb="0" eb="1">
       <t>アメ</t>
     </rPh>
@@ -3149,32 +3200,6 @@
     <rPh sb="44" eb="46">
       <t>ニジイロ</t>
     </rPh>
-    <rPh sb="54" eb="57">
-      <t>フシギ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レインボー・レイン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Rainbow_Rain</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サラマンダー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウンディーネ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シルフェイド</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3605,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3680,10 +3705,10 @@
         <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3701,7 +3726,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -3740,7 +3765,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>97</v>
@@ -3758,16 +3783,16 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
@@ -3803,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>97</v>
@@ -3827,7 +3852,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>86</v>
@@ -3866,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>97</v>
@@ -3884,16 +3909,16 @@
         <v>1010</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
@@ -3929,7 +3954,7 @@
         <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>97</v>
@@ -3992,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>97</v>
@@ -4010,7 +4035,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -4055,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>97</v>
@@ -4073,7 +4098,7 @@
         <v>1006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>83</v>
@@ -4118,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>64</v>
@@ -4142,10 +4167,10 @@
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="7">
         <v>6</v>
@@ -4181,7 +4206,7 @@
         <v>6</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>97</v>
@@ -4205,7 +4230,7 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
         <v>111</v>
@@ -4244,7 +4269,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="S10" t="s">
         <v>83</v>
@@ -4265,13 +4290,13 @@
         <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -4292,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -4307,7 +4332,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>97</v>
@@ -4328,13 +4353,13 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" t="s">
         <v>232</v>
-      </c>
-      <c r="E12" t="s">
-        <v>255</v>
-      </c>
-      <c r="F12" t="s">
-        <v>234</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -4370,7 +4395,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S12" t="s">
         <v>97</v>
@@ -4391,13 +4416,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -4433,7 +4458,7 @@
         <v>6</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>97</v>
@@ -4442,66 +4467,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2001</v>
       </c>
-      <c r="C14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="S14" t="s">
-        <v>97</v>
-      </c>
-      <c r="T14">
+      <c r="Q14" s="3">
+        <v>6</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4514,22 +4539,22 @@
         <v>2001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -4559,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>54</v>
@@ -4583,7 +4608,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>92</v>
@@ -4643,13 +4668,13 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -4685,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>97</v>
@@ -4706,13 +4731,13 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" t="s">
         <v>231</v>
-      </c>
-      <c r="E18" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" t="s">
-        <v>233</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4748,7 +4773,7 @@
         <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S18" t="s">
         <v>97</v>
@@ -4766,16 +4791,16 @@
         <v>3006</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -4811,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>97</v>
@@ -4829,7 +4854,7 @@
         <v>3001</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -4874,7 +4899,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>97</v>
@@ -4892,7 +4917,7 @@
         <v>3002</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>21</v>
@@ -4937,7 +4962,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>17</v>
@@ -4946,66 +4971,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22">
+    <row r="22" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>3003</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" t="s">
-        <v>241</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>4</v>
       </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="H22" s="3">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>3</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
         <v>2</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="S22" t="s">
-        <v>97</v>
-      </c>
-      <c r="T22">
+      <c r="Q22" s="3">
+        <v>6</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T22" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5021,13 +5046,13 @@
         <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="G23" s="3">
         <v>4</v>
@@ -5063,7 +5088,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>97</v>
@@ -5084,13 +5109,13 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -5126,7 +5151,7 @@
         <v>6</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S24" t="s">
         <v>97</v>
@@ -5147,13 +5172,13 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -5189,7 +5214,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="S25" t="s">
         <v>97</v>
@@ -5210,13 +5235,13 @@
         <v>40</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="G26" s="3">
         <v>6</v>
@@ -5252,7 +5277,7 @@
         <v>6</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>97</v>
@@ -5273,13 +5298,13 @@
         <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="G27" s="3">
         <v>6</v>
@@ -5315,7 +5340,7 @@
         <v>6</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>97</v>
@@ -5324,66 +5349,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="28" spans="1:20" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>4001</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28">
+      <c r="F28" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
         <v>3</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>100</v>
       </c>
-      <c r="Q28">
-        <v>6</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="S28" t="s">
-        <v>97</v>
-      </c>
-      <c r="T28">
+      <c r="Q28" s="3">
+        <v>6</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5405,7 +5430,7 @@
         <v>23</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -5441,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -5462,13 +5487,13 @@
         <v>40</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -5504,7 +5529,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>24</v>
@@ -5525,13 +5550,13 @@
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -5567,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>24</v>
@@ -5588,13 +5613,13 @@
         <v>40</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -5630,7 +5655,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>24</v>
@@ -5651,13 +5676,13 @@
         <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -5693,7 +5718,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>24</v>
@@ -5714,13 +5739,13 @@
         <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5756,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>24</v>
@@ -5765,129 +5790,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35">
+    <row r="35" spans="1:20" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>4003</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>2</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>3</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>97</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
         <v>3</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35">
-        <v>6</v>
-      </c>
-      <c r="R35" s="2" t="s">
+      <c r="Q35" s="3">
+        <v>6</v>
+      </c>
+      <c r="R35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S35" t="s">
-        <v>97</v>
-      </c>
-      <c r="T35">
+      <c r="S35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36">
+    <row r="36" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>4004</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>3</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>97</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
         <v>3</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="3">
         <v>100</v>
       </c>
-      <c r="Q36">
-        <v>6</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="S36" t="s">
-        <v>97</v>
-      </c>
-      <c r="T36">
+      <c r="Q36" s="3">
+        <v>6</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T36" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5945,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S37" t="s">
         <v>97</v>
@@ -5954,318 +5979,318 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A38">
+    <row r="38" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>4006</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E38" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>3</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
         <v>3</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>97</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
         <v>3</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="3">
         <v>100</v>
       </c>
-      <c r="Q38">
-        <v>6</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="Q38" s="3">
+        <v>6</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="S38" t="s">
-        <v>97</v>
-      </c>
-      <c r="T38">
+      <c r="S38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A39">
+    <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>4007</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>3</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
         <v>3</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>97</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
         <v>3</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="3">
         <v>100</v>
       </c>
-      <c r="Q39">
-        <v>6</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="Q39" s="3">
+        <v>6</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S39" t="s">
-        <v>97</v>
-      </c>
-      <c r="T39">
+      <c r="S39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A40">
+    <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>4007</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>3</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
         <v>3</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
         <v>3</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="3">
         <v>100</v>
       </c>
-      <c r="Q40">
-        <v>6</v>
-      </c>
-      <c r="R40" t="s">
-        <v>226</v>
-      </c>
-      <c r="S40" t="s">
-        <v>97</v>
-      </c>
-      <c r="T40">
+      <c r="Q40" s="3">
+        <v>6</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A41">
+    <row r="41" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>4008</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>3</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>3</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>3</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>97</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
         <v>3</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41">
-        <v>6</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="Q41" s="3">
+        <v>6</v>
+      </c>
+      <c r="R41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="S41" t="s">
-        <v>97</v>
-      </c>
-      <c r="T41">
+      <c r="S41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A42">
+    <row r="42" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>4009</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D42" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>3</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>3</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>3</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>97</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
         <v>3</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="3">
         <v>100</v>
       </c>
-      <c r="Q42">
-        <v>6</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="Q42" s="3">
+        <v>6</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="S42" t="s">
-        <v>97</v>
-      </c>
-      <c r="T42">
+      <c r="S42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T42" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6281,13 +6306,13 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -6323,7 +6348,7 @@
         <v>6</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S43" t="s">
         <v>97</v>
@@ -6344,13 +6369,13 @@
         <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -6386,7 +6411,7 @@
         <v>6</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="S44" t="s">
         <v>97</v>
@@ -6395,66 +6420,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45">
+    <row r="45" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>5001</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>6</v>
+      </c>
+      <c r="R45" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G45">
-        <v>6</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>3</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" t="s">
-        <v>97</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
-      <c r="P45">
-        <v>100</v>
-      </c>
-      <c r="Q45">
-        <v>6</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="S45" t="s">
-        <v>97</v>
-      </c>
-      <c r="T45">
+      <c r="S45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T45" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6470,13 +6495,13 @@
         <v>69</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="G46" s="3">
         <v>6</v>
@@ -6512,7 +6537,7 @@
         <v>6</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>97</v>
@@ -6533,13 +6558,13 @@
         <v>69</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G47" s="3">
         <v>6</v>
@@ -6575,7 +6600,7 @@
         <v>6</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>97</v>
@@ -6584,129 +6609,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48">
+    <row r="48" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>5005</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D48" t="s">
-        <v>230</v>
-      </c>
-      <c r="E48" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D48" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-      <c r="H48">
+      <c r="E48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3">
         <v>3</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>3</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
         <v>4</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48">
-        <v>6</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="S48" t="s">
-        <v>97</v>
-      </c>
-      <c r="T48">
+      <c r="Q48" s="3">
+        <v>6</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T48" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49">
+    <row r="49" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>5006</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D49" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" t="s">
-        <v>251</v>
-      </c>
-      <c r="G49">
-        <v>6</v>
-      </c>
-      <c r="H49">
+      <c r="D49" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6</v>
+      </c>
+      <c r="H49" s="3">
         <v>3</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>97</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3">
         <v>4</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49">
-        <v>6</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="S49" t="s">
-        <v>97</v>
-      </c>
-      <c r="T49">
+      <c r="Q49" s="3">
+        <v>6</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T49" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6722,10 +6747,10 @@
         <v>68</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>44</v>
@@ -6845,7 +6870,7 @@
         <v>6003</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -6890,7 +6915,7 @@
         <v>6</v>
       </c>
       <c r="R52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S52" t="s">
         <v>97</v>
@@ -7190,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N57" s="3">
         <v>1</v>
@@ -7205,7 +7230,7 @@
         <v>6</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>97</v>
@@ -7214,66 +7239,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58">
+    <row r="58" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>9002</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G58">
-        <v>6</v>
-      </c>
-      <c r="H58">
+      <c r="G58" s="3">
+        <v>6</v>
+      </c>
+      <c r="H58" s="3">
         <v>5</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>10</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
-        <v>97</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
         <v>8</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58">
-        <v>6</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="S58" t="s">
-        <v>97</v>
-      </c>
-      <c r="T58">
+      <c r="Q58" s="3">
+        <v>6</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T58" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7331,7 +7356,7 @@
         <v>6</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S59" t="s">
         <v>97</v>
@@ -7352,10 +7377,10 @@
         <v>71</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>94</v>
@@ -7394,7 +7419,7 @@
         <v>6</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>97</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B965B9D-AB2B-4162-AC73-C0D8649045C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A11F91-53A9-4C43-A984-1CEB2534E1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="930" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2265" yWindow="765" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,74 +1491,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>シュガーを光らせる
-レベルをあげると、成功しやすくなる。
-また、見た目が上昇する。
-LV1: +10%成功Up
-LV2: +20%成功Up
-LV3: +30%成功Up
-LV4: +40%成功Up
-LV5: +50%成功Up
-派生：
-LV３で、ルミナスフルーツの習得可</t>
-    <rPh sb="5" eb="6">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジョウショウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ハセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特定のフルーツを光らせる
-小さいもの、つぶつぶしたフルーツのみ光らせることができる。
-大き目のフルーツは光らない。
-レベルをあげると、成功しやすくなる。
-また、見た目が上昇する。
-LV1: +10%成功Up
-LV2: +20%成功Up
-LV3: +30%成功Up
-LV4: +40%成功Up
-LV5: +50%成功Up</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ヒカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>様々な液体を固めて、
 不思議なシュガーを作り出す。
 ラベンダーポーション　→　ラベンダーシュガー
@@ -3199,6 +3131,74 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>ニジイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュガーを光らせる
+レベルをあげると、成功しやすくなる。
+また、見た目が上昇する。
+LV1: +5%成功Up
+LV2: +10%成功Up
+LV3: +15%成功Up
+LV4: +20%成功Up
+LV5: +25%成功Up
+派生：
+LV３で、ルミナスフルーツの習得可</t>
+    <rPh sb="5" eb="6">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ハセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のフルーツを光らせる
+小さいもの、つぶつぶしたフルーツのみ光らせることができる。
+大き目のフルーツは光らない。
+レベルをあげると、成功しやすくなる。
+また、見た目が上昇する。
+LV1: +5%成功Up
+LV2: +10%成功Up
+LV3: +15%成功Up
+LV4: +20%成功Up
+LV5: +25%成功Up</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3630,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3915,7 +3915,7 @@
         <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>158</v>
@@ -4080,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>97</v>
@@ -4143,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>64</v>
@@ -4167,7 +4167,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>112</v>
@@ -4230,7 +4230,7 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
         <v>111</v>
@@ -4269,7 +4269,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S10" t="s">
         <v>83</v>
@@ -4296,7 +4296,7 @@
         <v>140</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -4332,7 +4332,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>97</v>
@@ -4353,13 +4353,13 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" t="s">
         <v>230</v>
-      </c>
-      <c r="E12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F12" t="s">
-        <v>232</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -4395,7 +4395,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S12" t="s">
         <v>97</v>
@@ -4458,7 +4458,7 @@
         <v>6</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>97</v>
@@ -4521,7 +4521,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>97</v>
@@ -4542,13 +4542,13 @@
         <v>152</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -4584,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>54</v>
@@ -4608,7 +4608,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>92</v>
@@ -4710,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>97</v>
@@ -4731,13 +4731,13 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" t="s">
         <v>229</v>
-      </c>
-      <c r="E18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" t="s">
-        <v>231</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4773,7 +4773,7 @@
         <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S18" t="s">
         <v>97</v>
@@ -4899,7 +4899,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>97</v>
@@ -4962,7 +4962,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>17</v>
@@ -4986,7 +4986,7 @@
         <v>113</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>75</v>
@@ -5025,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>97</v>
@@ -5088,7 +5088,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>97</v>
@@ -5172,13 +5172,13 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" t="s">
         <v>244</v>
-      </c>
-      <c r="E25" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" t="s">
-        <v>246</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -5214,7 +5214,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="S25" t="s">
         <v>97</v>
@@ -5277,7 +5277,7 @@
         <v>6</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>97</v>
@@ -5301,7 +5301,7 @@
         <v>164</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>165</v>
@@ -5367,7 +5367,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G28" s="3">
         <v>6</v>
@@ -5403,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>97</v>
@@ -5430,7 +5430,7 @@
         <v>23</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -5466,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -5493,7 +5493,7 @@
         <v>136</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>24</v>
@@ -5550,13 +5550,13 @@
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -5592,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>24</v>
@@ -5613,13 +5613,13 @@
         <v>40</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -5655,7 +5655,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>24</v>
@@ -5676,13 +5676,13 @@
         <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -5718,7 +5718,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>24</v>
@@ -5739,13 +5739,13 @@
         <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5781,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>24</v>
@@ -5907,7 +5907,7 @@
         <v>6</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>97</v>
@@ -5970,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S37" t="s">
         <v>97</v>
@@ -5994,7 +5994,7 @@
         <v>73</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>106</v>
@@ -6117,13 +6117,13 @@
         <v>40</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="G40" s="3">
         <v>3</v>
@@ -6159,7 +6159,7 @@
         <v>6</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>97</v>
@@ -6309,7 +6309,7 @@
         <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F43" t="s">
         <v>171</v>
@@ -6375,7 +6375,7 @@
         <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -6411,7 +6411,7 @@
         <v>6</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S44" t="s">
         <v>97</v>
@@ -6537,7 +6537,7 @@
         <v>6</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>97</v>
@@ -6561,7 +6561,7 @@
         <v>148</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>147</v>
@@ -6600,7 +6600,7 @@
         <v>6</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>97</v>
@@ -6621,13 +6621,13 @@
         <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G48" s="3">
         <v>6</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N48" s="3">
         <v>1</v>
@@ -6663,7 +6663,7 @@
         <v>6</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>97</v>
@@ -6684,13 +6684,13 @@
         <v>69</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G49" s="3">
         <v>6</v>
@@ -6726,7 +6726,7 @@
         <v>6</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>97</v>
@@ -6915,7 +6915,7 @@
         <v>6</v>
       </c>
       <c r="R52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S52" t="s">
         <v>97</v>
@@ -7230,7 +7230,7 @@
         <v>6</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>97</v>
@@ -7293,7 +7293,7 @@
         <v>6</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>97</v>
@@ -7356,7 +7356,7 @@
         <v>6</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S59" t="s">
         <v>97</v>
@@ -7419,7 +7419,7 @@
         <v>6</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>97</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A11F91-53A9-4C43-A984-1CEB2534E1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562467C7-2F1C-4632-BF3F-48F5622AEAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="765" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2497,6 +2497,663 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>豆類を焼いて香りや味を出す。豆殻も一緒に取る。
+派生：
+LV1でテンパリング習得可</t>
+    <rPh sb="0" eb="1">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼く際に、温度を細かく指定できる。
+材料選択後、
+クッキーの場合、時間と温度を決めることができる画面になる。
+その他、焼き菓子も同様に、時間と温度を決めることができる。
+派生：
+LV1で、豆焼き習得可</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>ザイリョウセンタクゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>マメヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼き菓子を二度焼きして、サクサク感を増す。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニドヤ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーなどの焼き菓子をさらに焼くことで、サクサク感を増す。
+LVが上がると、より効果が高まる。
+ゲージが出現するので、
+焦げるギリギリのポイントでゲージを止めると、
+サクサク感が増す。
+ポイントを超えると、焦げて失敗。
+仕上げ回数を一回消費する。
+仕上げ回数がないと、使用できない。</t>
+    <rPh sb="7" eb="8">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光で作ったちょうちょや葉っぱを飛ばす
+お菓子をさらにかわいく演出できる。
+特定のお菓子でないと、効果が発動しない。
+木やお城などをモチーフにしたお菓子と相性がいい。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>アイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アパレイユのお勉強</t>
+    <rPh sb="7" eb="9">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のお菓子に生命を吹き込むことで、動くお菓子にする。
+ツイスターチョコレート　→　うねうねと生きた動きをするチョコレート
+動物のお菓子　→　動くどうぶつたちのお菓子</t>
+    <rPh sb="64" eb="66">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、水あめ・チョコレートを羽飾りに変形する</t>
+    <rPh sb="5" eb="6">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハネ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Summon_Mirabo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラボーの召喚</t>
+    <rPh sb="5" eb="7">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラボー先生を呼び出し、手伝ってもらう。</t>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキの見た目をきれいに仕上げる。
+クリームをきれいにぬる技術のこと。
+クリームを塗る工程の際に、成功率を少し上げる。
+LVがあがると、きれいにクリームを塗れて、見た目がよくなる。
+LV1: なめらかさ+15, 成功率+3%
+LV2: なめらかさ+30, 成功率+6%
+LV3: なめらかさ+45, 成功率+9%
+LV4: なめらかさ+60, 成功率+12%
+LV5: なめらかさ+75, 成功率+15%</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="108" eb="111">
+      <t>セイコウリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雨の力で、ベリーやジュースに虹色を加える。</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニジイロ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レインボー・レイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rainbow_Rain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サラマンダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウンディーネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シルフェイド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カカオマスの温度調整をし、なめらかにする。
+温度調節はかなり繊細な作業なので、慎重に。
+３つゲージがでてきて、
+各ゲージを赤い点になるべく近づけてストップ。</t>
+    <rPh sb="6" eb="10">
+      <t>オンドチョウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウセツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センサイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラボー先生を呼び出し、手伝ってもらう。
+ヒカリの周りをうろちょろする。</t>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テツダ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バタフライ・ルミネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星について勉強する。
+LVが上がるにつれて、星魔法の効果をアップする。
+星魔法を使ったときの、お菓子の食感・見た目が底上げされる。</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホシマホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ホシマホウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雨の力を借りて、ベリーやジュースに、虹色の力を与える。
+与えられたベリーやジュースは、虹色になる。</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニジイロ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニジイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュガーを光らせる
+レベルをあげると、成功しやすくなる。
+また、見た目が上昇する。
+LV1: +5%成功Up
+LV2: +10%成功Up
+LV3: +15%成功Up
+LV4: +20%成功Up
+LV5: +25%成功Up
+派生：
+LV３で、ルミナスフルーツの習得可</t>
+    <rPh sb="5" eb="6">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ハセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のフルーツを光らせる
+小さいもの、つぶつぶしたフルーツのみ光らせることができる。
+大き目のフルーツは光らない。
+レベルをあげると、成功しやすくなる。
+また、見た目が上昇する。
+LV1: +5%成功Up
+LV2: +10%成功Up
+LV3: +15%成功Up
+LV4: +20%成功Up
+LV5: +25%成功Up</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、水あめ・チョコレートを羽飾りに変形する
+特定のお菓子と組み合わせると、かっこよくてオシャレなお菓子の出来上がり！
+風を感じるお菓子を作ることができる。
+ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。
+派生：
+LV1で、各ウィンド系の魔法の習得可</t>
+    <rPh sb="5" eb="6">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハネ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>様々な物体を凍らせる
 ゼリー凍る。
 砂糖水とジュース　アイスキャンデーに。
@@ -2510,7 +3167,8 @@
 LV5　おかし全般
 LVに応じて凍らせられる素材が増えていく。
 派生：
-LV2で、ジェラートフリーズ習得可</t>
+LV2で、ジェラートフリーズ習得可
+※ただし、本が必要。</t>
     <rPh sb="0" eb="2">
       <t>サマザマ</t>
     </rPh>
@@ -2544,661 +3202,11 @@
     <rPh sb="178" eb="180">
       <t>ハセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>豆類を焼いて香りや味を出す。豆殻も一緒に取る。
-派生：
-LV1でテンパリング習得可</t>
-    <rPh sb="0" eb="1">
-      <t>マメ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ルイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>マメ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハセイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>シュウトク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>焼く際に、温度を細かく指定できる。
-材料選択後、
-クッキーの場合、時間と温度を決めることができる画面になる。
-その他、焼き菓子も同様に、時間と温度を決めることができる。
-派生：
-LV1で、豆焼き習得可</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="24">
-      <t>ザイリョウセンタクゴ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ハセイ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>マメヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>焼き菓子を二度焼きして、サクサク感を増す。</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガシ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニドヤ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーなどの焼き菓子をさらに焼くことで、サクサク感を増す。
-LVが上がると、より効果が高まる。
-ゲージが出現するので、
-焦げるギリギリのポイントでゲージを止めると、
-サクサク感が増す。
-ポイントを超えると、焦げて失敗。
-仕上げ回数を一回消費する。
-仕上げ回数がないと、使用できない。</t>
-    <rPh sb="7" eb="8">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガシ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>光で作ったちょうちょや葉っぱを飛ばす
-お菓子をさらにかわいく演出できる。
-特定のお菓子でないと、効果が発動しない。
-木やお城などをモチーフにしたお菓子と相性がいい。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>アイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アパレイユのお勉強</t>
-    <rPh sb="7" eb="9">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特定のお菓子に生命を吹き込むことで、動くお菓子にする。
-ツイスターチョコレート　→　うねうねと生きた動きをするチョコレート
-動物のお菓子　→　動くどうぶつたちのお菓子</t>
-    <rPh sb="64" eb="66">
-      <t>ドウブツ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、水あめ・チョコレートを羽飾りに変形する
-特定のお菓子と組み合わせると、かっこよくてオシャレなお菓子の出来上がり！
-ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。
-派生：
-LV1で、各ウィンド系の魔法の習得可</t>
-    <rPh sb="5" eb="6">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ハネ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ハセイ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>マホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、水あめ・チョコレートを羽飾りに変形する</t>
-    <rPh sb="5" eb="6">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ハネ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カザ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Summon_Mirabo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ミラボーの召喚</t>
-    <rPh sb="5" eb="7">
-      <t>ショウカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ミラボー先生を呼び出し、手伝ってもらう。</t>
-    <rPh sb="4" eb="6">
-      <t>センセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テツダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキの見た目をきれいに仕上げる。
-クリームをきれいにぬる技術のこと。
-クリームを塗る工程の際に、成功率を少し上げる。
-LVがあがると、きれいにクリームを塗れて、見た目がよくなる。
-LV1: なめらかさ+15, 成功率+3%
-LV2: なめらかさ+30, 成功率+6%
-LV3: なめらかさ+45, 成功率+9%
-LV4: なめらかさ+60, 成功率+12%
-LV5: なめらかさ+75, 成功率+15%</t>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>セイコウリツ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="108" eb="111">
-      <t>セイコウリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>雨の力で、ベリーやジュースに虹色を加える。</t>
-    <rPh sb="0" eb="1">
-      <t>アメ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニジイロ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>クワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レインボー・レイン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Rainbow_Rain</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サラマンダー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウンディーネ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シルフェイド</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カカオマスの温度調整をし、なめらかにする。
-温度調節はかなり繊細な作業なので、慎重に。
-３つゲージがでてきて、
-各ゲージを赤い点になるべく近づけてストップ。</t>
-    <rPh sb="6" eb="10">
-      <t>オンドチョウセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>チョウセツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>センサイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ミラボー先生を呼び出し、手伝ってもらう。
-ヒカリの周りをうろちょろする。</t>
-    <rPh sb="4" eb="6">
-      <t>センセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テツダ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>マワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バタフライ・ルミネ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>星について勉強する。
-LVが上がるにつれて、星魔法の効果をアップする。
-星魔法を使ったときの、お菓子の食感・見た目が底上げされる。</t>
-    <rPh sb="0" eb="1">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ホシマホウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ホシマホウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ソコア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>雨の力を借りて、ベリーやジュースに、虹色の力を与える。
-与えられたベリーやジュースは、虹色になる。</t>
-    <rPh sb="0" eb="1">
-      <t>アメ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニジイロ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニジイロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シュガーを光らせる
-レベルをあげると、成功しやすくなる。
-また、見た目が上昇する。
-LV1: +5%成功Up
-LV2: +10%成功Up
-LV3: +15%成功Up
-LV4: +20%成功Up
-LV5: +25%成功Up
-派生：
-LV３で、ルミナスフルーツの習得可</t>
-    <rPh sb="5" eb="6">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジョウショウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ハセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特定のフルーツを光らせる
-小さいもの、つぶつぶしたフルーツのみ光らせることができる。
-大き目のフルーツは光らない。
-レベルをあげると、成功しやすくなる。
-また、見た目が上昇する。
-LV1: +5%成功Up
-LV2: +10%成功Up
-LV3: +15%成功Up
-LV4: +20%成功Up
-LV5: +25%成功Up</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ヒカ</t>
+    <rPh sb="205" eb="206">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3288,7 +3296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3313,6 +3321,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3630,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4080,7 +4091,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>97</v>
@@ -4143,7 +4154,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>64</v>
@@ -4269,7 +4280,7 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S10" t="s">
         <v>83</v>
@@ -4296,7 +4307,7 @@
         <v>140</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -4332,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>97</v>
@@ -4356,7 +4367,7 @@
         <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
         <v>230</v>
@@ -4521,7 +4532,7 @@
         <v>6</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>97</v>
@@ -4734,7 +4745,7 @@
         <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F18" t="s">
         <v>229</v>
@@ -4899,7 +4910,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>97</v>
@@ -4962,7 +4973,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>17</v>
@@ -4986,7 +4997,7 @@
         <v>113</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>75</v>
@@ -5025,7 +5036,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>97</v>
@@ -5172,13 +5183,13 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" t="s">
         <v>242</v>
-      </c>
-      <c r="E25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F25" t="s">
-        <v>244</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -5214,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S25" t="s">
         <v>97</v>
@@ -5277,7 +5288,7 @@
         <v>6</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>97</v>
@@ -5301,7 +5312,7 @@
         <v>164</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>165</v>
@@ -5367,7 +5378,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G28" s="3">
         <v>6</v>
@@ -5403,7 +5414,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>97</v>
@@ -5502,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -5565,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -5628,7 +5639,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -5916,66 +5927,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37">
+    <row r="37" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>4005</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="7">
         <v>12</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>5</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>97</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1</v>
+      </c>
+      <c r="O37" s="7">
         <v>3</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="7">
         <v>100</v>
       </c>
-      <c r="Q37">
-        <v>6</v>
-      </c>
-      <c r="R37" s="2" t="s">
+      <c r="Q37" s="7">
+        <v>6</v>
+      </c>
+      <c r="R37" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="S37" t="s">
-        <v>97</v>
-      </c>
-      <c r="T37">
+      <c r="S37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T37" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6309,7 +6320,7 @@
         <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F43" t="s">
         <v>171</v>
@@ -6411,7 +6422,7 @@
         <v>6</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="S44" t="s">
         <v>97</v>
@@ -6648,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N48" s="3">
         <v>1</v>
@@ -6684,13 +6695,13 @@
         <v>69</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G49" s="3">
         <v>6</v>
@@ -6726,7 +6737,7 @@
         <v>6</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>97</v>
@@ -7293,7 +7304,7 @@
         <v>6</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>97</v>

--- a/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562467C7-2F1C-4632-BF3F-48F5622AEAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A930DAD-8399-4168-9CF7-A119724234BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25575" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2130" yWindow="1230" windowWidth="25560" windowHeight="14325" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3641,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5480,10 +5480,10 @@
         <v>218</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="T29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
